--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" state="visible" r:id="rId2"/>
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1077">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -3185,6 +3185,9 @@
     <t xml:space="preserve">emmserbmmatm</t>
   </si>
   <si>
+    <t xml:space="preserve">oil</t>
+  </si>
+  <si>
     <t xml:space="preserve">oil emissions</t>
   </si>
   <si>
@@ -3225,6 +3228,9 @@
   </si>
   <si>
     <t xml:space="preserve">emmfossoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net</t>
   </si>
   <si>
     <t xml:space="preserve">Net Emissions</t>
@@ -5710,10 +5716,10 @@
   <dimension ref="A1:T95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
       <selection pane="bottomRight" activeCell="J59" activeCellId="0" sqref="J59"/>
     </sheetView>
   </sheetViews>
@@ -8136,8 +8142,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A112" activeCellId="0" sqref="A112"/>
     </sheetView>
@@ -13798,9 +13804,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+      <selection pane="bottomLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14337,12 +14343,14 @@
       <c r="B31" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="C31" s="41"/>
+      <c r="C31" s="41" t="s">
+        <v>912</v>
+      </c>
       <c r="D31" s="43" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
@@ -14356,10 +14364,10 @@
       </c>
       <c r="C32" s="41"/>
       <c r="D32" s="43" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
@@ -14373,10 +14381,10 @@
       </c>
       <c r="C33" s="41"/>
       <c r="D33" s="43" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
@@ -14390,10 +14398,10 @@
       </c>
       <c r="C34" s="41"/>
       <c r="D34" s="43" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
@@ -14407,10 +14415,10 @@
       </c>
       <c r="C35" s="41"/>
       <c r="D35" s="43" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
@@ -14427,7 +14435,7 @@
         <v>342</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
@@ -14441,10 +14449,10 @@
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="43" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
@@ -14461,7 +14469,7 @@
         <v>823</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
@@ -14473,12 +14481,14 @@
       <c r="B39" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="C39" s="41"/>
+      <c r="C39" s="41" t="s">
+        <v>927</v>
+      </c>
       <c r="D39" s="43" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
@@ -14492,10 +14502,10 @@
       </c>
       <c r="C40" s="41"/>
       <c r="D40" s="43" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
@@ -14509,10 +14519,10 @@
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="43" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
@@ -14526,10 +14536,10 @@
       </c>
       <c r="C42" s="41"/>
       <c r="D42" s="43" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
@@ -14543,10 +14553,10 @@
       </c>
       <c r="C43" s="41"/>
       <c r="D43" s="43" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
@@ -14563,7 +14573,7 @@
         <v>350</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
@@ -14577,10 +14587,10 @@
       </c>
       <c r="C45" s="41"/>
       <c r="D45" s="43" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
@@ -14594,10 +14604,10 @@
       </c>
       <c r="C46" s="41"/>
       <c r="D46" s="43" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
@@ -14611,10 +14621,10 @@
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="43" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
@@ -14628,10 +14638,10 @@
       </c>
       <c r="C48" s="41"/>
       <c r="D48" s="43" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
@@ -14645,10 +14655,10 @@
       </c>
       <c r="C49" s="41"/>
       <c r="D49" s="43" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
@@ -14665,7 +14675,7 @@
         <v>352</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
@@ -14682,7 +14692,7 @@
         <v>352</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
@@ -14696,10 +14706,10 @@
       </c>
       <c r="C52" s="41"/>
       <c r="D52" s="43" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E52" s="49" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
@@ -14716,7 +14726,7 @@
         <v>487</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
@@ -14968,10 +14978,10 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15068,7 +15078,7 @@
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="43" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>869</v>
@@ -15095,7 +15105,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="47" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>220</v>
@@ -15112,7 +15122,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="47" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>220</v>
@@ -15129,7 +15139,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="47" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>220</v>
@@ -15146,7 +15156,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="47" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>220</v>
@@ -15163,7 +15173,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="47" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>220</v>
@@ -15197,7 +15207,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="47" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>218</v>
@@ -15214,7 +15224,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="47" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>218</v>
@@ -15231,7 +15241,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="47" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>218</v>
@@ -15248,7 +15258,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="47" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>218</v>
@@ -15265,7 +15275,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="47" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>220</v>
@@ -15282,85 +15292,87 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="47" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="41" t="s">
+        <v>912</v>
+      </c>
       <c r="D18" s="43" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="47" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>218</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="43" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="47" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>218</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="43" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="47" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>218</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="43" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="47" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>230</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="43" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
@@ -15377,24 +15389,24 @@
         <v>342</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="47" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>220</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="43" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
@@ -15408,10 +15420,10 @@
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="43" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
@@ -15425,10 +15437,10 @@
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="43" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
@@ -15445,7 +15457,7 @@
         <v>352</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
@@ -15758,563 +15770,563 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>959</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>957</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>955</v>
-      </c>
       <c r="E2" s="53" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B3" s="50" t="s">
+        <v>962</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>963</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>961</v>
+      </c>
+      <c r="E3" s="53" t="s">
         <v>960</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>961</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>959</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B14" s="50" t="s">
+        <v>986</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>963</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>985</v>
+      </c>
+      <c r="E14" s="55" t="s">
         <v>984</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>961</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>983</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C21" s="51" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D21" s="52" t="s">
         <v>1001</v>
       </c>
-      <c r="D21" s="52" t="s">
-        <v>999</v>
-      </c>
       <c r="E21" s="53" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C22" s="51" t="s">
         <v>1003</v>
       </c>
-      <c r="B22" s="58" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>1001</v>
-      </c>
       <c r="D22" s="52" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C25" s="51" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D25" s="52" t="s">
         <v>1012</v>
       </c>
-      <c r="D25" s="52" t="s">
-        <v>1010</v>
-      </c>
       <c r="E25" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D26" s="60" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D29" s="60" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D30" s="60" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C33" s="54" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D33" s="60" t="s">
         <v>1035</v>
       </c>
-      <c r="D33" s="60" t="s">
-        <v>1033</v>
-      </c>
       <c r="E33" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B34" s="56" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C34" s="54" t="s">
         <v>1037</v>
       </c>
-      <c r="C34" s="54" t="s">
-        <v>1035</v>
-      </c>
       <c r="D34" s="52" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E34" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
   </sheetData>
@@ -16375,274 +16387,274 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="52" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C3" s="51" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>1042</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>1040</v>
-      </c>
       <c r="E3" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="52" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="52" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="52" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="52" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="52" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="52" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="52" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C11" s="51"/>
       <c r="D11" s="52" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="52" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="52" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C14" s="51"/>
       <c r="D14" s="52" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="52" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="52" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="52" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="52" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="52" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
   </sheetData>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" state="visible" r:id="rId2"/>
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1078">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -3204,6 +3204,9 @@
   </si>
   <si>
     <t xml:space="preserve">emmoiltra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so</t>
   </si>
   <si>
     <t xml:space="preserve">shipping oil emisions</t>
@@ -8142,10 +8145,10 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A112" activeCellId="0" sqref="A112"/>
+      <selection pane="bottomLeft" activeCell="C229" activeCellId="0" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13806,7 +13809,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14396,12 +14399,14 @@
       <c r="B34" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="C34" s="41"/>
+      <c r="C34" s="41" t="s">
+        <v>919</v>
+      </c>
       <c r="D34" s="43" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
@@ -14415,10 +14420,10 @@
       </c>
       <c r="C35" s="41"/>
       <c r="D35" s="43" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
@@ -14435,7 +14440,7 @@
         <v>342</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
@@ -14449,10 +14454,10 @@
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="43" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
@@ -14469,7 +14474,7 @@
         <v>823</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
@@ -14482,13 +14487,13 @@
         <v>347</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
@@ -14502,10 +14507,10 @@
       </c>
       <c r="C40" s="41"/>
       <c r="D40" s="43" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
@@ -14519,10 +14524,10 @@
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="43" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
@@ -14536,10 +14541,10 @@
       </c>
       <c r="C42" s="41"/>
       <c r="D42" s="43" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
@@ -14553,10 +14558,10 @@
       </c>
       <c r="C43" s="41"/>
       <c r="D43" s="43" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
@@ -14573,7 +14578,7 @@
         <v>350</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
@@ -14587,10 +14592,10 @@
       </c>
       <c r="C45" s="41"/>
       <c r="D45" s="43" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
@@ -14604,10 +14609,10 @@
       </c>
       <c r="C46" s="41"/>
       <c r="D46" s="43" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
@@ -14621,10 +14626,10 @@
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="43" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
@@ -14638,10 +14643,10 @@
       </c>
       <c r="C48" s="41"/>
       <c r="D48" s="43" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
@@ -14655,10 +14660,10 @@
       </c>
       <c r="C49" s="41"/>
       <c r="D49" s="43" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
@@ -14675,7 +14680,7 @@
         <v>352</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
@@ -14692,7 +14697,7 @@
         <v>352</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
@@ -14706,10 +14711,10 @@
       </c>
       <c r="C52" s="41"/>
       <c r="D52" s="43" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E52" s="49" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
@@ -14726,7 +14731,7 @@
         <v>487</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
@@ -14978,10 +14983,10 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15078,7 +15083,7 @@
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="43" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>869</v>
@@ -15105,7 +15110,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="47" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>220</v>
@@ -15122,7 +15127,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="47" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>220</v>
@@ -15139,7 +15144,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="47" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>220</v>
@@ -15156,7 +15161,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="47" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>220</v>
@@ -15173,7 +15178,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="47" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>220</v>
@@ -15207,7 +15212,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="47" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>218</v>
@@ -15224,7 +15229,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="47" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>218</v>
@@ -15241,7 +15246,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="47" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>218</v>
@@ -15258,7 +15263,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="47" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>218</v>
@@ -15275,7 +15280,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="47" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>220</v>
@@ -15292,7 +15297,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="47" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>218</v>
@@ -15311,7 +15316,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="47" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>218</v>
@@ -15328,7 +15333,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="47" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>218</v>
@@ -15345,34 +15350,34 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="47" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>218</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="43" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="47" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>230</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="43" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
@@ -15389,24 +15394,24 @@
         <v>342</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="47" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>220</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="43" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
@@ -15420,10 +15425,10 @@
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="43" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
@@ -15437,10 +15442,10 @@
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="43" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
@@ -15457,7 +15462,7 @@
         <v>352</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
@@ -15770,563 +15775,563 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B2" s="50" t="s">
+        <v>959</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>960</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>958</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>959</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>957</v>
-      </c>
       <c r="E2" s="53" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>963</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>964</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>962</v>
+      </c>
+      <c r="E3" s="53" t="s">
         <v>961</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>962</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>963</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>961</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B4" s="50" t="s">
+        <v>966</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>960</v>
+      </c>
+      <c r="D4" s="52" t="s">
         <v>965</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>959</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>964</v>
-      </c>
       <c r="E4" s="53" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B5" s="50" t="s">
+        <v>968</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>964</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>967</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>963</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>966</v>
-      </c>
       <c r="E5" s="53" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B6" s="50" t="s">
+        <v>970</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>960</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>969</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>959</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>968</v>
-      </c>
       <c r="E6" s="53" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B7" s="50" t="s">
+        <v>972</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>964</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>971</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>963</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>970</v>
-      </c>
       <c r="E7" s="53" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B8" s="50" t="s">
+        <v>974</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>960</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>973</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>959</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>972</v>
-      </c>
       <c r="E8" s="53" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B9" s="50" t="s">
+        <v>976</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>964</v>
+      </c>
+      <c r="D9" s="52" t="s">
         <v>975</v>
       </c>
-      <c r="C9" s="51" t="s">
-        <v>963</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>974</v>
-      </c>
       <c r="E9" s="53" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B10" s="50" t="s">
+        <v>978</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>960</v>
+      </c>
+      <c r="D10" s="52" t="s">
         <v>977</v>
       </c>
-      <c r="C10" s="51" t="s">
-        <v>959</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>976</v>
-      </c>
       <c r="E10" s="53" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B11" s="50" t="s">
+        <v>980</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>960</v>
+      </c>
+      <c r="D11" s="52" t="s">
         <v>979</v>
       </c>
-      <c r="C11" s="51" t="s">
-        <v>959</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>978</v>
-      </c>
       <c r="E11" s="53" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B12" s="50" t="s">
+        <v>982</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>964</v>
+      </c>
+      <c r="D12" s="52" t="s">
         <v>981</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>963</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>980</v>
-      </c>
       <c r="E12" s="53" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B13" s="50" t="s">
+        <v>984</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>964</v>
+      </c>
+      <c r="D13" s="52" t="s">
         <v>983</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>963</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>982</v>
-      </c>
       <c r="E13" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>987</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>964</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>986</v>
+      </c>
+      <c r="E14" s="55" t="s">
         <v>985</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>986</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>963</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>985</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B16" s="50" t="s">
+        <v>992</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>964</v>
+      </c>
+      <c r="D16" s="52" t="s">
         <v>991</v>
       </c>
-      <c r="C16" s="54" t="s">
-        <v>963</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>990</v>
-      </c>
       <c r="E16" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B17" s="50" t="s">
+        <v>994</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>964</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>993</v>
       </c>
-      <c r="C17" s="54" t="s">
-        <v>963</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>992</v>
-      </c>
       <c r="E17" s="53" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B18" s="50" t="s">
+        <v>996</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>964</v>
+      </c>
+      <c r="D18" s="52" t="s">
         <v>995</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>963</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>994</v>
-      </c>
       <c r="E18" s="53" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B20" s="50" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>964</v>
+      </c>
+      <c r="D20" s="52" t="s">
         <v>1000</v>
       </c>
-      <c r="C20" s="51" t="s">
-        <v>963</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>999</v>
-      </c>
       <c r="E20" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B21" s="57" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D21" s="52" t="s">
         <v>1002</v>
       </c>
-      <c r="C21" s="51" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>1001</v>
-      </c>
       <c r="E21" s="53" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B23" s="50" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D23" s="52" t="s">
         <v>1009</v>
       </c>
-      <c r="C23" s="51" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>1008</v>
-      </c>
       <c r="E23" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B24" s="50" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D24" s="52" t="s">
         <v>1011</v>
       </c>
-      <c r="C24" s="51" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>1010</v>
-      </c>
       <c r="E24" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B25" s="50" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D25" s="52" t="s">
         <v>1013</v>
       </c>
-      <c r="C25" s="51" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>1012</v>
-      </c>
       <c r="E25" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D26" s="60" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D29" s="60" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D30" s="60" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B32" s="50" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D32" s="52" t="s">
         <v>1034</v>
       </c>
-      <c r="C32" s="51" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>1033</v>
-      </c>
       <c r="E32" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B33" s="56" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D33" s="60" t="s">
         <v>1036</v>
       </c>
-      <c r="C33" s="54" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>1035</v>
-      </c>
       <c r="E33" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C34" s="54" t="s">
         <v>1038</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="D34" s="52" t="s">
         <v>1039</v>
       </c>
-      <c r="C34" s="54" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>1038</v>
-      </c>
       <c r="E34" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -16387,274 +16392,274 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="52" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B3" s="50" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>1043</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>1042</v>
-      </c>
       <c r="E3" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="52" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="52" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="52" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="52" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="52" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="52" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="52" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C11" s="51"/>
       <c r="D11" s="52" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="52" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="52" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C14" s="51"/>
       <c r="D14" s="52" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="52" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="52" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="52" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="52" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="52" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" state="visible" r:id="rId2"/>
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="1086">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -3315,6 +3315,12 @@
   </si>
   <si>
     <t xml:space="preserve">emmimpmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULUCF Emmissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmlulucf</t>
   </si>
   <si>
     <t xml:space="preserve">OCGT emissions</t>
@@ -5756,11 +5762,11 @@
   </sheetPr>
   <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D65" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
       <selection pane="bottomRight" activeCell="C96" activeCellId="0" sqref="C96"/>
     </sheetView>
   </sheetViews>
@@ -13858,10 +13864,10 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14811,7 +14817,23 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
     </row>
-    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C55" s="42"/>
+      <c r="D55" s="44" t="s">
+        <v>956</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>957</v>
+      </c>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+    </row>
     <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15157,7 +15179,7 @@
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="44" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E5" s="44" t="s">
         <v>871</v>
@@ -15184,7 +15206,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="48" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>220</v>
@@ -15201,7 +15223,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="48" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>220</v>
@@ -15218,7 +15240,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>220</v>
@@ -15235,7 +15257,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="48" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>220</v>
@@ -15252,7 +15274,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>220</v>
@@ -15286,7 +15308,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="48" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>218</v>
@@ -15303,7 +15325,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="48" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>218</v>
@@ -15320,7 +15342,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="48" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>218</v>
@@ -15337,7 +15359,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>218</v>
@@ -15354,7 +15376,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="48" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>220</v>
@@ -15371,7 +15393,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="48" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>218</v>
@@ -15390,7 +15412,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="48" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>218</v>
@@ -15407,7 +15429,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="48" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>218</v>
@@ -15424,7 +15446,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="48" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>218</v>
@@ -15441,7 +15463,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="48" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>230</v>
@@ -15458,7 +15480,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="48" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>230</v>
@@ -15467,7 +15489,7 @@
         <v>953</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E23" s="51" t="s">
         <v>955</v>
@@ -15494,7 +15516,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="48" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>220</v>
@@ -15867,563 +15889,563 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C2" s="53" t="s">
+        <v>968</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>966</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>964</v>
-      </c>
       <c r="E2" s="55" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B3" s="52" t="s">
+        <v>971</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>972</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>970</v>
+      </c>
+      <c r="E3" s="55" t="s">
         <v>969</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>970</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>968</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B14" s="52" t="s">
+        <v>995</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>972</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>994</v>
+      </c>
+      <c r="E14" s="57" t="s">
         <v>993</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>970</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>992</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C21" s="53" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D21" s="54" t="s">
         <v>1010</v>
       </c>
-      <c r="D21" s="54" t="s">
-        <v>1008</v>
-      </c>
       <c r="E21" s="55" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C22" s="53" t="s">
         <v>1012</v>
       </c>
-      <c r="B22" s="60" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>1010</v>
-      </c>
       <c r="D22" s="54" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C25" s="53" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D25" s="54" t="s">
         <v>1021</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>1019</v>
-      </c>
       <c r="E25" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="E27" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E28" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E30" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C33" s="56" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D33" s="62" t="s">
         <v>1044</v>
       </c>
-      <c r="D33" s="62" t="s">
-        <v>1042</v>
-      </c>
       <c r="E33" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B34" s="58" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C34" s="56" t="s">
         <v>1046</v>
       </c>
-      <c r="C34" s="56" t="s">
-        <v>1044</v>
-      </c>
       <c r="D34" s="54" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E34" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -16484,274 +16506,274 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="54" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C3" s="53" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>1051</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>1049</v>
-      </c>
       <c r="E3" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C4" s="53"/>
       <c r="D4" s="54" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="54" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="54" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="54" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="54" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="54" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="54" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="54" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="54" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="54" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="54" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="54" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="54" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="54" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="54" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">INDICATORS!$A$1:$E$24</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MAIN_PARAMS!$A$1:$C$3</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">NODES!$A$1:$S$82</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">PROCESSES!$A$1:$G$247</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">PROCESSES!$A$1:$G$248</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">PROCESSES_2!$A$1:$G$2</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">PROCESSES_3!$A$1:$G$2</definedName>
     <definedName function="false" hidden="false" name="Valeurs_PCS_PCI" vbProcedure="false">[1]Listes!$A$6:$A$7</definedName>
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="1151">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -2772,6 +2772,12 @@
   </si>
   <si>
     <t xml:space="preserve">presngvcffrewati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shipping hydrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preshydwati</t>
   </si>
   <si>
     <t xml:space="preserve">prescmscfind</t>
@@ -4613,7 +4619,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5154,7 +5160,7 @@
       <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.91"/>
@@ -5764,7 +5770,7 @@
       <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.28"/>
@@ -5947,7 +5953,7 @@
       <selection pane="bottomRight" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.36"/>
@@ -8464,15 +8470,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D141" activeCellId="0" sqref="D141"/>
+      <selection pane="bottomLeft" activeCell="E217" activeCellId="0" sqref="E217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -12748,34 +12754,33 @@
       <c r="G216" s="42"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="26" t="str">
+      <c r="A217" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B217" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C217" s="42"/>
+      <c r="D217" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="E217" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="F217" s="42"/>
+      <c r="G217" s="42"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="26" t="str">
         <f aca="false">NODES!$A$19</f>
         <v>cms_fe</v>
-      </c>
-      <c r="B217" s="26" t="str">
-        <f aca="false">NODES!$A$8</f>
-        <v>ind</v>
-      </c>
-      <c r="C217" s="42"/>
-      <c r="D217" s="42"/>
-      <c r="E217" s="42" t="s">
-        <v>775</v>
-      </c>
-      <c r="F217" s="42"/>
-      <c r="G217" s="42"/>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="26" t="s">
-        <v>169</v>
       </c>
       <c r="B218" s="26" t="str">
         <f aca="false">NODES!$A$8</f>
         <v>ind</v>
       </c>
       <c r="C218" s="42"/>
-      <c r="D218" s="42" t="s">
-        <v>776</v>
-      </c>
+      <c r="D218" s="42"/>
       <c r="E218" s="42" t="s">
         <v>777</v>
       </c>
@@ -12786,48 +12791,48 @@
       <c r="A219" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B219" s="26" t="s">
-        <v>128</v>
+      <c r="B219" s="26" t="str">
+        <f aca="false">NODES!$A$8</f>
+        <v>ind</v>
       </c>
       <c r="C219" s="42"/>
-      <c r="D219" s="44" t="s">
+      <c r="D219" s="42" t="s">
         <v>778</v>
       </c>
-      <c r="E219" s="44" t="s">
+      <c r="E219" s="42" t="s">
         <v>779</v>
       </c>
       <c r="F219" s="42"/>
       <c r="G219" s="42"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="26" t="str">
+      <c r="A220" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B220" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C220" s="42"/>
+      <c r="D220" s="44" t="s">
+        <v>780</v>
+      </c>
+      <c r="E220" s="44" t="s">
+        <v>781</v>
+      </c>
+      <c r="F220" s="42"/>
+      <c r="G220" s="42"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="26" t="str">
         <f aca="false">NODES!$A$15</f>
         <v>pet_fe</v>
-      </c>
-      <c r="B220" s="26" t="str">
-        <f aca="false">NODES!$A$8</f>
-        <v>ind</v>
-      </c>
-      <c r="C220" s="42"/>
-      <c r="D220" s="42"/>
-      <c r="E220" s="42" t="s">
-        <v>780</v>
-      </c>
-      <c r="F220" s="42"/>
-      <c r="G220" s="42"/>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="26" t="s">
-        <v>163</v>
       </c>
       <c r="B221" s="26" t="str">
         <f aca="false">NODES!$A$8</f>
         <v>ind</v>
       </c>
       <c r="C221" s="42"/>
-      <c r="D221" s="42" t="s">
-        <v>781</v>
-      </c>
+      <c r="D221" s="42"/>
       <c r="E221" s="42" t="s">
         <v>782</v>
       </c>
@@ -12838,33 +12843,32 @@
       <c r="A222" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B222" s="26" t="s">
-        <v>128</v>
+      <c r="B222" s="26" t="str">
+        <f aca="false">NODES!$A$8</f>
+        <v>ind</v>
       </c>
       <c r="C222" s="42"/>
       <c r="D222" s="42" t="s">
         <v>783</v>
       </c>
-      <c r="E222" s="44" t="s">
+      <c r="E222" s="42" t="s">
         <v>784</v>
       </c>
       <c r="F222" s="42"/>
       <c r="G222" s="42"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="26" t="str">
-        <f aca="false">NODES!$A$14</f>
-        <v>elc_fe</v>
-      </c>
-      <c r="B223" s="26" t="str">
-        <f aca="false">NODES!$A$8</f>
-        <v>ind</v>
+      <c r="A223" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B223" s="26" t="s">
+        <v>128</v>
       </c>
       <c r="C223" s="42"/>
       <c r="D223" s="42" t="s">
         <v>785</v>
       </c>
-      <c r="E223" s="42" t="s">
+      <c r="E223" s="44" t="s">
         <v>786</v>
       </c>
       <c r="F223" s="42"/>
@@ -12872,33 +12876,34 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="26" t="str">
-        <f aca="false">NODES!$A$22</f>
-        <v>sth_fe</v>
+        <f aca="false">NODES!$A$14</f>
+        <v>elc_fe</v>
       </c>
       <c r="B224" s="26" t="str">
         <f aca="false">NODES!$A$8</f>
         <v>ind</v>
       </c>
       <c r="C224" s="42"/>
-      <c r="D224" s="42"/>
+      <c r="D224" s="42" t="s">
+        <v>787</v>
+      </c>
       <c r="E224" s="42" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F224" s="42"/>
       <c r="G224" s="42"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="26" t="s">
-        <v>172</v>
+      <c r="A225" s="26" t="str">
+        <f aca="false">NODES!$A$22</f>
+        <v>sth_fe</v>
       </c>
       <c r="B225" s="26" t="str">
         <f aca="false">NODES!$A$8</f>
         <v>ind</v>
       </c>
       <c r="C225" s="42"/>
-      <c r="D225" s="42" t="s">
-        <v>788</v>
-      </c>
+      <c r="D225" s="42"/>
       <c r="E225" s="42" t="s">
         <v>789</v>
       </c>
@@ -12906,34 +12911,34 @@
       <c r="G225" s="42"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="26" t="str">
-        <f aca="false">NODES!$A$23</f>
-        <v>pac_fe</v>
+      <c r="A226" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="B226" s="26" t="str">
         <f aca="false">NODES!$A$8</f>
         <v>ind</v>
       </c>
       <c r="C226" s="42"/>
-      <c r="D226" s="42"/>
+      <c r="D226" s="42" t="s">
+        <v>790</v>
+      </c>
       <c r="E226" s="42" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F226" s="42"/>
       <c r="G226" s="42"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="26" t="s">
-        <v>159</v>
+      <c r="A227" s="26" t="str">
+        <f aca="false">NODES!$A$23</f>
+        <v>pac_fe</v>
       </c>
       <c r="B227" s="26" t="str">
         <f aca="false">NODES!$A$8</f>
         <v>ind</v>
       </c>
       <c r="C227" s="42"/>
-      <c r="D227" s="42" t="s">
-        <v>791</v>
-      </c>
+      <c r="D227" s="42"/>
       <c r="E227" s="42" t="s">
         <v>792</v>
       </c>
@@ -12942,10 +12947,11 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B228" s="26" t="s">
-        <v>128</v>
+        <v>159</v>
+      </c>
+      <c r="B228" s="26" t="str">
+        <f aca="false">NODES!$A$8</f>
+        <v>ind</v>
       </c>
       <c r="C228" s="42"/>
       <c r="D228" s="42" t="s">
@@ -12958,26 +12964,26 @@
       <c r="G228" s="42"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="26" t="str">
+      <c r="A229" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B229" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C229" s="42"/>
+      <c r="D229" s="42" t="s">
+        <v>795</v>
+      </c>
+      <c r="E229" s="42" t="s">
+        <v>796</v>
+      </c>
+      <c r="F229" s="42"/>
+      <c r="G229" s="42"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="26" t="str">
         <f aca="false">NODES!$A$19</f>
         <v>cms_fe</v>
-      </c>
-      <c r="B229" s="26" t="str">
-        <f aca="false">NODES!$A$12</f>
-        <v>neind</v>
-      </c>
-      <c r="C229" s="42"/>
-      <c r="D229" s="42"/>
-      <c r="E229" s="42" t="s">
-        <v>795</v>
-      </c>
-      <c r="F229" s="42"/>
-      <c r="G229" s="42"/>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="26" t="str">
-        <f aca="false">NODES!$A$18</f>
-        <v>gaz_fe</v>
       </c>
       <c r="B230" s="26" t="str">
         <f aca="false">NODES!$A$12</f>
@@ -12986,24 +12992,22 @@
       <c r="C230" s="42"/>
       <c r="D230" s="42"/>
       <c r="E230" s="42" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F230" s="42"/>
       <c r="G230" s="42"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="26" t="str">
-        <f aca="false">NODES!$A$15</f>
-        <v>pet_fe</v>
+        <f aca="false">NODES!$A$18</f>
+        <v>gaz_fe</v>
       </c>
       <c r="B231" s="26" t="str">
         <f aca="false">NODES!$A$12</f>
         <v>neind</v>
       </c>
       <c r="C231" s="42"/>
-      <c r="D231" s="42" t="s">
-        <v>797</v>
-      </c>
+      <c r="D231" s="42"/>
       <c r="E231" s="42" t="s">
         <v>798</v>
       </c>
@@ -13011,8 +13015,9 @@
       <c r="G231" s="42"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="26" t="s">
-        <v>159</v>
+      <c r="A232" s="26" t="str">
+        <f aca="false">NODES!$A$15</f>
+        <v>pet_fe</v>
       </c>
       <c r="B232" s="26" t="str">
         <f aca="false">NODES!$A$12</f>
@@ -13029,43 +13034,44 @@
       <c r="G232" s="42"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="26" t="str">
-        <f aca="false">NODES!$A$20</f>
-        <v>enc_fe</v>
+      <c r="A233" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="B233" s="26" t="str">
         <f aca="false">NODES!$A$12</f>
         <v>neind</v>
       </c>
       <c r="C233" s="42"/>
-      <c r="D233" s="42"/>
+      <c r="D233" s="42" t="s">
+        <v>801</v>
+      </c>
       <c r="E233" s="42" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F233" s="42"/>
       <c r="G233" s="42"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="26" t="str">
-        <f aca="false">NODES!$A$19</f>
-        <v>cms_fe</v>
+        <f aca="false">NODES!$A$20</f>
+        <v>enc_fe</v>
       </c>
       <c r="B234" s="26" t="str">
-        <f aca="false">NODES!$A$10</f>
-        <v>ens</v>
+        <f aca="false">NODES!$A$12</f>
+        <v>neind</v>
       </c>
       <c r="C234" s="42"/>
       <c r="D234" s="42"/>
       <c r="E234" s="42" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F234" s="42"/>
       <c r="G234" s="42"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="26" t="str">
-        <f aca="false">NODES!$A$20</f>
-        <v>enc_fe</v>
+        <f aca="false">NODES!$A$19</f>
+        <v>cms_fe</v>
       </c>
       <c r="B235" s="26" t="str">
         <f aca="false">NODES!$A$10</f>
@@ -13074,15 +13080,15 @@
       <c r="C235" s="42"/>
       <c r="D235" s="42"/>
       <c r="E235" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F235" s="42"/>
       <c r="G235" s="42"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="26" t="str">
-        <f aca="false">NODES!$A$15</f>
-        <v>pet_fe</v>
+        <f aca="false">NODES!$A$20</f>
+        <v>enc_fe</v>
       </c>
       <c r="B236" s="26" t="str">
         <f aca="false">NODES!$A$10</f>
@@ -13091,15 +13097,15 @@
       <c r="C236" s="42"/>
       <c r="D236" s="42"/>
       <c r="E236" s="42" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F236" s="42"/>
       <c r="G236" s="42"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="26" t="str">
-        <f aca="false">NODES!$A$18</f>
-        <v>gaz_fe</v>
+        <f aca="false">NODES!$A$15</f>
+        <v>pet_fe</v>
       </c>
       <c r="B237" s="26" t="str">
         <f aca="false">NODES!$A$10</f>
@@ -13108,15 +13114,15 @@
       <c r="C237" s="42"/>
       <c r="D237" s="42"/>
       <c r="E237" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F237" s="42"/>
       <c r="G237" s="42"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="26" t="str">
-        <f aca="false">NODES!$A$14</f>
-        <v>elc_fe</v>
+        <f aca="false">NODES!$A$18</f>
+        <v>gaz_fe</v>
       </c>
       <c r="B238" s="26" t="str">
         <f aca="false">NODES!$A$10</f>
@@ -13125,15 +13131,15 @@
       <c r="C238" s="42"/>
       <c r="D238" s="42"/>
       <c r="E238" s="42" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F238" s="42"/>
       <c r="G238" s="42"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="26" t="str">
-        <f aca="false">NODES!$A$21</f>
-        <v>vap_fe</v>
+        <f aca="false">NODES!$A$14</f>
+        <v>elc_fe</v>
       </c>
       <c r="B239" s="26" t="str">
         <f aca="false">NODES!$A$10</f>
@@ -13142,32 +13148,32 @@
       <c r="C239" s="42"/>
       <c r="D239" s="42"/>
       <c r="E239" s="42" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F239" s="42"/>
       <c r="G239" s="42"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="26" t="str">
-        <f aca="false">NODES!$A$19</f>
-        <v>cms_fe</v>
+        <f aca="false">NODES!$A$21</f>
+        <v>vap_fe</v>
       </c>
       <c r="B240" s="26" t="str">
-        <f aca="false">NODES!$A$9</f>
-        <v>agr</v>
+        <f aca="false">NODES!$A$10</f>
+        <v>ens</v>
       </c>
       <c r="C240" s="42"/>
       <c r="D240" s="42"/>
       <c r="E240" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F240" s="42"/>
       <c r="G240" s="42"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="26" t="str">
-        <f aca="false">NODES!$A$20</f>
-        <v>enc_fe</v>
+        <f aca="false">NODES!$A$19</f>
+        <v>cms_fe</v>
       </c>
       <c r="B241" s="26" t="str">
         <f aca="false">NODES!$A$9</f>
@@ -13176,23 +13182,22 @@
       <c r="C241" s="42"/>
       <c r="D241" s="42"/>
       <c r="E241" s="42" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F241" s="42"/>
       <c r="G241" s="42"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="26" t="s">
-        <v>153</v>
+      <c r="A242" s="26" t="str">
+        <f aca="false">NODES!$A$20</f>
+        <v>enc_fe</v>
       </c>
       <c r="B242" s="26" t="str">
         <f aca="false">NODES!$A$9</f>
         <v>agr</v>
       </c>
       <c r="C242" s="42"/>
-      <c r="D242" s="42" t="s">
-        <v>810</v>
-      </c>
+      <c r="D242" s="42"/>
       <c r="E242" s="42" t="s">
         <v>811</v>
       </c>
@@ -13200,35 +13205,34 @@
       <c r="G242" s="42"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="26" t="str">
-        <f aca="false">NODES!$A$18</f>
-        <v>gaz_fe</v>
+      <c r="A243" s="26" t="s">
+        <v>153</v>
       </c>
       <c r="B243" s="26" t="str">
         <f aca="false">NODES!$A$9</f>
         <v>agr</v>
       </c>
       <c r="C243" s="42"/>
-      <c r="D243" s="42"/>
+      <c r="D243" s="42" t="s">
+        <v>812</v>
+      </c>
       <c r="E243" s="42" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F243" s="42"/>
       <c r="G243" s="42"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="26" t="str">
-        <f aca="false">NODES!$A$14</f>
-        <v>elc_fe</v>
+        <f aca="false">NODES!$A$18</f>
+        <v>gaz_fe</v>
       </c>
       <c r="B244" s="26" t="str">
         <f aca="false">NODES!$A$9</f>
         <v>agr</v>
       </c>
       <c r="C244" s="42"/>
-      <c r="D244" s="42" t="s">
-        <v>813</v>
-      </c>
+      <c r="D244" s="42"/>
       <c r="E244" s="42" t="s">
         <v>814</v>
       </c>
@@ -13236,11 +13240,13 @@
       <c r="G244" s="42"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B245" s="26" t="s">
-        <v>132</v>
+      <c r="A245" s="26" t="str">
+        <f aca="false">NODES!$A$14</f>
+        <v>elc_fe</v>
+      </c>
+      <c r="B245" s="26" t="str">
+        <f aca="false">NODES!$A$9</f>
+        <v>agr</v>
       </c>
       <c r="C245" s="42"/>
       <c r="D245" s="42" t="s">
@@ -13253,26 +13259,26 @@
       <c r="G245" s="42"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="26" t="str">
+      <c r="A246" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B246" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C246" s="42"/>
+      <c r="D246" s="42" t="s">
+        <v>817</v>
+      </c>
+      <c r="E246" s="42" t="s">
+        <v>818</v>
+      </c>
+      <c r="F246" s="42"/>
+      <c r="G246" s="42"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="26" t="str">
         <f aca="false">NODES!$A$22</f>
         <v>sth_fe</v>
-      </c>
-      <c r="B246" s="26" t="str">
-        <f aca="false">NODES!$A$9</f>
-        <v>agr</v>
-      </c>
-      <c r="C246" s="42"/>
-      <c r="D246" s="42"/>
-      <c r="E246" s="42" t="s">
-        <v>817</v>
-      </c>
-      <c r="F246" s="42"/>
-      <c r="G246" s="42"/>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="26" t="str">
-        <f aca="false">NODES!$A$23</f>
-        <v>pac_fe</v>
       </c>
       <c r="B247" s="26" t="str">
         <f aca="false">NODES!$A$9</f>
@@ -13281,22 +13287,22 @@
       <c r="C247" s="42"/>
       <c r="D247" s="42"/>
       <c r="E247" s="42" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F247" s="42"/>
       <c r="G247" s="42"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B248" s="26" t="s">
-        <v>196</v>
+      <c r="A248" s="26" t="str">
+        <f aca="false">NODES!$A$23</f>
+        <v>pac_fe</v>
+      </c>
+      <c r="B248" s="26" t="str">
+        <f aca="false">NODES!$A$9</f>
+        <v>agr</v>
       </c>
       <c r="C248" s="42"/>
-      <c r="D248" s="42" t="s">
-        <v>819</v>
-      </c>
+      <c r="D248" s="42"/>
       <c r="E248" s="42" t="s">
         <v>820</v>
       </c>
@@ -13305,10 +13311,10 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B249" s="26" t="s">
         <v>196</v>
-      </c>
-      <c r="B249" s="26" t="s">
-        <v>185</v>
       </c>
       <c r="C249" s="42"/>
       <c r="D249" s="42" t="s">
@@ -13322,10 +13328,10 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B250" s="26" t="s">
         <v>185</v>
-      </c>
-      <c r="B250" s="26" t="s">
-        <v>273</v>
       </c>
       <c r="C250" s="42"/>
       <c r="D250" s="42" t="s">
@@ -13339,16 +13345,16 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="26" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B251" s="26" t="s">
         <v>273</v>
       </c>
       <c r="C251" s="42"/>
-      <c r="D251" s="44" t="s">
+      <c r="D251" s="42" t="s">
         <v>825</v>
       </c>
-      <c r="E251" s="44" t="s">
+      <c r="E251" s="42" t="s">
         <v>826</v>
       </c>
       <c r="F251" s="42"/>
@@ -13356,10 +13362,10 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="26" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B252" s="26" t="s">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="C252" s="42"/>
       <c r="D252" s="44" t="s">
@@ -13380,10 +13386,10 @@
       </c>
       <c r="C253" s="42"/>
       <c r="D253" s="44" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E253" s="44" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F253" s="42"/>
       <c r="G253" s="42"/>
@@ -13397,10 +13403,10 @@
       </c>
       <c r="C254" s="42"/>
       <c r="D254" s="44" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E254" s="44" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F254" s="42"/>
       <c r="G254" s="42"/>
@@ -13414,24 +13420,24 @@
       </c>
       <c r="C255" s="42"/>
       <c r="D255" s="44" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E255" s="44" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F255" s="42"/>
       <c r="G255" s="42"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B256" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="B256" s="26" t="s">
-        <v>193</v>
       </c>
       <c r="C256" s="42"/>
       <c r="D256" s="44" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E256" s="44" t="s">
         <v>833</v>
@@ -13448,10 +13454,10 @@
       </c>
       <c r="C257" s="42"/>
       <c r="D257" s="44" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E257" s="44" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F257" s="42"/>
       <c r="G257" s="42"/>
@@ -13465,10 +13471,10 @@
       </c>
       <c r="C258" s="42"/>
       <c r="D258" s="44" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E258" s="44" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F258" s="42"/>
       <c r="G258" s="42"/>
@@ -13482,44 +13488,44 @@
       </c>
       <c r="C259" s="42"/>
       <c r="D259" s="44" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E259" s="44" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F259" s="42"/>
       <c r="G259" s="42"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B260" s="26" t="s">
         <v>193</v>
-      </c>
-      <c r="B260" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="C260" s="42"/>
       <c r="D260" s="44" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="E260" s="44" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F260" s="42"/>
       <c r="G260" s="42"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B261" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="B261" s="26" t="s">
-        <v>193</v>
       </c>
       <c r="C261" s="42"/>
       <c r="D261" s="44" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E261" s="44" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F261" s="42"/>
       <c r="G261" s="42"/>
@@ -13529,11 +13535,11 @@
         <v>198</v>
       </c>
       <c r="B262" s="26" t="s">
-        <v>273</v>
+        <v>193</v>
       </c>
       <c r="C262" s="42"/>
       <c r="D262" s="44" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E262" s="44" t="s">
         <v>840</v>
@@ -13550,10 +13556,10 @@
       </c>
       <c r="C263" s="42"/>
       <c r="D263" s="44" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E263" s="44" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F263" s="42"/>
       <c r="G263" s="42"/>
@@ -13567,10 +13573,10 @@
       </c>
       <c r="C264" s="42"/>
       <c r="D264" s="44" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E264" s="44" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F264" s="42"/>
       <c r="G264" s="42"/>
@@ -13584,7 +13590,7 @@
       </c>
       <c r="C265" s="42"/>
       <c r="D265" s="44" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E265" s="44" t="s">
         <v>844</v>
@@ -13601,10 +13607,10 @@
       </c>
       <c r="C266" s="42"/>
       <c r="D266" s="44" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E266" s="44" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F266" s="42"/>
       <c r="G266" s="42"/>
@@ -13618,58 +13624,58 @@
       </c>
       <c r="C267" s="42"/>
       <c r="D267" s="44" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E267" s="44" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F267" s="42"/>
       <c r="G267" s="42"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="26" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B268" s="26" t="s">
         <v>273</v>
       </c>
       <c r="C268" s="42"/>
       <c r="D268" s="44" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="E268" s="44" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F268" s="42"/>
       <c r="G268" s="42"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="26" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B269" s="26" t="s">
         <v>273</v>
       </c>
       <c r="C269" s="42"/>
       <c r="D269" s="44" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E269" s="44" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F269" s="42"/>
       <c r="G269" s="42"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="26" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="B270" s="26" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="C270" s="42"/>
       <c r="D270" s="44" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E270" s="44" t="s">
         <v>850</v>
@@ -13679,10 +13685,10 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B271" s="26" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="C271" s="42"/>
       <c r="D271" s="44" t="s">
@@ -13696,10 +13702,10 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="26" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="B272" s="26" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C272" s="42"/>
       <c r="D272" s="44" t="s">
@@ -13713,48 +13719,48 @@
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="26" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B273" s="26" t="s">
-        <v>273</v>
+        <v>148</v>
       </c>
       <c r="C273" s="42"/>
       <c r="D273" s="44" t="s">
-        <v>839</v>
+        <v>855</v>
       </c>
       <c r="E273" s="44" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F273" s="42"/>
       <c r="G273" s="42"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="26" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B274" s="26" t="s">
         <v>273</v>
       </c>
       <c r="C274" s="42"/>
       <c r="D274" s="44" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E274" s="44" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F274" s="42"/>
       <c r="G274" s="42"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="26" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B275" s="26" t="s">
-        <v>169</v>
+        <v>273</v>
       </c>
       <c r="C275" s="42"/>
       <c r="D275" s="44" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="E275" s="44" t="s">
         <v>858</v>
@@ -13764,10 +13770,10 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="26" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="B276" s="26" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C276" s="42"/>
       <c r="D276" s="44" t="s">
@@ -13781,10 +13787,10 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="26" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="B277" s="26" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C277" s="42"/>
       <c r="D277" s="44" t="s">
@@ -13798,10 +13804,10 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="26" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="B278" s="26" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C278" s="42"/>
       <c r="D278" s="44" t="s">
@@ -13815,10 +13821,10 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="26" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B279" s="26" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C279" s="42"/>
       <c r="D279" s="44" t="s">
@@ -13832,15 +13838,17 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="26" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="B280" s="26" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="C280" s="42"/>
-      <c r="D280" s="44"/>
+      <c r="D280" s="44" t="s">
+        <v>867</v>
+      </c>
       <c r="E280" s="44" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F280" s="42"/>
       <c r="G280" s="42"/>
@@ -13850,12 +13858,12 @@
         <v>250</v>
       </c>
       <c r="B281" s="26" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C281" s="42"/>
       <c r="D281" s="44"/>
       <c r="E281" s="44" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F281" s="42"/>
       <c r="G281" s="42"/>
@@ -13865,12 +13873,12 @@
         <v>250</v>
       </c>
       <c r="B282" s="26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C282" s="42"/>
       <c r="D282" s="44"/>
       <c r="E282" s="44" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F282" s="42"/>
       <c r="G282" s="42"/>
@@ -13880,12 +13888,12 @@
         <v>250</v>
       </c>
       <c r="B283" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C283" s="42"/>
       <c r="D283" s="44"/>
       <c r="E283" s="44" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F283" s="42"/>
       <c r="G283" s="42"/>
@@ -13895,27 +13903,27 @@
         <v>250</v>
       </c>
       <c r="B284" s="26" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="C284" s="42"/>
       <c r="D284" s="44"/>
       <c r="E284" s="44" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F284" s="42"/>
       <c r="G284" s="42"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="26" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="B285" s="26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="C285" s="42"/>
       <c r="D285" s="44"/>
       <c r="E285" s="44" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F285" s="42"/>
       <c r="G285" s="42"/>
@@ -13925,12 +13933,12 @@
         <v>192</v>
       </c>
       <c r="B286" s="26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C286" s="42"/>
       <c r="D286" s="44"/>
       <c r="E286" s="44" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F286" s="42"/>
       <c r="G286" s="42"/>
@@ -13940,12 +13948,12 @@
         <v>192</v>
       </c>
       <c r="B287" s="26" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="C287" s="42"/>
       <c r="D287" s="44"/>
       <c r="E287" s="44" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F287" s="42"/>
       <c r="G287" s="42"/>
@@ -13955,12 +13963,12 @@
         <v>192</v>
       </c>
       <c r="B288" s="26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C288" s="42"/>
       <c r="D288" s="44"/>
       <c r="E288" s="44" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F288" s="42"/>
       <c r="G288" s="42"/>
@@ -13970,12 +13978,12 @@
         <v>192</v>
       </c>
       <c r="B289" s="26" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C289" s="42"/>
       <c r="D289" s="44"/>
       <c r="E289" s="44" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F289" s="42"/>
       <c r="G289" s="42"/>
@@ -13985,12 +13993,12 @@
         <v>192</v>
       </c>
       <c r="B290" s="26" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="C290" s="42"/>
       <c r="D290" s="44"/>
       <c r="E290" s="44" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F290" s="42"/>
       <c r="G290" s="42"/>
@@ -14000,12 +14008,12 @@
         <v>192</v>
       </c>
       <c r="B291" s="26" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C291" s="42"/>
       <c r="D291" s="44"/>
       <c r="E291" s="44" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F291" s="42"/>
       <c r="G291" s="42"/>
@@ -14015,12 +14023,12 @@
         <v>192</v>
       </c>
       <c r="B292" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C292" s="42"/>
       <c r="D292" s="44"/>
       <c r="E292" s="44" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F292" s="42"/>
       <c r="G292" s="42"/>
@@ -14030,27 +14038,25 @@
         <v>192</v>
       </c>
       <c r="B293" s="26" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C293" s="42"/>
       <c r="D293" s="44"/>
       <c r="E293" s="44" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F293" s="42"/>
       <c r="G293" s="42"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="26" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B294" s="26" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="C294" s="42"/>
-      <c r="D294" s="44" t="s">
-        <v>881</v>
-      </c>
+      <c r="D294" s="44"/>
       <c r="E294" s="44" t="s">
         <v>882</v>
       </c>
@@ -14059,7 +14065,7 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B295" s="26" t="s">
         <v>268</v>
@@ -14076,7 +14082,7 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="26" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B296" s="26" t="s">
         <v>268</v>
@@ -14093,22 +14099,24 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="26" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B297" s="26" t="s">
         <v>268</v>
       </c>
       <c r="C297" s="42"/>
-      <c r="D297" s="44"/>
+      <c r="D297" s="44" t="s">
+        <v>887</v>
+      </c>
       <c r="E297" s="44" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F297" s="42"/>
       <c r="G297" s="42"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B298" s="26" t="s">
         <v>268</v>
@@ -14116,22 +14124,20 @@
       <c r="C298" s="42"/>
       <c r="D298" s="44"/>
       <c r="E298" s="44" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F298" s="42"/>
       <c r="G298" s="42"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="26" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="B299" s="26" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="C299" s="42"/>
-      <c r="D299" s="44" t="s">
-        <v>889</v>
-      </c>
+      <c r="D299" s="44"/>
       <c r="E299" s="44" t="s">
         <v>890</v>
       </c>
@@ -14140,10 +14146,10 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="26" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="B300" s="26" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="C300" s="42"/>
       <c r="D300" s="44" t="s">
@@ -14157,7 +14163,7 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="26" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="B301" s="26" t="s">
         <v>268</v>
@@ -14174,10 +14180,10 @@
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="26" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B302" s="26" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="C302" s="42"/>
       <c r="D302" s="44" t="s">
@@ -14191,7 +14197,7 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="26" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B303" s="26" t="s">
         <v>145</v>
@@ -14215,17 +14221,33 @@
       </c>
       <c r="C304" s="42"/>
       <c r="D304" s="44" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E304" s="44" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F304" s="42"/>
       <c r="G304" s="42"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B305" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C305" s="42"/>
+      <c r="D305" s="44" t="s">
+        <v>899</v>
+      </c>
+      <c r="E305" s="44" t="s">
+        <v>901</v>
+      </c>
+      <c r="F305" s="42"/>
+      <c r="G305" s="42"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G247"/>
+  <autoFilter ref="A1:G248"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -14251,7 +14273,7 @@
       <selection pane="bottomLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -14294,10 +14316,10 @@
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -14311,10 +14333,10 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="44" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -14328,10 +14350,10 @@
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="44" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -14345,10 +14367,10 @@
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="44" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -14362,10 +14384,10 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="44" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -14379,10 +14401,10 @@
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="44" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
@@ -14396,10 +14418,10 @@
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="44" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
@@ -14413,10 +14435,10 @@
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="44" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
@@ -14430,10 +14452,10 @@
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="44" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -14447,10 +14469,10 @@
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="44" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
@@ -14464,10 +14486,10 @@
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="44" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
@@ -14481,10 +14503,10 @@
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="44" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
@@ -14498,10 +14520,10 @@
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="44" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
@@ -14515,10 +14537,10 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="44" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
@@ -14532,10 +14554,10 @@
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="44" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
@@ -14549,10 +14571,10 @@
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="44" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -14566,10 +14588,10 @@
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="44" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -14583,10 +14605,10 @@
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="44" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
@@ -14600,10 +14622,10 @@
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="44" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
@@ -14617,10 +14639,10 @@
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="44" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
@@ -14634,10 +14656,10 @@
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="44" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
@@ -14651,10 +14673,10 @@
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="44" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
@@ -14668,10 +14690,10 @@
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="44" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
@@ -14685,10 +14707,10 @@
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="44" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -14702,10 +14724,10 @@
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="44" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
@@ -14719,10 +14741,10 @@
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="44" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -14736,10 +14758,10 @@
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="44" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -14753,10 +14775,10 @@
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="44" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -14770,10 +14792,10 @@
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="44" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -14787,10 +14809,10 @@
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="44" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -14803,13 +14825,13 @@
         <v>327</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -14825,10 +14847,10 @@
         <v>125</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
@@ -14844,10 +14866,10 @@
         <v>132</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
@@ -14863,10 +14885,10 @@
         <v>118</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
@@ -14879,13 +14901,13 @@
         <v>327</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -14899,10 +14921,10 @@
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="44" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -14919,7 +14941,7 @@
         <v>344</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -14933,10 +14955,10 @@
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="44" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
@@ -14950,10 +14972,10 @@
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="44" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
@@ -14966,13 +14988,13 @@
         <v>349</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
@@ -14986,10 +15008,10 @@
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="44" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
@@ -15003,10 +15025,10 @@
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="44" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
@@ -15020,10 +15042,10 @@
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="44" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
@@ -15037,10 +15059,10 @@
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="44" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
@@ -15054,10 +15076,10 @@
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="44" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
@@ -15071,10 +15093,10 @@
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="44" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
@@ -15088,10 +15110,10 @@
       </c>
       <c r="C48" s="42"/>
       <c r="D48" s="44" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
@@ -15105,10 +15127,10 @@
       </c>
       <c r="C49" s="42"/>
       <c r="D49" s="44" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
@@ -15122,10 +15144,10 @@
       </c>
       <c r="C50" s="42"/>
       <c r="D50" s="44" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
@@ -15139,10 +15161,10 @@
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="44" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -15159,7 +15181,7 @@
         <v>354</v>
       </c>
       <c r="E52" s="50" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
@@ -15176,7 +15198,7 @@
         <v>354</v>
       </c>
       <c r="E53" s="50" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
@@ -15190,10 +15212,10 @@
       </c>
       <c r="C54" s="42"/>
       <c r="D54" s="44" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E54" s="50" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
@@ -15210,7 +15232,7 @@
         <v>498</v>
       </c>
       <c r="E55" s="50" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
@@ -15223,13 +15245,13 @@
         <v>327</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
@@ -15243,10 +15265,10 @@
       </c>
       <c r="C57" s="42"/>
       <c r="D57" s="44" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="50" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
@@ -15260,10 +15282,10 @@
       </c>
       <c r="C58" s="42"/>
       <c r="D58" s="44" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E58" s="50" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
@@ -15277,10 +15299,10 @@
       </c>
       <c r="C59" s="42"/>
       <c r="D59" s="44" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E59" s="50" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
@@ -15297,7 +15319,7 @@
         <v>146</v>
       </c>
       <c r="E60" s="50" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
@@ -15314,7 +15336,7 @@
         <v>359</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -15328,10 +15350,10 @@
       </c>
       <c r="C62" s="42"/>
       <c r="D62" s="44" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E62" s="44" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
@@ -15345,10 +15367,10 @@
       </c>
       <c r="C63" s="42"/>
       <c r="D63" s="44" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E63" s="44" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
@@ -15362,10 +15384,10 @@
       </c>
       <c r="C64" s="42"/>
       <c r="D64" s="44" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E64" s="44" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
@@ -15379,10 +15401,10 @@
       </c>
       <c r="C65" s="42"/>
       <c r="D65" s="44" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E65" s="44" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
@@ -15396,10 +15418,10 @@
       </c>
       <c r="C66" s="42"/>
       <c r="D66" s="44" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E66" s="44" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
@@ -15413,10 +15435,10 @@
       </c>
       <c r="C67" s="42"/>
       <c r="D67" s="44" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E67" s="44" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
@@ -15430,10 +15452,10 @@
       </c>
       <c r="C68" s="42"/>
       <c r="D68" s="44" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E68" s="44" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
@@ -15447,10 +15469,10 @@
       </c>
       <c r="C69" s="42"/>
       <c r="D69" s="44" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
@@ -15464,10 +15486,10 @@
       </c>
       <c r="C70" s="42"/>
       <c r="D70" s="44" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E70" s="44" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
@@ -15700,15 +15722,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -15751,10 +15773,10 @@
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -15768,10 +15790,10 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="44" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -15785,10 +15807,10 @@
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="44" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -15802,10 +15824,10 @@
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="44" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -15819,112 +15841,112 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="44" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="48" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="44" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="48" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="44" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="44" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="48" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="44" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="44" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="48" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="44" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
@@ -15938,218 +15960,218 @@
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="44" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="48" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="44" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="48" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="44" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="44" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="48" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="44" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="48" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="44" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="48" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="48" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="44" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="48" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="44" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="48" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="44" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="48" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="44" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="48" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>232</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="44" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="48" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>232</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -16166,24 +16188,24 @@
         <v>344</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="48" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="44" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -16197,10 +16219,10 @@
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="44" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -16214,10 +16236,10 @@
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="44" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -16234,7 +16256,7 @@
         <v>354</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -16251,7 +16273,7 @@
         <v>359</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -16268,7 +16290,7 @@
         <v>146</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -16282,262 +16304,14 @@
       </c>
       <c r="C33" s="42"/>
       <c r="D33" s="49" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
     </row>
-    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:G2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16565,7 +16339,7 @@
       <selection pane="bottomLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -16592,563 +16366,563 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C2" s="53" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>1031</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>1029</v>
-      </c>
       <c r="E2" s="55" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B3" s="52" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E3" s="55" t="s">
         <v>1034</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B14" s="52" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E14" s="57" t="s">
         <v>1058</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C21" s="53" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D21" s="54" t="s">
         <v>1075</v>
       </c>
-      <c r="D21" s="54" t="s">
-        <v>1073</v>
-      </c>
       <c r="E21" s="55" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C22" s="53" t="s">
         <v>1077</v>
       </c>
-      <c r="B22" s="60" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>1075</v>
-      </c>
       <c r="D22" s="54" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C25" s="53" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D25" s="54" t="s">
         <v>1086</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>1084</v>
-      </c>
       <c r="E25" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="E27" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="E28" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E30" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C33" s="56" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D33" s="62" t="s">
         <v>1109</v>
       </c>
-      <c r="D33" s="62" t="s">
-        <v>1107</v>
-      </c>
       <c r="E33" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B34" s="58" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C34" s="56" t="s">
         <v>1111</v>
       </c>
-      <c r="C34" s="56" t="s">
-        <v>1109</v>
-      </c>
       <c r="D34" s="54" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="E34" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -17182,7 +16956,7 @@
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -17209,274 +16983,274 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="54" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="C3" s="53" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>1116</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>1114</v>
-      </c>
       <c r="E3" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C4" s="53"/>
       <c r="D4" s="54" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="54" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="54" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="54" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="54" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="54" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="54" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="54" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="54" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="54" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="54" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="54" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="54" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="54" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="54" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -17507,7 +17281,7 @@
       <selection pane="bottomRight" activeCell="AQ9" activeCellId="0" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.27"/>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" state="visible" r:id="rId2"/>
@@ -5160,7 +5160,7 @@
       <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.91"/>
@@ -5770,7 +5770,7 @@
       <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.28"/>
@@ -5945,15 +5945,15 @@
   </sheetPr>
   <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D65" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+      <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
       <selection pane="bottomRight" activeCell="C84" activeCellId="0" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.36"/>
@@ -8473,12 +8473,12 @@
   <dimension ref="A1:G305"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E217" activeCellId="0" sqref="E217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -14268,12 +14268,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -15724,13 +15724,13 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -16339,7 +16339,7 @@
       <selection pane="bottomLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -16956,7 +16956,7 @@
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -17281,7 +17281,7 @@
       <selection pane="bottomRight" activeCell="AQ9" activeCellId="0" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.27"/>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -5145,7 +5145,7 @@
       <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.91"/>
@@ -5755,7 +5755,7 @@
       <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.28"/>
@@ -5938,7 +5938,7 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.36"/>
@@ -8469,12 +8469,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A280" activeCellId="0" sqref="A280"/>
+      <selection pane="bottomLeft" activeCell="A246" activeCellId="0" sqref="A246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -13256,7 +13256,7 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="26" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B246" s="26" t="s">
         <v>132</v>
@@ -14254,7 +14254,7 @@
       <selection pane="bottomLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -15679,7 +15679,7 @@
       <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -16305,7 +16305,7 @@
       <selection pane="bottomLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -16922,7 +16922,7 @@
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -17247,7 +17247,7 @@
       <selection pane="bottomRight" activeCell="AQ9" activeCellId="0" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.27"/>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="1145">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -1877,9 +1877,6 @@
     <t xml:space="preserve">presaba</t>
   </si>
   <si>
-    <t xml:space="preserve">hydcl</t>
-  </si>
-  <si>
     <t xml:space="preserve">Production of ammonia from electricity</t>
   </si>
   <si>
@@ -2531,10 +2528,10 @@
     <t xml:space="preserve">fazfa</t>
   </si>
   <si>
-    <t xml:space="preserve">Transformation losses (pyrogasification)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fazffz</t>
+    <t xml:space="preserve">Transformation losses (methanation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presabaloss</t>
   </si>
   <si>
     <t xml:space="preserve">Transformation losses (biomass liquefaction)</t>
@@ -5145,7 +5142,7 @@
       <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.91"/>
@@ -5755,7 +5752,7 @@
       <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.28"/>
@@ -5931,14 +5928,14 @@
   <dimension ref="A1:T103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.36"/>
@@ -8469,12 +8466,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A246" activeCellId="0" sqref="A246"/>
+      <selection pane="bottomLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -9468,17 +9465,15 @@
       <c r="B49" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="42"/>
+      <c r="D49" s="42" t="s">
         <v>476</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="E49" s="42" t="s">
         <v>477</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="F49" s="42" t="s">
         <v>478</v>
-      </c>
-      <c r="F49" s="42" t="s">
-        <v>479</v>
       </c>
       <c r="G49" s="42"/>
     </row>
@@ -9491,10 +9486,10 @@
       </c>
       <c r="C50" s="42"/>
       <c r="D50" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="E50" s="42" t="s">
         <v>480</v>
-      </c>
-      <c r="E50" s="42" t="s">
-        <v>481</v>
       </c>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
@@ -9509,16 +9504,16 @@
         <v>hyd_se</v>
       </c>
       <c r="C51" s="42" t="s">
+        <v>481</v>
+      </c>
+      <c r="D51" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="E51" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="F51" s="42" t="s">
         <v>484</v>
-      </c>
-      <c r="F51" s="42" t="s">
-        <v>485</v>
       </c>
       <c r="G51" s="42"/>
     </row>
@@ -9532,16 +9527,16 @@
         <v>hyd_se</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D52" s="42" t="s">
+        <v>485</v>
+      </c>
+      <c r="E52" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="E52" s="42" t="s">
-        <v>487</v>
-      </c>
       <c r="F52" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G52" s="42"/>
     </row>
@@ -9557,7 +9552,7 @@
         <v>356</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
@@ -9571,10 +9566,10 @@
       </c>
       <c r="C54" s="42"/>
       <c r="D54" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="E54" s="43" t="s">
         <v>489</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>490</v>
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
@@ -9588,10 +9583,10 @@
       </c>
       <c r="C55" s="42"/>
       <c r="D55" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="E55" s="43" t="s">
         <v>491</v>
-      </c>
-      <c r="E55" s="43" t="s">
-        <v>492</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
@@ -9605,10 +9600,10 @@
       </c>
       <c r="C56" s="42"/>
       <c r="D56" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="E56" s="43" t="s">
         <v>493</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>494</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
@@ -9622,10 +9617,10 @@
       </c>
       <c r="C57" s="42"/>
       <c r="D57" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="E57" s="43" t="s">
         <v>495</v>
-      </c>
-      <c r="E57" s="43" t="s">
-        <v>496</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
@@ -9639,10 +9634,10 @@
       </c>
       <c r="C58" s="42"/>
       <c r="D58" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="E58" s="43" t="s">
         <v>497</v>
-      </c>
-      <c r="E58" s="43" t="s">
-        <v>498</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
@@ -9656,10 +9651,10 @@
       </c>
       <c r="C59" s="42"/>
       <c r="D59" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="E59" s="43" t="s">
         <v>499</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>500</v>
       </c>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
@@ -9673,10 +9668,10 @@
       </c>
       <c r="C60" s="42"/>
       <c r="D60" s="43" t="s">
+        <v>500</v>
+      </c>
+      <c r="E60" s="43" t="s">
         <v>501</v>
-      </c>
-      <c r="E60" s="43" t="s">
-        <v>502</v>
       </c>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
@@ -9690,10 +9685,10 @@
       </c>
       <c r="C61" s="42"/>
       <c r="D61" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="E61" s="43" t="s">
         <v>503</v>
-      </c>
-      <c r="E61" s="43" t="s">
-        <v>504</v>
       </c>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -9711,16 +9706,16 @@
         <v>437</v>
       </c>
       <c r="D62" s="42" t="s">
+        <v>504</v>
+      </c>
+      <c r="E62" s="42" t="s">
         <v>505</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="F62" s="42" t="s">
         <v>506</v>
       </c>
-      <c r="F62" s="42" t="s">
+      <c r="G62" s="42" t="s">
         <v>507</v>
-      </c>
-      <c r="G62" s="42" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9736,16 +9731,16 @@
         <v>437</v>
       </c>
       <c r="D63" s="42" t="s">
+        <v>508</v>
+      </c>
+      <c r="E63" s="42" t="s">
         <v>509</v>
       </c>
-      <c r="E63" s="42" t="s">
+      <c r="F63" s="42" t="s">
         <v>510</v>
       </c>
-      <c r="F63" s="42" t="s">
+      <c r="G63" s="42" t="s">
         <v>511</v>
-      </c>
-      <c r="G63" s="42" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9761,16 +9756,16 @@
         <v>437</v>
       </c>
       <c r="D64" s="42" t="s">
+        <v>512</v>
+      </c>
+      <c r="E64" s="42" t="s">
         <v>513</v>
       </c>
-      <c r="E64" s="42" t="s">
+      <c r="F64" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="F64" s="42" t="s">
+      <c r="G64" s="42" t="s">
         <v>515</v>
-      </c>
-      <c r="G64" s="42" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9786,16 +9781,16 @@
         <v>437</v>
       </c>
       <c r="D65" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="E65" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="E65" s="42" t="s">
+      <c r="F65" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="F65" s="42" t="s">
+      <c r="G65" s="42" t="s">
         <v>519</v>
-      </c>
-      <c r="G65" s="42" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9811,16 +9806,16 @@
         <v>437</v>
       </c>
       <c r="D66" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="E66" s="42" t="s">
         <v>521</v>
       </c>
-      <c r="E66" s="42" t="s">
+      <c r="F66" s="42" t="s">
         <v>522</v>
       </c>
-      <c r="F66" s="42" t="s">
+      <c r="G66" s="42" t="s">
         <v>523</v>
-      </c>
-      <c r="G66" s="42" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9832,10 +9827,10 @@
       </c>
       <c r="C67" s="42"/>
       <c r="D67" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="E67" s="42" t="s">
         <v>525</v>
-      </c>
-      <c r="E67" s="42" t="s">
-        <v>526</v>
       </c>
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
@@ -9853,16 +9848,16 @@
         <v>437</v>
       </c>
       <c r="D68" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="E68" s="42" t="s">
         <v>527</v>
       </c>
-      <c r="E68" s="42" t="s">
+      <c r="F68" s="42" t="s">
         <v>528</v>
       </c>
-      <c r="F68" s="42" t="s">
+      <c r="G68" s="42" t="s">
         <v>529</v>
-      </c>
-      <c r="G68" s="42" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9883,7 +9878,7 @@
         <v>Heat energy output from waste-to-energy CHP plants</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
@@ -9906,7 +9901,7 @@
         <v>Heat energy output from waste-to-energy CHP plants</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
@@ -9924,16 +9919,16 @@
         <v>437</v>
       </c>
       <c r="D71" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="E71" s="42" t="s">
         <v>533</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="F71" s="42" t="s">
         <v>534</v>
       </c>
-      <c r="F71" s="42" t="s">
+      <c r="G71" s="42" t="s">
         <v>535</v>
-      </c>
-      <c r="G71" s="42" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9949,16 +9944,16 @@
         <v>437</v>
       </c>
       <c r="D72" s="42" t="s">
+        <v>536</v>
+      </c>
+      <c r="E72" s="42" t="s">
         <v>537</v>
       </c>
-      <c r="E72" s="42" t="s">
+      <c r="F72" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="F72" s="42" t="s">
+      <c r="G72" s="42" t="s">
         <v>539</v>
-      </c>
-      <c r="G72" s="42" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9971,17 +9966,17 @@
         <v>vap_se</v>
       </c>
       <c r="C73" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="D73" s="42" t="s">
         <v>541</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="E73" s="42" t="s">
         <v>542</v>
-      </c>
-      <c r="E73" s="42" t="s">
-        <v>543</v>
       </c>
       <c r="F73" s="42"/>
       <c r="G73" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9994,19 +9989,19 @@
         <v>vap_se</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D74" s="42" t="s">
+        <v>544</v>
+      </c>
+      <c r="E74" s="42" t="s">
         <v>545</v>
       </c>
-      <c r="E74" s="42" t="s">
+      <c r="F74" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="F74" s="42" t="s">
+      <c r="G74" s="42" t="s">
         <v>547</v>
-      </c>
-      <c r="G74" s="42" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10027,7 +10022,7 @@
         <v>Heat energy output from household waste incineration</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F75" s="42"/>
       <c r="G75" s="42"/>
@@ -10050,7 +10045,7 @@
         <v>Heat energy output from household waste incineration</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
@@ -10065,17 +10060,17 @@
         <v>vap_se</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D77" s="42" t="s">
+        <v>550</v>
+      </c>
+      <c r="E77" s="42" t="s">
         <v>551</v>
-      </c>
-      <c r="E77" s="42" t="s">
-        <v>552</v>
       </c>
       <c r="F77" s="42"/>
       <c r="G77" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10088,16 +10083,16 @@
         <v>vap_se</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D78" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="E78" s="42" t="s">
         <v>554</v>
       </c>
-      <c r="E78" s="42" t="s">
+      <c r="F78" s="42" t="s">
         <v>555</v>
-      </c>
-      <c r="F78" s="42" t="s">
-        <v>556</v>
       </c>
       <c r="G78" s="42" t="s">
         <v>170</v>
@@ -10114,16 +10109,16 @@
       </c>
       <c r="C79" s="42"/>
       <c r="D79" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="E79" s="42" t="s">
         <v>557</v>
       </c>
-      <c r="E79" s="42" t="s">
+      <c r="F79" s="42" t="s">
         <v>558</v>
       </c>
-      <c r="F79" s="42" t="s">
+      <c r="G79" s="42" t="s">
         <v>559</v>
-      </c>
-      <c r="G79" s="42" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10137,16 +10132,16 @@
       </c>
       <c r="C80" s="42"/>
       <c r="D80" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F80" s="42" t="s">
+        <v>558</v>
+      </c>
+      <c r="G80" s="42" t="s">
         <v>559</v>
-      </c>
-      <c r="G80" s="42" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10159,19 +10154,19 @@
         <v>vap_se</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D81" s="42" t="s">
+        <v>561</v>
+      </c>
+      <c r="E81" s="42" t="s">
         <v>562</v>
       </c>
-      <c r="E81" s="42" t="s">
+      <c r="F81" s="42" t="s">
         <v>563</v>
       </c>
-      <c r="F81" s="42" t="s">
+      <c r="G81" s="42" t="s">
         <v>564</v>
-      </c>
-      <c r="G81" s="42" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10183,10 +10178,10 @@
       </c>
       <c r="C82" s="42"/>
       <c r="D82" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="E82" s="42" t="s">
         <v>566</v>
-      </c>
-      <c r="E82" s="42" t="s">
-        <v>567</v>
       </c>
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
@@ -10200,10 +10195,10 @@
       </c>
       <c r="C83" s="42"/>
       <c r="D83" s="42" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F83" s="42"/>
       <c r="G83" s="42"/>
@@ -10217,10 +10212,10 @@
       </c>
       <c r="C84" s="42"/>
       <c r="D84" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="E84" s="42" t="s">
         <v>569</v>
-      </c>
-      <c r="E84" s="42" t="s">
-        <v>570</v>
       </c>
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
@@ -10235,16 +10230,16 @@
         <v>vap_se</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D85" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="E85" s="42" t="s">
         <v>571</v>
       </c>
-      <c r="E85" s="42" t="s">
+      <c r="F85" s="42" t="s">
         <v>572</v>
-      </c>
-      <c r="F85" s="42" t="s">
-        <v>573</v>
       </c>
       <c r="G85" s="42" t="s">
         <v>167</v>
@@ -10260,17 +10255,17 @@
         <v>vap_se</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D86" s="42" t="s">
+        <v>573</v>
+      </c>
+      <c r="E86" s="42" t="s">
         <v>574</v>
-      </c>
-      <c r="E86" s="42" t="s">
-        <v>575</v>
       </c>
       <c r="F86" s="42"/>
       <c r="G86" s="42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10283,19 +10278,19 @@
         <v>vap_se</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D87" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="E87" s="42" t="s">
         <v>577</v>
       </c>
-      <c r="E87" s="42" t="s">
+      <c r="F87" s="42" t="s">
         <v>578</v>
       </c>
-      <c r="F87" s="42" t="s">
+      <c r="G87" s="42" t="s">
         <v>579</v>
-      </c>
-      <c r="G87" s="42" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10307,19 +10302,19 @@
         <v>vap_se</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F88" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="G88" s="42" t="s">
         <v>579</v>
-      </c>
-      <c r="G88" s="42" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10331,10 +10326,10 @@
       </c>
       <c r="C89" s="42"/>
       <c r="D89" s="44" t="s">
+        <v>581</v>
+      </c>
+      <c r="E89" s="42" t="s">
         <v>582</v>
-      </c>
-      <c r="E89" s="42" t="s">
-        <v>583</v>
       </c>
       <c r="F89" s="42"/>
       <c r="G89" s="42"/>
@@ -10348,10 +10343,10 @@
       </c>
       <c r="C90" s="42"/>
       <c r="D90" s="44" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F90" s="42"/>
       <c r="G90" s="42"/>
@@ -10365,10 +10360,10 @@
       </c>
       <c r="C91" s="42"/>
       <c r="D91" s="44" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F91" s="42"/>
       <c r="G91" s="42"/>
@@ -10383,16 +10378,16 @@
         <v>vap_se</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D92" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="E92" s="42" t="s">
         <v>586</v>
       </c>
-      <c r="E92" s="42" t="s">
+      <c r="F92" s="42" t="s">
         <v>587</v>
-      </c>
-      <c r="F92" s="42" t="s">
-        <v>588</v>
       </c>
       <c r="G92" s="42" t="s">
         <v>160</v>
@@ -10412,10 +10407,10 @@
         <v>thm</v>
       </c>
       <c r="D93" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="E93" s="44" t="s">
         <v>589</v>
-      </c>
-      <c r="E93" s="44" t="s">
-        <v>590</v>
       </c>
       <c r="F93" s="42"/>
       <c r="G93" s="42"/>
@@ -10434,10 +10429,10 @@
         <v>thm</v>
       </c>
       <c r="D94" s="42" t="s">
+        <v>590</v>
+      </c>
+      <c r="E94" s="42" t="s">
         <v>591</v>
-      </c>
-      <c r="E94" s="42" t="s">
-        <v>592</v>
       </c>
       <c r="F94" s="42"/>
       <c r="G94" s="42"/>
@@ -10456,10 +10451,10 @@
         <v>thm</v>
       </c>
       <c r="D95" s="42" t="s">
+        <v>592</v>
+      </c>
+      <c r="E95" s="42" t="s">
         <v>593</v>
-      </c>
-      <c r="E95" s="42" t="s">
-        <v>594</v>
       </c>
       <c r="F95" s="42"/>
       <c r="G95" s="42"/>
@@ -10478,10 +10473,10 @@
         <v>thm</v>
       </c>
       <c r="D96" s="42" t="s">
+        <v>594</v>
+      </c>
+      <c r="E96" s="42" t="s">
         <v>595</v>
-      </c>
-      <c r="E96" s="42" t="s">
-        <v>596</v>
       </c>
       <c r="F96" s="42"/>
       <c r="G96" s="42"/>
@@ -10497,10 +10492,10 @@
       </c>
       <c r="C97" s="26"/>
       <c r="D97" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="E97" s="42" t="s">
         <v>597</v>
-      </c>
-      <c r="E97" s="42" t="s">
-        <v>598</v>
       </c>
       <c r="F97" s="42"/>
       <c r="G97" s="42"/>
@@ -10519,10 +10514,10 @@
         <v>thm</v>
       </c>
       <c r="D98" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="E98" s="42" t="s">
         <v>599</v>
-      </c>
-      <c r="E98" s="42" t="s">
-        <v>600</v>
       </c>
       <c r="F98" s="42"/>
       <c r="G98" s="42"/>
@@ -10541,10 +10536,10 @@
         <v>thm</v>
       </c>
       <c r="D99" s="42" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F99" s="42"/>
       <c r="G99" s="42"/>
@@ -10567,7 +10562,7 @@
         <v>Transformation losses (waste-fired powerplants)</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F100" s="42"/>
       <c r="G100" s="42"/>
@@ -10590,7 +10585,7 @@
         <v>Transformation losses (waste-fired powerplants)</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F101" s="42"/>
       <c r="G101" s="42"/>
@@ -10609,10 +10604,10 @@
         <v>thm</v>
       </c>
       <c r="D102" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="E102" s="42" t="s">
         <v>604</v>
-      </c>
-      <c r="E102" s="42" t="s">
-        <v>605</v>
       </c>
       <c r="F102" s="42"/>
       <c r="G102" s="42"/>
@@ -10631,10 +10626,10 @@
         <v>chp</v>
       </c>
       <c r="D103" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="E103" s="42" t="s">
         <v>606</v>
-      </c>
-      <c r="E103" s="42" t="s">
-        <v>607</v>
       </c>
       <c r="F103" s="42"/>
       <c r="G103" s="42"/>
@@ -10653,10 +10648,10 @@
         <v>chp</v>
       </c>
       <c r="D104" s="42" t="s">
+        <v>607</v>
+      </c>
+      <c r="E104" s="42" t="s">
         <v>608</v>
-      </c>
-      <c r="E104" s="42" t="s">
-        <v>609</v>
       </c>
       <c r="F104" s="42"/>
       <c r="G104" s="42"/>
@@ -10672,10 +10667,10 @@
       </c>
       <c r="C105" s="26"/>
       <c r="D105" s="42" t="s">
+        <v>609</v>
+      </c>
+      <c r="E105" s="42" t="s">
         <v>610</v>
-      </c>
-      <c r="E105" s="42" t="s">
-        <v>611</v>
       </c>
       <c r="F105" s="42"/>
       <c r="G105" s="42"/>
@@ -10691,10 +10686,10 @@
       </c>
       <c r="C106" s="26"/>
       <c r="D106" s="42" t="s">
+        <v>611</v>
+      </c>
+      <c r="E106" s="42" t="s">
         <v>612</v>
-      </c>
-      <c r="E106" s="42" t="s">
-        <v>613</v>
       </c>
       <c r="F106" s="42"/>
       <c r="G106" s="42"/>
@@ -10713,10 +10708,10 @@
         <v>chp</v>
       </c>
       <c r="D107" s="42" t="s">
+        <v>613</v>
+      </c>
+      <c r="E107" s="42" t="s">
         <v>614</v>
-      </c>
-      <c r="E107" s="42" t="s">
-        <v>615</v>
       </c>
       <c r="F107" s="42"/>
       <c r="G107" s="42"/>
@@ -10730,10 +10725,10 @@
       </c>
       <c r="C108" s="26"/>
       <c r="D108" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="E108" s="42" t="s">
         <v>616</v>
-      </c>
-      <c r="E108" s="42" t="s">
-        <v>617</v>
       </c>
       <c r="F108" s="42"/>
       <c r="G108" s="42"/>
@@ -10752,10 +10747,10 @@
         <v>chp</v>
       </c>
       <c r="D109" s="42" t="s">
+        <v>617</v>
+      </c>
+      <c r="E109" s="42" t="s">
         <v>618</v>
-      </c>
-      <c r="E109" s="42" t="s">
-        <v>619</v>
       </c>
       <c r="F109" s="42"/>
       <c r="G109" s="42"/>
@@ -10778,7 +10773,7 @@
         <v>Transformation losses (waste-to-energy CHP plants)</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F110" s="42"/>
       <c r="G110" s="42"/>
@@ -10801,7 +10796,7 @@
         <v>Transformation losses (waste-to-energy CHP plants)</v>
       </c>
       <c r="E111" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F111" s="42"/>
       <c r="G111" s="42"/>
@@ -10820,10 +10815,10 @@
         <v>chp</v>
       </c>
       <c r="D112" s="42" t="s">
+        <v>621</v>
+      </c>
+      <c r="E112" s="42" t="s">
         <v>622</v>
-      </c>
-      <c r="E112" s="42" t="s">
-        <v>623</v>
       </c>
       <c r="F112" s="42"/>
       <c r="G112" s="42"/>
@@ -10842,10 +10837,10 @@
         <v>chp</v>
       </c>
       <c r="D113" s="42" t="s">
+        <v>623</v>
+      </c>
+      <c r="E113" s="42" t="s">
         <v>624</v>
-      </c>
-      <c r="E113" s="42" t="s">
-        <v>625</v>
       </c>
       <c r="F113" s="42"/>
       <c r="G113" s="42"/>
@@ -10864,10 +10859,10 @@
         <v>els</v>
       </c>
       <c r="D114" s="42" t="s">
+        <v>625</v>
+      </c>
+      <c r="E114" s="42" t="s">
         <v>626</v>
-      </c>
-      <c r="E114" s="42" t="s">
-        <v>627</v>
       </c>
       <c r="F114" s="42"/>
       <c r="G114" s="42"/>
@@ -10886,10 +10881,10 @@
         <v>smr</v>
       </c>
       <c r="D115" s="42" t="s">
+        <v>627</v>
+      </c>
+      <c r="E115" s="42" t="s">
         <v>628</v>
-      </c>
-      <c r="E115" s="42" t="s">
-        <v>629</v>
       </c>
       <c r="F115" s="42"/>
       <c r="G115" s="42"/>
@@ -10908,10 +10903,10 @@
         <v>smr</v>
       </c>
       <c r="D116" s="42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F116" s="42"/>
       <c r="G116" s="42"/>
@@ -10930,10 +10925,10 @@
         <v>rch</v>
       </c>
       <c r="D117" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="E117" s="42" t="s">
         <v>631</v>
-      </c>
-      <c r="E117" s="42" t="s">
-        <v>632</v>
       </c>
       <c r="F117" s="42"/>
       <c r="G117" s="42"/>
@@ -10952,10 +10947,10 @@
         <v>rch</v>
       </c>
       <c r="D118" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="E118" s="42" t="s">
         <v>633</v>
-      </c>
-      <c r="E118" s="42" t="s">
-        <v>634</v>
       </c>
       <c r="F118" s="42"/>
       <c r="G118" s="42"/>
@@ -10978,7 +10973,7 @@
         <v>Transformation losses (household waste incineration)</v>
       </c>
       <c r="E119" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F119" s="42"/>
       <c r="G119" s="42"/>
@@ -11001,7 +10996,7 @@
         <v>Transformation losses (household waste incineration)</v>
       </c>
       <c r="E120" s="42" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F120" s="42"/>
       <c r="G120" s="42"/>
@@ -11020,10 +11015,10 @@
         <v>rch</v>
       </c>
       <c r="D121" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="E121" s="42" t="s">
         <v>637</v>
-      </c>
-      <c r="E121" s="42" t="s">
-        <v>638</v>
       </c>
       <c r="F121" s="42"/>
       <c r="G121" s="42"/>
@@ -11042,10 +11037,10 @@
         <v>rch</v>
       </c>
       <c r="D122" s="42" t="s">
+        <v>638</v>
+      </c>
+      <c r="E122" s="42" t="s">
         <v>639</v>
-      </c>
-      <c r="E122" s="42" t="s">
-        <v>640</v>
       </c>
       <c r="F122" s="42"/>
       <c r="G122" s="42"/>
@@ -11063,10 +11058,10 @@
         <v>0</v>
       </c>
       <c r="D123" s="42" t="s">
+        <v>640</v>
+      </c>
+      <c r="E123" s="42" t="s">
         <v>641</v>
-      </c>
-      <c r="E123" s="42" t="s">
-        <v>642</v>
       </c>
       <c r="F123" s="42"/>
       <c r="G123" s="42"/>
@@ -11084,10 +11079,10 @@
         <v>rch</v>
       </c>
       <c r="D124" s="42" t="s">
+        <v>642</v>
+      </c>
+      <c r="E124" s="42" t="s">
         <v>643</v>
-      </c>
-      <c r="E124" s="42" t="s">
-        <v>644</v>
       </c>
       <c r="F124" s="42"/>
       <c r="G124" s="42"/>
@@ -11101,13 +11096,13 @@
         <v>per</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D125" s="42" t="s">
+        <v>644</v>
+      </c>
+      <c r="E125" s="42" t="s">
         <v>645</v>
-      </c>
-      <c r="E125" s="42" t="s">
-        <v>646</v>
       </c>
       <c r="F125" s="42"/>
       <c r="G125" s="42"/>
@@ -11123,10 +11118,10 @@
       </c>
       <c r="C126" s="26"/>
       <c r="D126" s="42" t="s">
+        <v>646</v>
+      </c>
+      <c r="E126" s="42" t="s">
         <v>647</v>
-      </c>
-      <c r="E126" s="42" t="s">
-        <v>648</v>
       </c>
       <c r="F126" s="42"/>
       <c r="G126" s="42"/>
@@ -11141,10 +11136,10 @@
       </c>
       <c r="C127" s="26"/>
       <c r="D127" s="42" t="s">
+        <v>648</v>
+      </c>
+      <c r="E127" s="42" t="s">
         <v>649</v>
-      </c>
-      <c r="E127" s="42" t="s">
-        <v>650</v>
       </c>
       <c r="F127" s="42"/>
       <c r="G127" s="42"/>
@@ -11159,10 +11154,10 @@
       </c>
       <c r="C128" s="26"/>
       <c r="D128" s="42" t="s">
+        <v>650</v>
+      </c>
+      <c r="E128" s="42" t="s">
         <v>651</v>
-      </c>
-      <c r="E128" s="42" t="s">
-        <v>652</v>
       </c>
       <c r="F128" s="42"/>
       <c r="G128" s="42"/>
@@ -11177,10 +11172,10 @@
       </c>
       <c r="C129" s="26"/>
       <c r="D129" s="42" t="s">
+        <v>652</v>
+      </c>
+      <c r="E129" s="42" t="s">
         <v>653</v>
-      </c>
-      <c r="E129" s="42" t="s">
-        <v>654</v>
       </c>
       <c r="F129" s="42"/>
       <c r="G129" s="42"/>
@@ -11199,10 +11194,10 @@
         <v>rch</v>
       </c>
       <c r="D130" s="42" t="s">
+        <v>654</v>
+      </c>
+      <c r="E130" s="42" t="s">
         <v>655</v>
-      </c>
-      <c r="E130" s="42" t="s">
-        <v>656</v>
       </c>
       <c r="F130" s="42"/>
       <c r="G130" s="42"/>
@@ -11217,13 +11212,13 @@
         <v>per</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D131" s="42" t="s">
+        <v>656</v>
+      </c>
+      <c r="E131" s="42" t="s">
         <v>657</v>
-      </c>
-      <c r="E131" s="42" t="s">
-        <v>658</v>
       </c>
       <c r="F131" s="42"/>
       <c r="G131" s="42"/>
@@ -11238,13 +11233,13 @@
         <v>per</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D132" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="E132" s="42" t="s">
         <v>659</v>
-      </c>
-      <c r="E132" s="42" t="s">
-        <v>660</v>
       </c>
       <c r="F132" s="42"/>
       <c r="G132" s="42"/>
@@ -11259,13 +11254,13 @@
         <v>per</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D133" s="42" t="s">
+        <v>660</v>
+      </c>
+      <c r="E133" s="42" t="s">
         <v>661</v>
-      </c>
-      <c r="E133" s="42" t="s">
-        <v>662</v>
       </c>
       <c r="F133" s="42"/>
       <c r="G133" s="42"/>
@@ -11284,10 +11279,10 @@
         <v>rch</v>
       </c>
       <c r="D134" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="E134" s="42" t="s">
         <v>663</v>
-      </c>
-      <c r="E134" s="42" t="s">
-        <v>664</v>
       </c>
       <c r="F134" s="42"/>
       <c r="G134" s="42"/>
@@ -11306,10 +11301,10 @@
         <v>rch</v>
       </c>
       <c r="D135" s="42" t="s">
+        <v>664</v>
+      </c>
+      <c r="E135" s="42" t="s">
         <v>665</v>
-      </c>
-      <c r="E135" s="42" t="s">
-        <v>666</v>
       </c>
       <c r="F135" s="42"/>
       <c r="G135" s="42"/>
@@ -11328,10 +11323,10 @@
         <v>rch</v>
       </c>
       <c r="D136" s="42" t="s">
+        <v>666</v>
+      </c>
+      <c r="E136" s="42" t="s">
         <v>667</v>
-      </c>
-      <c r="E136" s="42" t="s">
-        <v>668</v>
       </c>
       <c r="F136" s="42"/>
       <c r="G136" s="42"/>
@@ -11350,10 +11345,10 @@
         <v>rch</v>
       </c>
       <c r="D137" s="42" t="s">
+        <v>668</v>
+      </c>
+      <c r="E137" s="42" t="s">
         <v>669</v>
-      </c>
-      <c r="E137" s="42" t="s">
-        <v>670</v>
       </c>
       <c r="F137" s="42"/>
       <c r="G137" s="42"/>
@@ -11369,10 +11364,10 @@
       </c>
       <c r="C138" s="42"/>
       <c r="D138" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="E138" s="42" t="s">
         <v>671</v>
-      </c>
-      <c r="E138" s="42" t="s">
-        <v>672</v>
       </c>
       <c r="F138" s="42"/>
       <c r="G138" s="42"/>
@@ -11388,10 +11383,10 @@
       </c>
       <c r="C139" s="42"/>
       <c r="D139" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="E139" s="42" t="s">
         <v>673</v>
-      </c>
-      <c r="E139" s="42" t="s">
-        <v>674</v>
       </c>
       <c r="F139" s="42"/>
       <c r="G139" s="42"/>
@@ -11407,10 +11402,10 @@
       </c>
       <c r="C140" s="42"/>
       <c r="D140" s="42" t="s">
+        <v>674</v>
+      </c>
+      <c r="E140" s="42" t="s">
         <v>675</v>
-      </c>
-      <c r="E140" s="42" t="s">
-        <v>676</v>
       </c>
       <c r="F140" s="42"/>
       <c r="G140" s="42"/>
@@ -11426,10 +11421,10 @@
       </c>
       <c r="C141" s="42"/>
       <c r="D141" s="42" t="s">
+        <v>676</v>
+      </c>
+      <c r="E141" s="42" t="s">
         <v>677</v>
-      </c>
-      <c r="E141" s="42" t="s">
-        <v>678</v>
       </c>
       <c r="F141" s="42"/>
       <c r="G141" s="42"/>
@@ -11445,10 +11440,10 @@
       </c>
       <c r="C142" s="42"/>
       <c r="D142" s="42" t="s">
+        <v>678</v>
+      </c>
+      <c r="E142" s="42" t="s">
         <v>679</v>
-      </c>
-      <c r="E142" s="42" t="s">
-        <v>680</v>
       </c>
       <c r="F142" s="42"/>
       <c r="G142" s="42"/>
@@ -11464,10 +11459,10 @@
       </c>
       <c r="C143" s="42"/>
       <c r="D143" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E143" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F143" s="42"/>
       <c r="G143" s="42"/>
@@ -11483,10 +11478,10 @@
       </c>
       <c r="C144" s="42"/>
       <c r="D144" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E144" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F144" s="42"/>
       <c r="G144" s="42"/>
@@ -11502,10 +11497,10 @@
       </c>
       <c r="C145" s="42"/>
       <c r="D145" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F145" s="42"/>
       <c r="G145" s="42"/>
@@ -11521,10 +11516,10 @@
       </c>
       <c r="C146" s="42"/>
       <c r="D146" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E146" s="42" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F146" s="42"/>
       <c r="G146" s="42"/>
@@ -11540,10 +11535,10 @@
       </c>
       <c r="C147" s="42"/>
       <c r="D147" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E147" s="42" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F147" s="42"/>
       <c r="G147" s="42"/>
@@ -11559,10 +11554,10 @@
       </c>
       <c r="C148" s="42"/>
       <c r="D148" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F148" s="42"/>
       <c r="G148" s="42"/>
@@ -11578,10 +11573,10 @@
       </c>
       <c r="C149" s="42"/>
       <c r="D149" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E149" s="42" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F149" s="42"/>
       <c r="G149" s="42"/>
@@ -11597,10 +11592,10 @@
       </c>
       <c r="C150" s="42"/>
       <c r="D150" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="E150" s="42" t="s">
         <v>688</v>
-      </c>
-      <c r="E150" s="42" t="s">
-        <v>689</v>
       </c>
       <c r="F150" s="42"/>
       <c r="G150" s="42"/>
@@ -11616,10 +11611,10 @@
       </c>
       <c r="C151" s="42"/>
       <c r="D151" s="42" t="s">
+        <v>689</v>
+      </c>
+      <c r="E151" s="42" t="s">
         <v>690</v>
-      </c>
-      <c r="E151" s="42" t="s">
-        <v>691</v>
       </c>
       <c r="F151" s="42"/>
       <c r="G151" s="42"/>
@@ -11635,32 +11630,28 @@
       </c>
       <c r="C152" s="42"/>
       <c r="D152" s="42" t="s">
+        <v>691</v>
+      </c>
+      <c r="E152" s="42" t="s">
         <v>692</v>
-      </c>
-      <c r="E152" s="42" t="s">
-        <v>693</v>
       </c>
       <c r="F152" s="42"/>
       <c r="G152" s="42"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="26" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A153" s="26" t="s">
+        <v>188</v>
       </c>
       <c r="B153" s="26" t="str">
         <f aca="false">NODES!$A$60</f>
         <v>per</v>
       </c>
-      <c r="C153" s="26" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C153" s="26"/>
       <c r="D153" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="E153" s="42" t="s">
         <v>694</v>
-      </c>
-      <c r="E153" s="42" t="s">
-        <v>695</v>
       </c>
       <c r="F153" s="42"/>
       <c r="G153" s="42"/>
@@ -11679,10 +11670,10 @@
         <v>btl</v>
       </c>
       <c r="D154" s="42" t="s">
+        <v>695</v>
+      </c>
+      <c r="E154" s="42" t="s">
         <v>696</v>
-      </c>
-      <c r="E154" s="42" t="s">
-        <v>697</v>
       </c>
       <c r="F154" s="42"/>
       <c r="G154" s="42"/>
@@ -11696,10 +11687,10 @@
       </c>
       <c r="C155" s="26"/>
       <c r="D155" s="42" t="s">
+        <v>697</v>
+      </c>
+      <c r="E155" s="42" t="s">
         <v>698</v>
-      </c>
-      <c r="E155" s="42" t="s">
-        <v>699</v>
       </c>
       <c r="F155" s="42"/>
       <c r="G155" s="42"/>
@@ -11713,10 +11704,10 @@
       </c>
       <c r="C156" s="26"/>
       <c r="D156" s="42" t="s">
+        <v>699</v>
+      </c>
+      <c r="E156" s="42" t="s">
         <v>700</v>
-      </c>
-      <c r="E156" s="42" t="s">
-        <v>701</v>
       </c>
       <c r="F156" s="42"/>
       <c r="G156" s="42"/>
@@ -11733,7 +11724,7 @@
       <c r="C157" s="42"/>
       <c r="D157" s="42"/>
       <c r="E157" s="42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F157" s="42"/>
       <c r="G157" s="42"/>
@@ -11747,10 +11738,10 @@
       </c>
       <c r="C158" s="42"/>
       <c r="D158" s="42" t="s">
+        <v>702</v>
+      </c>
+      <c r="E158" s="42" t="s">
         <v>703</v>
-      </c>
-      <c r="E158" s="42" t="s">
-        <v>704</v>
       </c>
       <c r="F158" s="42"/>
       <c r="G158" s="42"/>
@@ -11764,10 +11755,10 @@
       </c>
       <c r="C159" s="42"/>
       <c r="D159" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E159" s="42" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F159" s="42"/>
       <c r="G159" s="42"/>
@@ -11781,10 +11772,10 @@
       </c>
       <c r="C160" s="42"/>
       <c r="D160" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E160" s="42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F160" s="42"/>
       <c r="G160" s="42"/>
@@ -11798,10 +11789,10 @@
       </c>
       <c r="C161" s="42"/>
       <c r="D161" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E161" s="42" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F161" s="42"/>
       <c r="G161" s="42"/>
@@ -11815,10 +11806,10 @@
       </c>
       <c r="C162" s="42"/>
       <c r="D162" s="44" t="s">
+        <v>707</v>
+      </c>
+      <c r="E162" s="42" t="s">
         <v>708</v>
-      </c>
-      <c r="E162" s="42" t="s">
-        <v>709</v>
       </c>
       <c r="F162" s="42"/>
       <c r="G162" s="42"/>
@@ -11832,10 +11823,10 @@
       </c>
       <c r="C163" s="42"/>
       <c r="D163" s="44" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E163" s="42" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F163" s="42"/>
       <c r="G163" s="42"/>
@@ -11849,10 +11840,10 @@
       </c>
       <c r="C164" s="42"/>
       <c r="D164" s="44" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E164" s="42" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F164" s="42"/>
       <c r="G164" s="42"/>
@@ -11866,10 +11857,10 @@
       </c>
       <c r="C165" s="42"/>
       <c r="D165" s="44" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E165" s="42" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F165" s="42"/>
       <c r="G165" s="42"/>
@@ -11883,10 +11874,10 @@
       </c>
       <c r="C166" s="42"/>
       <c r="D166" s="44" t="s">
+        <v>712</v>
+      </c>
+      <c r="E166" s="42" t="s">
         <v>713</v>
-      </c>
-      <c r="E166" s="42" t="s">
-        <v>714</v>
       </c>
       <c r="F166" s="42"/>
       <c r="G166" s="42"/>
@@ -11900,10 +11891,10 @@
       </c>
       <c r="C167" s="42"/>
       <c r="D167" s="44" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E167" s="42" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F167" s="42"/>
       <c r="G167" s="42"/>
@@ -11917,10 +11908,10 @@
       </c>
       <c r="C168" s="42"/>
       <c r="D168" s="44" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E168" s="42" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F168" s="42"/>
       <c r="G168" s="42"/>
@@ -11934,10 +11925,10 @@
       </c>
       <c r="C169" s="42"/>
       <c r="D169" s="44" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E169" s="42" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F169" s="42"/>
       <c r="G169" s="42"/>
@@ -11953,10 +11944,10 @@
       </c>
       <c r="C170" s="42"/>
       <c r="D170" s="42" t="s">
+        <v>717</v>
+      </c>
+      <c r="E170" s="42" t="s">
         <v>718</v>
-      </c>
-      <c r="E170" s="42" t="s">
-        <v>719</v>
       </c>
       <c r="F170" s="42"/>
       <c r="G170" s="42"/>
@@ -11970,10 +11961,10 @@
       </c>
       <c r="C171" s="42"/>
       <c r="D171" s="42" t="s">
+        <v>719</v>
+      </c>
+      <c r="E171" s="42" t="s">
         <v>720</v>
-      </c>
-      <c r="E171" s="42" t="s">
-        <v>721</v>
       </c>
       <c r="F171" s="42"/>
       <c r="G171" s="42"/>
@@ -11987,10 +11978,10 @@
       </c>
       <c r="C172" s="42"/>
       <c r="D172" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E172" s="42" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F172" s="42"/>
       <c r="G172" s="42"/>
@@ -12004,10 +11995,10 @@
       </c>
       <c r="C173" s="42"/>
       <c r="D173" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E173" s="42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F173" s="42"/>
       <c r="G173" s="42"/>
@@ -12021,10 +12012,10 @@
       </c>
       <c r="C174" s="42"/>
       <c r="D174" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E174" s="42" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F174" s="42"/>
       <c r="G174" s="42"/>
@@ -12038,10 +12029,10 @@
       </c>
       <c r="C175" s="42"/>
       <c r="D175" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E175" s="42" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F175" s="42"/>
       <c r="G175" s="42"/>
@@ -12055,10 +12046,10 @@
       </c>
       <c r="C176" s="42"/>
       <c r="D176" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E176" s="42" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F176" s="42"/>
       <c r="G176" s="42"/>
@@ -12072,10 +12063,10 @@
       </c>
       <c r="C177" s="42"/>
       <c r="D177" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E177" s="42" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F177" s="42"/>
       <c r="G177" s="42"/>
@@ -12089,10 +12080,10 @@
       </c>
       <c r="C178" s="42"/>
       <c r="D178" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E178" s="42" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F178" s="42"/>
       <c r="G178" s="42"/>
@@ -12106,10 +12097,10 @@
       </c>
       <c r="C179" s="42"/>
       <c r="D179" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E179" s="42" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F179" s="42"/>
       <c r="G179" s="42"/>
@@ -12123,10 +12114,10 @@
       </c>
       <c r="C180" s="42"/>
       <c r="D180" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E180" s="42" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F180" s="42"/>
       <c r="G180" s="42"/>
@@ -12140,10 +12131,10 @@
       </c>
       <c r="C181" s="42"/>
       <c r="D181" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E181" s="42" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F181" s="42"/>
       <c r="G181" s="42"/>
@@ -12157,10 +12148,10 @@
       </c>
       <c r="C182" s="42"/>
       <c r="D182" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E182" s="42" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F182" s="42"/>
       <c r="G182" s="42"/>
@@ -12174,10 +12165,10 @@
       </c>
       <c r="C183" s="42"/>
       <c r="D183" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E183" s="42" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F183" s="42"/>
       <c r="G183" s="42"/>
@@ -12191,10 +12182,10 @@
       </c>
       <c r="C184" s="42"/>
       <c r="D184" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E184" s="42" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F184" s="42"/>
       <c r="G184" s="42"/>
@@ -12208,10 +12199,10 @@
       </c>
       <c r="C185" s="42"/>
       <c r="D185" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E185" s="42" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F185" s="42"/>
       <c r="G185" s="42"/>
@@ -12225,10 +12216,10 @@
       </c>
       <c r="C186" s="42"/>
       <c r="D186" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E186" s="42" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F186" s="42"/>
       <c r="G186" s="42"/>
@@ -12242,10 +12233,10 @@
       </c>
       <c r="C187" s="42"/>
       <c r="D187" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E187" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F187" s="42"/>
       <c r="G187" s="42"/>
@@ -12259,10 +12250,10 @@
       </c>
       <c r="C188" s="42"/>
       <c r="D188" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E188" s="42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F188" s="42"/>
       <c r="G188" s="42"/>
@@ -12276,10 +12267,10 @@
       </c>
       <c r="C189" s="42"/>
       <c r="D189" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E189" s="42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F189" s="42"/>
       <c r="G189" s="42"/>
@@ -12293,10 +12284,10 @@
       </c>
       <c r="C190" s="42"/>
       <c r="D190" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E190" s="42" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F190" s="42"/>
       <c r="G190" s="42"/>
@@ -12310,10 +12301,10 @@
       </c>
       <c r="C191" s="42"/>
       <c r="D191" s="42" t="s">
+        <v>740</v>
+      </c>
+      <c r="E191" s="42" t="s">
         <v>741</v>
-      </c>
-      <c r="E191" s="42" t="s">
-        <v>742</v>
       </c>
       <c r="F191" s="42"/>
       <c r="G191" s="42"/>
@@ -12327,10 +12318,10 @@
       </c>
       <c r="C192" s="42"/>
       <c r="D192" s="42" t="s">
+        <v>742</v>
+      </c>
+      <c r="E192" s="42" t="s">
         <v>743</v>
-      </c>
-      <c r="E192" s="42" t="s">
-        <v>744</v>
       </c>
       <c r="F192" s="42"/>
       <c r="G192" s="42"/>
@@ -12344,10 +12335,10 @@
       </c>
       <c r="C193" s="42"/>
       <c r="D193" s="44" t="s">
+        <v>744</v>
+      </c>
+      <c r="E193" s="42" t="s">
         <v>745</v>
-      </c>
-      <c r="E193" s="42" t="s">
-        <v>746</v>
       </c>
       <c r="F193" s="42"/>
       <c r="G193" s="42"/>
@@ -12361,10 +12352,10 @@
       </c>
       <c r="C194" s="42"/>
       <c r="D194" s="44" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E194" s="42" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F194" s="42"/>
       <c r="G194" s="42"/>
@@ -12378,10 +12369,10 @@
       </c>
       <c r="C195" s="42"/>
       <c r="D195" s="44" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E195" s="42" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F195" s="42"/>
       <c r="G195" s="42"/>
@@ -12395,10 +12386,10 @@
       </c>
       <c r="C196" s="42"/>
       <c r="D196" s="44" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E196" s="42" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F196" s="42"/>
       <c r="G196" s="42"/>
@@ -12412,10 +12403,10 @@
       </c>
       <c r="C197" s="42"/>
       <c r="D197" s="44" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E197" s="42" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F197" s="42"/>
       <c r="G197" s="42"/>
@@ -12429,10 +12420,10 @@
       </c>
       <c r="C198" s="42"/>
       <c r="D198" s="44" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E198" s="42" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F198" s="42"/>
       <c r="G198" s="42"/>
@@ -12446,10 +12437,10 @@
       </c>
       <c r="C199" s="42"/>
       <c r="D199" s="44" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E199" s="42" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F199" s="42"/>
       <c r="G199" s="42"/>
@@ -12463,10 +12454,10 @@
       </c>
       <c r="C200" s="42"/>
       <c r="D200" s="44" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E200" s="42" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F200" s="42"/>
       <c r="G200" s="42"/>
@@ -12483,7 +12474,7 @@
       <c r="C201" s="42"/>
       <c r="D201" s="42"/>
       <c r="E201" s="42" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F201" s="42"/>
       <c r="G201" s="42"/>
@@ -12500,7 +12491,7 @@
       <c r="C202" s="42"/>
       <c r="D202" s="42"/>
       <c r="E202" s="42" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F202" s="42"/>
       <c r="G202" s="42"/>
@@ -12517,7 +12508,7 @@
       <c r="C203" s="42"/>
       <c r="D203" s="42"/>
       <c r="E203" s="42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F203" s="42"/>
       <c r="G203" s="42"/>
@@ -12534,7 +12525,7 @@
       <c r="C204" s="42"/>
       <c r="D204" s="42"/>
       <c r="E204" s="42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F204" s="42"/>
       <c r="G204" s="42"/>
@@ -12551,7 +12542,7 @@
       <c r="C205" s="42"/>
       <c r="D205" s="42"/>
       <c r="E205" s="42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F205" s="42"/>
       <c r="G205" s="42"/>
@@ -12568,7 +12559,7 @@
       <c r="C206" s="42"/>
       <c r="D206" s="42"/>
       <c r="E206" s="42" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F206" s="42"/>
       <c r="G206" s="42"/>
@@ -12585,7 +12576,7 @@
       <c r="C207" s="42"/>
       <c r="D207" s="42"/>
       <c r="E207" s="42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F207" s="42"/>
       <c r="G207" s="42"/>
@@ -12602,7 +12593,7 @@
       <c r="C208" s="42"/>
       <c r="D208" s="42"/>
       <c r="E208" s="42" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F208" s="42"/>
       <c r="G208" s="42"/>
@@ -12619,7 +12610,7 @@
       <c r="C209" s="42"/>
       <c r="D209" s="42"/>
       <c r="E209" s="42" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F209" s="42"/>
       <c r="G209" s="42"/>
@@ -12634,10 +12625,10 @@
       </c>
       <c r="C210" s="42"/>
       <c r="D210" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="E210" s="42" t="s">
         <v>763</v>
-      </c>
-      <c r="E210" s="42" t="s">
-        <v>764</v>
       </c>
       <c r="F210" s="42"/>
       <c r="G210" s="42"/>
@@ -12654,7 +12645,7 @@
       <c r="C211" s="42"/>
       <c r="D211" s="42"/>
       <c r="E211" s="42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F211" s="42"/>
       <c r="G211" s="42"/>
@@ -12669,10 +12660,10 @@
       </c>
       <c r="C212" s="42"/>
       <c r="D212" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="E212" s="42" t="s">
         <v>766</v>
-      </c>
-      <c r="E212" s="42" t="s">
-        <v>767</v>
       </c>
       <c r="F212" s="42"/>
       <c r="G212" s="42"/>
@@ -12687,10 +12678,10 @@
       </c>
       <c r="C213" s="42"/>
       <c r="D213" s="42" t="s">
+        <v>767</v>
+      </c>
+      <c r="E213" s="42" t="s">
         <v>768</v>
-      </c>
-      <c r="E213" s="42" t="s">
-        <v>769</v>
       </c>
       <c r="F213" s="42"/>
       <c r="G213" s="42"/>
@@ -12705,10 +12696,10 @@
       </c>
       <c r="C214" s="42"/>
       <c r="D214" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="E214" s="42" t="s">
         <v>770</v>
-      </c>
-      <c r="E214" s="42" t="s">
-        <v>771</v>
       </c>
       <c r="F214" s="42"/>
       <c r="G214" s="42"/>
@@ -12723,10 +12714,10 @@
       </c>
       <c r="C215" s="42"/>
       <c r="D215" s="42" t="s">
+        <v>771</v>
+      </c>
+      <c r="E215" s="42" t="s">
         <v>772</v>
-      </c>
-      <c r="E215" s="42" t="s">
-        <v>773</v>
       </c>
       <c r="F215" s="42"/>
       <c r="G215" s="42"/>
@@ -12741,10 +12732,10 @@
       </c>
       <c r="C216" s="42"/>
       <c r="D216" s="42" t="s">
+        <v>773</v>
+      </c>
+      <c r="E216" s="42" t="s">
         <v>774</v>
-      </c>
-      <c r="E216" s="42" t="s">
-        <v>775</v>
       </c>
       <c r="F216" s="42"/>
       <c r="G216" s="42"/>
@@ -12758,10 +12749,10 @@
       </c>
       <c r="C217" s="42"/>
       <c r="D217" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="E217" s="42" t="s">
         <v>776</v>
-      </c>
-      <c r="E217" s="42" t="s">
-        <v>777</v>
       </c>
       <c r="F217" s="42"/>
       <c r="G217" s="42"/>
@@ -12778,7 +12769,7 @@
       <c r="C218" s="42"/>
       <c r="D218" s="42"/>
       <c r="E218" s="42" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F218" s="42"/>
       <c r="G218" s="42"/>
@@ -12793,10 +12784,10 @@
       </c>
       <c r="C219" s="42"/>
       <c r="D219" s="42" t="s">
+        <v>778</v>
+      </c>
+      <c r="E219" s="42" t="s">
         <v>779</v>
-      </c>
-      <c r="E219" s="42" t="s">
-        <v>780</v>
       </c>
       <c r="F219" s="42"/>
       <c r="G219" s="42"/>
@@ -12810,10 +12801,10 @@
       </c>
       <c r="C220" s="42"/>
       <c r="D220" s="44" t="s">
+        <v>780</v>
+      </c>
+      <c r="E220" s="44" t="s">
         <v>781</v>
-      </c>
-      <c r="E220" s="44" t="s">
-        <v>782</v>
       </c>
       <c r="F220" s="42"/>
       <c r="G220" s="42"/>
@@ -12830,7 +12821,7 @@
       <c r="C221" s="42"/>
       <c r="D221" s="42"/>
       <c r="E221" s="42" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F221" s="42"/>
       <c r="G221" s="42"/>
@@ -12845,10 +12836,10 @@
       </c>
       <c r="C222" s="42"/>
       <c r="D222" s="42" t="s">
+        <v>783</v>
+      </c>
+      <c r="E222" s="42" t="s">
         <v>784</v>
-      </c>
-      <c r="E222" s="42" t="s">
-        <v>785</v>
       </c>
       <c r="F222" s="42"/>
       <c r="G222" s="42"/>
@@ -12862,10 +12853,10 @@
       </c>
       <c r="C223" s="42"/>
       <c r="D223" s="42" t="s">
+        <v>785</v>
+      </c>
+      <c r="E223" s="44" t="s">
         <v>786</v>
-      </c>
-      <c r="E223" s="44" t="s">
-        <v>787</v>
       </c>
       <c r="F223" s="42"/>
       <c r="G223" s="42"/>
@@ -12881,10 +12872,10 @@
       </c>
       <c r="C224" s="42"/>
       <c r="D224" s="42" t="s">
+        <v>787</v>
+      </c>
+      <c r="E224" s="42" t="s">
         <v>788</v>
-      </c>
-      <c r="E224" s="42" t="s">
-        <v>789</v>
       </c>
       <c r="F224" s="42"/>
       <c r="G224" s="42"/>
@@ -12901,7 +12892,7 @@
       <c r="C225" s="42"/>
       <c r="D225" s="42"/>
       <c r="E225" s="42" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F225" s="42"/>
       <c r="G225" s="42"/>
@@ -12916,10 +12907,10 @@
       </c>
       <c r="C226" s="42"/>
       <c r="D226" s="42" t="s">
+        <v>790</v>
+      </c>
+      <c r="E226" s="42" t="s">
         <v>791</v>
-      </c>
-      <c r="E226" s="42" t="s">
-        <v>792</v>
       </c>
       <c r="F226" s="42"/>
       <c r="G226" s="42"/>
@@ -12936,7 +12927,7 @@
       <c r="C227" s="42"/>
       <c r="D227" s="42"/>
       <c r="E227" s="42" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F227" s="42"/>
       <c r="G227" s="42"/>
@@ -12951,10 +12942,10 @@
       </c>
       <c r="C228" s="42"/>
       <c r="D228" s="42" t="s">
+        <v>793</v>
+      </c>
+      <c r="E228" s="42" t="s">
         <v>794</v>
-      </c>
-      <c r="E228" s="42" t="s">
-        <v>795</v>
       </c>
       <c r="F228" s="42"/>
       <c r="G228" s="42"/>
@@ -12968,10 +12959,10 @@
       </c>
       <c r="C229" s="42"/>
       <c r="D229" s="42" t="s">
+        <v>795</v>
+      </c>
+      <c r="E229" s="42" t="s">
         <v>796</v>
-      </c>
-      <c r="E229" s="42" t="s">
-        <v>797</v>
       </c>
       <c r="F229" s="42"/>
       <c r="G229" s="42"/>
@@ -12988,7 +12979,7 @@
       <c r="C230" s="42"/>
       <c r="D230" s="42"/>
       <c r="E230" s="42" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F230" s="42"/>
       <c r="G230" s="42"/>
@@ -13005,7 +12996,7 @@
       <c r="C231" s="42"/>
       <c r="D231" s="42"/>
       <c r="E231" s="42" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F231" s="42"/>
       <c r="G231" s="42"/>
@@ -13021,10 +13012,10 @@
       </c>
       <c r="C232" s="42"/>
       <c r="D232" s="42" t="s">
+        <v>799</v>
+      </c>
+      <c r="E232" s="42" t="s">
         <v>800</v>
-      </c>
-      <c r="E232" s="42" t="s">
-        <v>801</v>
       </c>
       <c r="F232" s="42"/>
       <c r="G232" s="42"/>
@@ -13039,10 +13030,10 @@
       </c>
       <c r="C233" s="42"/>
       <c r="D233" s="42" t="s">
+        <v>801</v>
+      </c>
+      <c r="E233" s="42" t="s">
         <v>802</v>
-      </c>
-      <c r="E233" s="42" t="s">
-        <v>803</v>
       </c>
       <c r="F233" s="42"/>
       <c r="G233" s="42"/>
@@ -13059,7 +13050,7 @@
       <c r="C234" s="42"/>
       <c r="D234" s="42"/>
       <c r="E234" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F234" s="42"/>
       <c r="G234" s="42"/>
@@ -13076,7 +13067,7 @@
       <c r="C235" s="42"/>
       <c r="D235" s="42"/>
       <c r="E235" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F235" s="42"/>
       <c r="G235" s="42"/>
@@ -13093,7 +13084,7 @@
       <c r="C236" s="42"/>
       <c r="D236" s="42"/>
       <c r="E236" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F236" s="42"/>
       <c r="G236" s="42"/>
@@ -13110,7 +13101,7 @@
       <c r="C237" s="42"/>
       <c r="D237" s="42"/>
       <c r="E237" s="42" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F237" s="42"/>
       <c r="G237" s="42"/>
@@ -13127,7 +13118,7 @@
       <c r="C238" s="42"/>
       <c r="D238" s="42"/>
       <c r="E238" s="42" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F238" s="42"/>
       <c r="G238" s="42"/>
@@ -13144,7 +13135,7 @@
       <c r="C239" s="42"/>
       <c r="D239" s="42"/>
       <c r="E239" s="42" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F239" s="42"/>
       <c r="G239" s="42"/>
@@ -13161,7 +13152,7 @@
       <c r="C240" s="42"/>
       <c r="D240" s="42"/>
       <c r="E240" s="42" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F240" s="42"/>
       <c r="G240" s="42"/>
@@ -13178,7 +13169,7 @@
       <c r="C241" s="42"/>
       <c r="D241" s="42"/>
       <c r="E241" s="42" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F241" s="42"/>
       <c r="G241" s="42"/>
@@ -13195,7 +13186,7 @@
       <c r="C242" s="42"/>
       <c r="D242" s="42"/>
       <c r="E242" s="42" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F242" s="42"/>
       <c r="G242" s="42"/>
@@ -13210,10 +13201,10 @@
       </c>
       <c r="C243" s="42"/>
       <c r="D243" s="42" t="s">
+        <v>812</v>
+      </c>
+      <c r="E243" s="42" t="s">
         <v>813</v>
-      </c>
-      <c r="E243" s="42" t="s">
-        <v>814</v>
       </c>
       <c r="F243" s="42"/>
       <c r="G243" s="42"/>
@@ -13230,7 +13221,7 @@
       <c r="C244" s="42"/>
       <c r="D244" s="42"/>
       <c r="E244" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F244" s="42"/>
       <c r="G244" s="42"/>
@@ -13246,10 +13237,10 @@
       </c>
       <c r="C245" s="42"/>
       <c r="D245" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="E245" s="42" t="s">
         <v>816</v>
-      </c>
-      <c r="E245" s="42" t="s">
-        <v>817</v>
       </c>
       <c r="F245" s="42"/>
       <c r="G245" s="42"/>
@@ -13263,10 +13254,10 @@
       </c>
       <c r="C246" s="42"/>
       <c r="D246" s="42" t="s">
+        <v>817</v>
+      </c>
+      <c r="E246" s="42" t="s">
         <v>818</v>
-      </c>
-      <c r="E246" s="42" t="s">
-        <v>819</v>
       </c>
       <c r="F246" s="42"/>
       <c r="G246" s="42"/>
@@ -13283,7 +13274,7 @@
       <c r="C247" s="42"/>
       <c r="D247" s="42"/>
       <c r="E247" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F247" s="42"/>
       <c r="G247" s="42"/>
@@ -13300,7 +13291,7 @@
       <c r="C248" s="42"/>
       <c r="D248" s="42"/>
       <c r="E248" s="42" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F248" s="42"/>
       <c r="G248" s="42"/>
@@ -13314,10 +13305,10 @@
       </c>
       <c r="C249" s="42"/>
       <c r="D249" s="42" t="s">
+        <v>821</v>
+      </c>
+      <c r="E249" s="42" t="s">
         <v>822</v>
-      </c>
-      <c r="E249" s="42" t="s">
-        <v>823</v>
       </c>
       <c r="F249" s="42"/>
       <c r="G249" s="42"/>
@@ -13331,10 +13322,10 @@
       </c>
       <c r="C250" s="42"/>
       <c r="D250" s="42" t="s">
+        <v>823</v>
+      </c>
+      <c r="E250" s="42" t="s">
         <v>824</v>
-      </c>
-      <c r="E250" s="42" t="s">
-        <v>825</v>
       </c>
       <c r="F250" s="42"/>
       <c r="G250" s="42"/>
@@ -13348,10 +13339,10 @@
       </c>
       <c r="C251" s="42"/>
       <c r="D251" s="42" t="s">
+        <v>825</v>
+      </c>
+      <c r="E251" s="42" t="s">
         <v>826</v>
-      </c>
-      <c r="E251" s="42" t="s">
-        <v>827</v>
       </c>
       <c r="F251" s="42"/>
       <c r="G251" s="42"/>
@@ -13365,10 +13356,10 @@
       </c>
       <c r="C252" s="42"/>
       <c r="D252" s="44" t="s">
+        <v>827</v>
+      </c>
+      <c r="E252" s="44" t="s">
         <v>828</v>
-      </c>
-      <c r="E252" s="44" t="s">
-        <v>829</v>
       </c>
       <c r="F252" s="42"/>
       <c r="G252" s="42"/>
@@ -13382,10 +13373,10 @@
       </c>
       <c r="C253" s="42"/>
       <c r="D253" s="44" t="s">
+        <v>829</v>
+      </c>
+      <c r="E253" s="44" t="s">
         <v>830</v>
-      </c>
-      <c r="E253" s="44" t="s">
-        <v>831</v>
       </c>
       <c r="F253" s="42"/>
       <c r="G253" s="42"/>
@@ -13399,10 +13390,10 @@
       </c>
       <c r="C254" s="42"/>
       <c r="D254" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E254" s="44" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F254" s="42"/>
       <c r="G254" s="42"/>
@@ -13416,10 +13407,10 @@
       </c>
       <c r="C255" s="42"/>
       <c r="D255" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E255" s="44" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F255" s="42"/>
       <c r="G255" s="42"/>
@@ -13433,10 +13424,10 @@
       </c>
       <c r="C256" s="42"/>
       <c r="D256" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E256" s="44" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F256" s="42"/>
       <c r="G256" s="42"/>
@@ -13450,10 +13441,10 @@
       </c>
       <c r="C257" s="42"/>
       <c r="D257" s="44" t="s">
+        <v>834</v>
+      </c>
+      <c r="E257" s="44" t="s">
         <v>835</v>
-      </c>
-      <c r="E257" s="44" t="s">
-        <v>836</v>
       </c>
       <c r="F257" s="42"/>
       <c r="G257" s="42"/>
@@ -13467,10 +13458,10 @@
       </c>
       <c r="C258" s="42"/>
       <c r="D258" s="44" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E258" s="44" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F258" s="42"/>
       <c r="G258" s="42"/>
@@ -13484,10 +13475,10 @@
       </c>
       <c r="C259" s="42"/>
       <c r="D259" s="44" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E259" s="44" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F259" s="42"/>
       <c r="G259" s="42"/>
@@ -13501,10 +13492,10 @@
       </c>
       <c r="C260" s="42"/>
       <c r="D260" s="44" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E260" s="44" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F260" s="42"/>
       <c r="G260" s="42"/>
@@ -13518,10 +13509,10 @@
       </c>
       <c r="C261" s="42"/>
       <c r="D261" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E261" s="44" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F261" s="42"/>
       <c r="G261" s="42"/>
@@ -13535,10 +13526,10 @@
       </c>
       <c r="C262" s="42"/>
       <c r="D262" s="44" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E262" s="44" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F262" s="42"/>
       <c r="G262" s="42"/>
@@ -13552,10 +13543,10 @@
       </c>
       <c r="C263" s="42"/>
       <c r="D263" s="44" t="s">
+        <v>841</v>
+      </c>
+      <c r="E263" s="44" t="s">
         <v>842</v>
-      </c>
-      <c r="E263" s="44" t="s">
-        <v>843</v>
       </c>
       <c r="F263" s="42"/>
       <c r="G263" s="42"/>
@@ -13569,10 +13560,10 @@
       </c>
       <c r="C264" s="42"/>
       <c r="D264" s="44" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E264" s="44" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F264" s="42"/>
       <c r="G264" s="42"/>
@@ -13586,10 +13577,10 @@
       </c>
       <c r="C265" s="42"/>
       <c r="D265" s="44" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E265" s="44" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F265" s="42"/>
       <c r="G265" s="42"/>
@@ -13603,10 +13594,10 @@
       </c>
       <c r="C266" s="42"/>
       <c r="D266" s="44" t="s">
+        <v>845</v>
+      </c>
+      <c r="E266" s="44" t="s">
         <v>846</v>
-      </c>
-      <c r="E266" s="44" t="s">
-        <v>847</v>
       </c>
       <c r="F266" s="42"/>
       <c r="G266" s="42"/>
@@ -13620,10 +13611,10 @@
       </c>
       <c r="C267" s="42"/>
       <c r="D267" s="44" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E267" s="44" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F267" s="42"/>
       <c r="G267" s="42"/>
@@ -13637,10 +13628,10 @@
       </c>
       <c r="C268" s="42"/>
       <c r="D268" s="44" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E268" s="44" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F268" s="42"/>
       <c r="G268" s="42"/>
@@ -13654,10 +13645,10 @@
       </c>
       <c r="C269" s="42"/>
       <c r="D269" s="44" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E269" s="44" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F269" s="42"/>
       <c r="G269" s="42"/>
@@ -13671,10 +13662,10 @@
       </c>
       <c r="C270" s="42"/>
       <c r="D270" s="44" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E270" s="44" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F270" s="42"/>
       <c r="G270" s="42"/>
@@ -13688,10 +13679,10 @@
       </c>
       <c r="C271" s="42"/>
       <c r="D271" s="44" t="s">
+        <v>851</v>
+      </c>
+      <c r="E271" s="44" t="s">
         <v>852</v>
-      </c>
-      <c r="E271" s="44" t="s">
-        <v>853</v>
       </c>
       <c r="F271" s="42"/>
       <c r="G271" s="42"/>
@@ -13705,10 +13696,10 @@
       </c>
       <c r="C272" s="42"/>
       <c r="D272" s="44" t="s">
+        <v>853</v>
+      </c>
+      <c r="E272" s="44" t="s">
         <v>854</v>
-      </c>
-      <c r="E272" s="44" t="s">
-        <v>855</v>
       </c>
       <c r="F272" s="42"/>
       <c r="G272" s="42"/>
@@ -13722,10 +13713,10 @@
       </c>
       <c r="C273" s="42"/>
       <c r="D273" s="44" t="s">
+        <v>855</v>
+      </c>
+      <c r="E273" s="44" t="s">
         <v>856</v>
-      </c>
-      <c r="E273" s="44" t="s">
-        <v>857</v>
       </c>
       <c r="F273" s="42"/>
       <c r="G273" s="42"/>
@@ -13739,10 +13730,10 @@
       </c>
       <c r="C274" s="42"/>
       <c r="D274" s="44" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E274" s="44" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F274" s="42"/>
       <c r="G274" s="42"/>
@@ -13756,10 +13747,10 @@
       </c>
       <c r="C275" s="42"/>
       <c r="D275" s="44" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E275" s="44" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F275" s="42"/>
       <c r="G275" s="42"/>
@@ -13773,10 +13764,10 @@
       </c>
       <c r="C276" s="42"/>
       <c r="D276" s="44" t="s">
+        <v>859</v>
+      </c>
+      <c r="E276" s="44" t="s">
         <v>860</v>
-      </c>
-      <c r="E276" s="44" t="s">
-        <v>861</v>
       </c>
       <c r="F276" s="42"/>
       <c r="G276" s="42"/>
@@ -13790,10 +13781,10 @@
       </c>
       <c r="C277" s="42"/>
       <c r="D277" s="44" t="s">
+        <v>861</v>
+      </c>
+      <c r="E277" s="44" t="s">
         <v>862</v>
-      </c>
-      <c r="E277" s="44" t="s">
-        <v>863</v>
       </c>
       <c r="F277" s="42"/>
       <c r="G277" s="42"/>
@@ -13807,10 +13798,10 @@
       </c>
       <c r="C278" s="42"/>
       <c r="D278" s="44" t="s">
+        <v>863</v>
+      </c>
+      <c r="E278" s="44" t="s">
         <v>864</v>
-      </c>
-      <c r="E278" s="44" t="s">
-        <v>865</v>
       </c>
       <c r="F278" s="42"/>
       <c r="G278" s="42"/>
@@ -13824,10 +13815,10 @@
       </c>
       <c r="C279" s="42"/>
       <c r="D279" s="44" t="s">
+        <v>865</v>
+      </c>
+      <c r="E279" s="44" t="s">
         <v>866</v>
-      </c>
-      <c r="E279" s="44" t="s">
-        <v>867</v>
       </c>
       <c r="F279" s="42"/>
       <c r="G279" s="42"/>
@@ -13842,7 +13833,7 @@
       <c r="C280" s="42"/>
       <c r="D280" s="44"/>
       <c r="E280" s="44" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F280" s="42"/>
       <c r="G280" s="42"/>
@@ -13857,7 +13848,7 @@
       <c r="C281" s="42"/>
       <c r="D281" s="44"/>
       <c r="E281" s="44" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F281" s="42"/>
       <c r="G281" s="42"/>
@@ -13872,7 +13863,7 @@
       <c r="C282" s="42"/>
       <c r="D282" s="44"/>
       <c r="E282" s="44" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F282" s="42"/>
       <c r="G282" s="42"/>
@@ -13887,7 +13878,7 @@
       <c r="C283" s="42"/>
       <c r="D283" s="44"/>
       <c r="E283" s="44" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F283" s="42"/>
       <c r="G283" s="42"/>
@@ -13902,7 +13893,7 @@
       <c r="C284" s="42"/>
       <c r="D284" s="44"/>
       <c r="E284" s="44" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F284" s="42"/>
       <c r="G284" s="42"/>
@@ -13917,7 +13908,7 @@
       <c r="C285" s="42"/>
       <c r="D285" s="44"/>
       <c r="E285" s="44" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F285" s="42"/>
       <c r="G285" s="42"/>
@@ -13932,7 +13923,7 @@
       <c r="C286" s="42"/>
       <c r="D286" s="44"/>
       <c r="E286" s="44" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F286" s="42"/>
       <c r="G286" s="42"/>
@@ -13947,7 +13938,7 @@
       <c r="C287" s="42"/>
       <c r="D287" s="44"/>
       <c r="E287" s="44" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F287" s="42"/>
       <c r="G287" s="42"/>
@@ -13962,7 +13953,7 @@
       <c r="C288" s="42"/>
       <c r="D288" s="44"/>
       <c r="E288" s="44" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F288" s="42"/>
       <c r="G288" s="42"/>
@@ -13977,7 +13968,7 @@
       <c r="C289" s="42"/>
       <c r="D289" s="44"/>
       <c r="E289" s="44" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F289" s="42"/>
       <c r="G289" s="42"/>
@@ -13992,7 +13983,7 @@
       <c r="C290" s="42"/>
       <c r="D290" s="44"/>
       <c r="E290" s="44" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F290" s="42"/>
       <c r="G290" s="42"/>
@@ -14007,7 +13998,7 @@
       <c r="C291" s="42"/>
       <c r="D291" s="44"/>
       <c r="E291" s="44" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F291" s="42"/>
       <c r="G291" s="42"/>
@@ -14022,7 +14013,7 @@
       <c r="C292" s="42"/>
       <c r="D292" s="44"/>
       <c r="E292" s="44" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F292" s="42"/>
       <c r="G292" s="42"/>
@@ -14037,7 +14028,7 @@
       <c r="C293" s="42"/>
       <c r="D293" s="44"/>
       <c r="E293" s="44" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F293" s="42"/>
       <c r="G293" s="42"/>
@@ -14051,10 +14042,10 @@
       </c>
       <c r="C294" s="42"/>
       <c r="D294" s="44" t="s">
+        <v>881</v>
+      </c>
+      <c r="E294" s="44" t="s">
         <v>882</v>
-      </c>
-      <c r="E294" s="44" t="s">
-        <v>883</v>
       </c>
       <c r="F294" s="42"/>
       <c r="G294" s="42"/>
@@ -14068,10 +14059,10 @@
       </c>
       <c r="C295" s="42"/>
       <c r="D295" s="44" t="s">
+        <v>883</v>
+      </c>
+      <c r="E295" s="44" t="s">
         <v>884</v>
-      </c>
-      <c r="E295" s="44" t="s">
-        <v>885</v>
       </c>
       <c r="F295" s="42"/>
       <c r="G295" s="42"/>
@@ -14085,10 +14076,10 @@
       </c>
       <c r="C296" s="42"/>
       <c r="D296" s="44" t="s">
+        <v>885</v>
+      </c>
+      <c r="E296" s="44" t="s">
         <v>886</v>
-      </c>
-      <c r="E296" s="44" t="s">
-        <v>887</v>
       </c>
       <c r="F296" s="42"/>
       <c r="G296" s="42"/>
@@ -14103,7 +14094,7 @@
       <c r="C297" s="42"/>
       <c r="D297" s="44"/>
       <c r="E297" s="44" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F297" s="42"/>
       <c r="G297" s="42"/>
@@ -14118,7 +14109,7 @@
       <c r="C298" s="42"/>
       <c r="D298" s="44"/>
       <c r="E298" s="44" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F298" s="42"/>
       <c r="G298" s="42"/>
@@ -14132,10 +14123,10 @@
       </c>
       <c r="C299" s="42"/>
       <c r="D299" s="44" t="s">
+        <v>889</v>
+      </c>
+      <c r="E299" s="44" t="s">
         <v>890</v>
-      </c>
-      <c r="E299" s="44" t="s">
-        <v>891</v>
       </c>
       <c r="F299" s="42"/>
       <c r="G299" s="42"/>
@@ -14149,10 +14140,10 @@
       </c>
       <c r="C300" s="42"/>
       <c r="D300" s="44" t="s">
+        <v>891</v>
+      </c>
+      <c r="E300" s="44" t="s">
         <v>892</v>
-      </c>
-      <c r="E300" s="44" t="s">
-        <v>893</v>
       </c>
       <c r="F300" s="42"/>
       <c r="G300" s="42"/>
@@ -14166,10 +14157,10 @@
       </c>
       <c r="C301" s="42"/>
       <c r="D301" s="44" t="s">
+        <v>893</v>
+      </c>
+      <c r="E301" s="44" t="s">
         <v>894</v>
-      </c>
-      <c r="E301" s="44" t="s">
-        <v>895</v>
       </c>
       <c r="F301" s="42"/>
       <c r="G301" s="42"/>
@@ -14183,10 +14174,10 @@
       </c>
       <c r="C302" s="42"/>
       <c r="D302" s="44" t="s">
+        <v>895</v>
+      </c>
+      <c r="E302" s="44" t="s">
         <v>896</v>
-      </c>
-      <c r="E302" s="44" t="s">
-        <v>897</v>
       </c>
       <c r="F302" s="42"/>
       <c r="G302" s="42"/>
@@ -14200,10 +14191,10 @@
       </c>
       <c r="C303" s="42"/>
       <c r="D303" s="44" t="s">
+        <v>897</v>
+      </c>
+      <c r="E303" s="44" t="s">
         <v>898</v>
-      </c>
-      <c r="E303" s="44" t="s">
-        <v>899</v>
       </c>
       <c r="F303" s="42"/>
       <c r="G303" s="42"/>
@@ -14217,10 +14208,10 @@
       </c>
       <c r="C304" s="42"/>
       <c r="D304" s="44" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E304" s="44" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F304" s="42"/>
       <c r="G304" s="42"/>
@@ -14254,7 +14245,7 @@
       <selection pane="bottomLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -14297,10 +14288,10 @@
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42" t="s">
+        <v>900</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>901</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>902</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -14314,10 +14305,10 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="44" t="s">
+        <v>902</v>
+      </c>
+      <c r="E3" s="44" t="s">
         <v>903</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>904</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -14331,10 +14322,10 @@
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="44" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -14348,10 +14339,10 @@
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="44" t="s">
+        <v>905</v>
+      </c>
+      <c r="E5" s="44" t="s">
         <v>906</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>907</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -14365,10 +14356,10 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="44" t="s">
+        <v>907</v>
+      </c>
+      <c r="E6" s="44" t="s">
         <v>908</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>909</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -14382,10 +14373,10 @@
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="44" t="s">
+        <v>909</v>
+      </c>
+      <c r="E7" s="44" t="s">
         <v>910</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>911</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
@@ -14399,10 +14390,10 @@
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="44" t="s">
+        <v>911</v>
+      </c>
+      <c r="E8" s="44" t="s">
         <v>912</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>913</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
@@ -14416,10 +14407,10 @@
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="44" t="s">
+        <v>913</v>
+      </c>
+      <c r="E9" s="44" t="s">
         <v>914</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>915</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
@@ -14433,10 +14424,10 @@
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="44" t="s">
+        <v>915</v>
+      </c>
+      <c r="E10" s="44" t="s">
         <v>916</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>917</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -14450,10 +14441,10 @@
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="44" t="s">
+        <v>917</v>
+      </c>
+      <c r="E11" s="44" t="s">
         <v>918</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>919</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
@@ -14467,10 +14458,10 @@
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="44" t="s">
+        <v>919</v>
+      </c>
+      <c r="E12" s="44" t="s">
         <v>920</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>921</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
@@ -14484,10 +14475,10 @@
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="44" t="s">
+        <v>921</v>
+      </c>
+      <c r="E13" s="44" t="s">
         <v>922</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>923</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
@@ -14501,10 +14492,10 @@
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="44" t="s">
+        <v>923</v>
+      </c>
+      <c r="E14" s="44" t="s">
         <v>924</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>925</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
@@ -14518,10 +14509,10 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="44" t="s">
+        <v>925</v>
+      </c>
+      <c r="E15" s="44" t="s">
         <v>926</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>927</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
@@ -14535,10 +14526,10 @@
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="44" t="s">
+        <v>927</v>
+      </c>
+      <c r="E16" s="44" t="s">
         <v>928</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>929</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
@@ -14552,10 +14543,10 @@
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="44" t="s">
+        <v>929</v>
+      </c>
+      <c r="E17" s="44" t="s">
         <v>930</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>931</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -14569,10 +14560,10 @@
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="44" t="s">
+        <v>931</v>
+      </c>
+      <c r="E18" s="44" t="s">
         <v>932</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>933</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -14586,10 +14577,10 @@
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="44" t="s">
+        <v>933</v>
+      </c>
+      <c r="E19" s="44" t="s">
         <v>934</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>935</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
@@ -14603,10 +14594,10 @@
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="44" t="s">
+        <v>935</v>
+      </c>
+      <c r="E20" s="44" t="s">
         <v>936</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>937</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
@@ -14620,10 +14611,10 @@
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="44" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
@@ -14637,10 +14628,10 @@
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="44" t="s">
+        <v>938</v>
+      </c>
+      <c r="E22" s="44" t="s">
         <v>939</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>940</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
@@ -14654,10 +14645,10 @@
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="44" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
@@ -14671,10 +14662,10 @@
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="44" t="s">
+        <v>941</v>
+      </c>
+      <c r="E24" s="49" t="s">
         <v>942</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>943</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
@@ -14688,10 +14679,10 @@
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="44" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -14705,10 +14696,10 @@
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="44" t="s">
+        <v>944</v>
+      </c>
+      <c r="E26" s="44" t="s">
         <v>945</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>946</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
@@ -14722,10 +14713,10 @@
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="44" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -14739,10 +14730,10 @@
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="44" t="s">
+        <v>947</v>
+      </c>
+      <c r="E28" s="44" t="s">
         <v>948</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>949</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -14756,10 +14747,10 @@
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="44" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -14773,10 +14764,10 @@
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="44" t="s">
+        <v>950</v>
+      </c>
+      <c r="E30" s="44" t="s">
         <v>951</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>952</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -14790,10 +14781,10 @@
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="44" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -14806,13 +14797,13 @@
         <v>327</v>
       </c>
       <c r="C32" s="42" t="s">
+        <v>953</v>
+      </c>
+      <c r="D32" s="44" t="s">
         <v>954</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="E32" s="44" t="s">
         <v>955</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>956</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -14828,10 +14819,10 @@
         <v>125</v>
       </c>
       <c r="D33" s="44" t="s">
+        <v>956</v>
+      </c>
+      <c r="E33" s="44" t="s">
         <v>957</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>958</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
@@ -14847,10 +14838,10 @@
         <v>132</v>
       </c>
       <c r="D34" s="44" t="s">
+        <v>958</v>
+      </c>
+      <c r="E34" s="44" t="s">
         <v>959</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>960</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
@@ -14866,10 +14857,10 @@
         <v>118</v>
       </c>
       <c r="D35" s="44" t="s">
+        <v>960</v>
+      </c>
+      <c r="E35" s="44" t="s">
         <v>961</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>962</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
@@ -14882,13 +14873,13 @@
         <v>327</v>
       </c>
       <c r="C36" s="42" t="s">
+        <v>962</v>
+      </c>
+      <c r="D36" s="44" t="s">
         <v>963</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="E36" s="44" t="s">
         <v>964</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>965</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -14902,10 +14893,10 @@
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="44" t="s">
+        <v>965</v>
+      </c>
+      <c r="E37" s="44" t="s">
         <v>966</v>
-      </c>
-      <c r="E37" s="44" t="s">
-        <v>967</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -14922,7 +14913,7 @@
         <v>344</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -14936,10 +14927,10 @@
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="44" t="s">
+        <v>968</v>
+      </c>
+      <c r="E39" s="44" t="s">
         <v>969</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>970</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
@@ -14953,10 +14944,10 @@
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="44" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
@@ -14969,13 +14960,13 @@
         <v>349</v>
       </c>
       <c r="C41" s="42" t="s">
+        <v>971</v>
+      </c>
+      <c r="D41" s="44" t="s">
         <v>972</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="E41" s="44" t="s">
         <v>973</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>974</v>
       </c>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
@@ -14989,10 +14980,10 @@
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="44" t="s">
+        <v>974</v>
+      </c>
+      <c r="E42" s="44" t="s">
         <v>975</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>976</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
@@ -15006,10 +14997,10 @@
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
@@ -15023,10 +15014,10 @@
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
@@ -15040,10 +15031,10 @@
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="44" t="s">
+        <v>978</v>
+      </c>
+      <c r="E45" s="44" t="s">
         <v>979</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>980</v>
       </c>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
@@ -15057,10 +15048,10 @@
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="E46" s="44" t="s">
         <v>981</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>982</v>
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
@@ -15074,10 +15065,10 @@
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="44" t="s">
+        <v>982</v>
+      </c>
+      <c r="E47" s="44" t="s">
         <v>983</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>984</v>
       </c>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
@@ -15091,10 +15082,10 @@
       </c>
       <c r="C48" s="42"/>
       <c r="D48" s="44" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
@@ -15108,10 +15099,10 @@
       </c>
       <c r="C49" s="42"/>
       <c r="D49" s="44" t="s">
+        <v>985</v>
+      </c>
+      <c r="E49" s="44" t="s">
         <v>986</v>
-      </c>
-      <c r="E49" s="44" t="s">
-        <v>987</v>
       </c>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
@@ -15125,10 +15116,10 @@
       </c>
       <c r="C50" s="42"/>
       <c r="D50" s="44" t="s">
+        <v>987</v>
+      </c>
+      <c r="E50" s="50" t="s">
         <v>988</v>
-      </c>
-      <c r="E50" s="50" t="s">
-        <v>989</v>
       </c>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
@@ -15142,10 +15133,10 @@
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="44" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -15162,7 +15153,7 @@
         <v>354</v>
       </c>
       <c r="E52" s="50" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
@@ -15179,7 +15170,7 @@
         <v>354</v>
       </c>
       <c r="E53" s="50" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
@@ -15193,10 +15184,10 @@
       </c>
       <c r="C54" s="42"/>
       <c r="D54" s="44" t="s">
+        <v>992</v>
+      </c>
+      <c r="E54" s="50" t="s">
         <v>993</v>
-      </c>
-      <c r="E54" s="50" t="s">
-        <v>994</v>
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
@@ -15210,10 +15201,10 @@
       </c>
       <c r="C55" s="42"/>
       <c r="D55" s="44" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E55" s="50" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
@@ -15226,13 +15217,13 @@
         <v>327</v>
       </c>
       <c r="C56" s="42" t="s">
+        <v>995</v>
+      </c>
+      <c r="D56" s="44" t="s">
         <v>996</v>
       </c>
-      <c r="D56" s="44" t="s">
+      <c r="E56" s="50" t="s">
         <v>997</v>
-      </c>
-      <c r="E56" s="50" t="s">
-        <v>998</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
@@ -15246,10 +15237,10 @@
       </c>
       <c r="C57" s="42"/>
       <c r="D57" s="44" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E57" s="50" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
@@ -15263,10 +15254,10 @@
       </c>
       <c r="C58" s="42"/>
       <c r="D58" s="44" t="s">
+        <v>999</v>
+      </c>
+      <c r="E58" s="50" t="s">
         <v>1000</v>
-      </c>
-      <c r="E58" s="50" t="s">
-        <v>1001</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
@@ -15283,7 +15274,7 @@
         <v>146</v>
       </c>
       <c r="E59" s="50" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
@@ -15300,7 +15291,7 @@
         <v>361</v>
       </c>
       <c r="E60" s="50" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
@@ -15314,10 +15305,10 @@
       </c>
       <c r="C61" s="42"/>
       <c r="D61" s="44" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E61" s="44" t="s">
         <v>1004</v>
-      </c>
-      <c r="E61" s="44" t="s">
-        <v>1005</v>
       </c>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -15331,10 +15322,10 @@
       </c>
       <c r="C62" s="42"/>
       <c r="D62" s="44" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E62" s="44" t="s">
         <v>1006</v>
-      </c>
-      <c r="E62" s="44" t="s">
-        <v>1007</v>
       </c>
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
@@ -15348,10 +15339,10 @@
       </c>
       <c r="C63" s="42"/>
       <c r="D63" s="44" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E63" s="44" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
@@ -15365,10 +15356,10 @@
       </c>
       <c r="C64" s="42"/>
       <c r="D64" s="44" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E64" s="44" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
@@ -15382,10 +15373,10 @@
       </c>
       <c r="C65" s="42"/>
       <c r="D65" s="44" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E65" s="44" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
@@ -15399,10 +15390,10 @@
       </c>
       <c r="C66" s="42"/>
       <c r="D66" s="44" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E66" s="44" t="s">
         <v>1011</v>
-      </c>
-      <c r="E66" s="44" t="s">
-        <v>1012</v>
       </c>
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
@@ -15416,10 +15407,10 @@
       </c>
       <c r="C67" s="42"/>
       <c r="D67" s="44" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E67" s="44" t="s">
         <v>1013</v>
-      </c>
-      <c r="E67" s="44" t="s">
-        <v>1014</v>
       </c>
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
@@ -15433,10 +15424,10 @@
       </c>
       <c r="C68" s="42"/>
       <c r="D68" s="44" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E68" s="44" t="s">
         <v>1015</v>
-      </c>
-      <c r="E68" s="44" t="s">
-        <v>1016</v>
       </c>
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
@@ -15679,7 +15670,7 @@
       <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -15722,10 +15713,10 @@
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42" t="s">
+        <v>900</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>901</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>902</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -15739,10 +15730,10 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="44" t="s">
+        <v>902</v>
+      </c>
+      <c r="E3" s="44" t="s">
         <v>903</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>904</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -15756,10 +15747,10 @@
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="44" t="s">
+        <v>905</v>
+      </c>
+      <c r="E4" s="44" t="s">
         <v>906</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>907</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -15773,10 +15764,10 @@
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="44" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -15790,112 +15781,112 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="44" t="s">
+        <v>909</v>
+      </c>
+      <c r="E6" s="44" t="s">
         <v>910</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>911</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="48" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="44" t="s">
+        <v>911</v>
+      </c>
+      <c r="E7" s="44" t="s">
         <v>912</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>913</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="48" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="44" t="s">
+        <v>913</v>
+      </c>
+      <c r="E8" s="44" t="s">
         <v>914</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>915</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="44" t="s">
+        <v>917</v>
+      </c>
+      <c r="E9" s="44" t="s">
         <v>918</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>919</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="48" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="44" t="s">
+        <v>919</v>
+      </c>
+      <c r="E10" s="44" t="s">
         <v>920</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>921</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="44" t="s">
+        <v>921</v>
+      </c>
+      <c r="E11" s="44" t="s">
         <v>922</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>923</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="48" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="44" t="s">
+        <v>923</v>
+      </c>
+      <c r="E12" s="44" t="s">
         <v>924</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>925</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
@@ -15909,218 +15900,218 @@
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="44" t="s">
+        <v>925</v>
+      </c>
+      <c r="E13" s="44" t="s">
         <v>926</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>927</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="48" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="44" t="s">
+        <v>927</v>
+      </c>
+      <c r="E14" s="44" t="s">
         <v>928</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>929</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="48" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="44" t="s">
+        <v>929</v>
+      </c>
+      <c r="E15" s="44" t="s">
         <v>930</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>931</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="44" t="s">
+        <v>931</v>
+      </c>
+      <c r="E16" s="44" t="s">
         <v>932</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>933</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="48" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="44" t="s">
+        <v>933</v>
+      </c>
+      <c r="E17" s="44" t="s">
         <v>934</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>935</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="48" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="44" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="48" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C19" s="42" t="s">
+        <v>953</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>954</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="E19" s="44" t="s">
         <v>955</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>956</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="48" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="44" t="s">
+        <v>956</v>
+      </c>
+      <c r="E20" s="44" t="s">
         <v>957</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>958</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="48" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="44" t="s">
+        <v>958</v>
+      </c>
+      <c r="E21" s="44" t="s">
         <v>959</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>960</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="48" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="44" t="s">
+        <v>960</v>
+      </c>
+      <c r="E22" s="44" t="s">
         <v>961</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>962</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="48" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="44" t="s">
+        <v>963</v>
+      </c>
+      <c r="E23" s="44" t="s">
         <v>964</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>965</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="48" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>232</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="44" t="s">
+        <v>965</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>966</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>967</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="48" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>232</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -16137,24 +16128,24 @@
         <v>344</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="48" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -16168,10 +16159,10 @@
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="44" t="s">
+        <v>985</v>
+      </c>
+      <c r="E28" s="44" t="s">
         <v>986</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>987</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -16185,10 +16176,10 @@
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="44" t="s">
+        <v>992</v>
+      </c>
+      <c r="E29" s="43" t="s">
         <v>993</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>994</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -16205,7 +16196,7 @@
         <v>354</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -16222,7 +16213,7 @@
         <v>361</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -16239,7 +16230,7 @@
         <v>146</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -16253,10 +16244,10 @@
       </c>
       <c r="C33" s="42"/>
       <c r="D33" s="49" t="s">
+        <v>978</v>
+      </c>
+      <c r="E33" s="44" t="s">
         <v>979</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>980</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
@@ -16270,10 +16261,10 @@
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="44" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
@@ -16305,7 +16296,7 @@
       <selection pane="bottomLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -16332,563 +16323,563 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>1026</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="C2" s="53" t="s">
         <v>1027</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="D2" s="54" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E2" s="55" t="s">
         <v>1028</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>1030</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>1031</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>1032</v>
-      </c>
       <c r="D3" s="54" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B4" s="52" t="s">
         <v>1033</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>1034</v>
-      </c>
       <c r="C4" s="53" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>1028</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B5" s="52" t="s">
         <v>1035</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>1036</v>
-      </c>
       <c r="C5" s="53" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B6" s="52" t="s">
         <v>1037</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>1038</v>
-      </c>
       <c r="C6" s="56" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E6" s="55" t="s">
         <v>1028</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>1039</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>1040</v>
-      </c>
       <c r="C7" s="56" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>1041</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>1042</v>
-      </c>
       <c r="C8" s="53" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E8" s="55" t="s">
         <v>1028</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>1043</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>1044</v>
-      </c>
       <c r="C9" s="53" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>1045</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>1046</v>
-      </c>
       <c r="C10" s="53" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E10" s="55" t="s">
         <v>1028</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>1047</v>
       </c>
-      <c r="B11" s="52" t="s">
-        <v>1048</v>
-      </c>
       <c r="C11" s="53" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E11" s="55" t="s">
         <v>1028</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>1049</v>
       </c>
-      <c r="B12" s="52" t="s">
-        <v>1050</v>
-      </c>
       <c r="C12" s="53" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B13" s="52" t="s">
         <v>1051</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="C13" s="56" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E13" s="57" t="s">
         <v>1052</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B14" s="52" t="s">
         <v>1054</v>
       </c>
-      <c r="B14" s="52" t="s">
-        <v>1055</v>
-      </c>
       <c r="C14" s="56" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>1056</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="C15" s="56" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D15" s="54" t="s">
         <v>1057</v>
       </c>
-      <c r="C15" s="56" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>1058</v>
-      </c>
       <c r="E15" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B16" s="52" t="s">
         <v>1059</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>1060</v>
-      </c>
       <c r="C16" s="56" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>1061</v>
       </c>
-      <c r="B17" s="52" t="s">
-        <v>1062</v>
-      </c>
       <c r="C17" s="56" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>1063</v>
       </c>
-      <c r="B18" s="52" t="s">
-        <v>1064</v>
-      </c>
       <c r="C18" s="56" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B19" s="58" t="s">
         <v>1065</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="C19" s="56" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D19" s="54" t="s">
         <v>1066</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>1067</v>
-      </c>
       <c r="E19" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B20" s="52" t="s">
         <v>1068</v>
       </c>
-      <c r="B20" s="52" t="s">
-        <v>1069</v>
-      </c>
       <c r="C20" s="53" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B21" s="59" t="s">
         <v>1070</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="C21" s="53" t="s">
         <v>1071</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="D21" s="54" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E21" s="55" t="s">
         <v>1072</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B22" s="60" t="s">
         <v>1074</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="C22" s="53" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D22" s="54" t="s">
         <v>1075</v>
       </c>
-      <c r="C22" s="53" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D22" s="54" t="s">
-        <v>1076</v>
-      </c>
       <c r="E22" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>1077</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>1078</v>
-      </c>
       <c r="C23" s="53" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B24" s="52" t="s">
         <v>1079</v>
       </c>
-      <c r="B24" s="52" t="s">
-        <v>1080</v>
-      </c>
       <c r="C24" s="53" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B25" s="52" t="s">
         <v>1081</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="C25" s="53" t="s">
         <v>1082</v>
       </c>
-      <c r="C25" s="53" t="s">
-        <v>1083</v>
-      </c>
       <c r="D25" s="54" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B26" s="61" t="s">
         <v>1084</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="C26" s="53" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D26" s="62" t="s">
         <v>1085</v>
       </c>
-      <c r="C26" s="53" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>1086</v>
-      </c>
       <c r="E26" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B27" s="61" t="s">
         <v>1087</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="C27" s="63" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D27" s="62" t="s">
         <v>1088</v>
       </c>
-      <c r="C27" s="63" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>1089</v>
-      </c>
       <c r="E27" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B28" s="61" t="s">
         <v>1090</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="C28" s="63" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D28" s="62" t="s">
         <v>1091</v>
       </c>
-      <c r="C28" s="63" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>1092</v>
-      </c>
       <c r="E28" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B29" s="61" t="s">
         <v>1093</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="C29" s="63" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D29" s="62" t="s">
         <v>1094</v>
       </c>
-      <c r="C29" s="63" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>1095</v>
-      </c>
       <c r="E29" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B30" s="61" t="s">
         <v>1096</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="C30" s="53" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D30" s="62" t="s">
         <v>1097</v>
       </c>
-      <c r="C30" s="53" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>1098</v>
-      </c>
       <c r="E30" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B31" s="61" t="s">
         <v>1099</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="C31" s="63" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D31" s="62" t="s">
         <v>1100</v>
       </c>
-      <c r="C31" s="63" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>1101</v>
-      </c>
       <c r="E31" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B32" s="52" t="s">
         <v>1102</v>
       </c>
-      <c r="B32" s="52" t="s">
-        <v>1103</v>
-      </c>
       <c r="C32" s="53" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B33" s="58" t="s">
         <v>1104</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="C33" s="56" t="s">
         <v>1105</v>
       </c>
-      <c r="C33" s="56" t="s">
-        <v>1106</v>
-      </c>
       <c r="D33" s="62" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E33" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B34" s="58" t="s">
         <v>1107</v>
       </c>
-      <c r="B34" s="58" t="s">
-        <v>1108</v>
-      </c>
       <c r="C34" s="56" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D34" s="54" t="s">
         <v>1106</v>
       </c>
-      <c r="D34" s="54" t="s">
-        <v>1107</v>
-      </c>
       <c r="E34" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -16922,7 +16913,7 @@
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -16949,274 +16940,274 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>1109</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>1110</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="54" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>1111</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>1112</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>1113</v>
-      </c>
       <c r="D3" s="54" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B4" s="52" t="s">
         <v>1114</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>1115</v>
       </c>
       <c r="C4" s="53"/>
       <c r="D4" s="54" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B5" s="52" t="s">
         <v>1116</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>1117</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="54" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B6" s="52" t="s">
         <v>1118</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>1119</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="54" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>1120</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>1121</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="54" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>1122</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>1123</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="54" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>1124</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>1125</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="54" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>1126</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>1127</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="54" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>1128</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>1129</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="54" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>1130</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>1131</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="54" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B13" s="52" t="s">
         <v>1132</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>1133</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="54" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B14" s="52" t="s">
         <v>1134</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>1135</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>1136</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>1137</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="54" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B16" s="52" t="s">
         <v>1138</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>1139</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="54" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>1140</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>1141</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="54" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>1142</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>1143</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="54" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B19" s="52" t="s">
         <v>1144</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>1145</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="54" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -17247,7 +17238,7 @@
       <selection pane="bottomRight" activeCell="AQ9" activeCellId="0" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.27"/>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="1147">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -2687,6 +2687,9 @@
     <t xml:space="preserve">prespaccfres</t>
   </si>
   <si>
+    <t xml:space="preserve">Residential and tertiary HP sources for heating</t>
+  </si>
+  <si>
     <t xml:space="preserve">prespaccfra</t>
   </si>
   <si>
@@ -2697,6 +2700,9 @@
   </si>
   <si>
     <t xml:space="preserve">prespaccfta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential and tertiary HP for heating</t>
   </si>
   <si>
     <t xml:space="preserve">prespaccftaa</t>
@@ -5142,7 +5148,7 @@
       <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.91"/>
@@ -5752,7 +5758,7 @@
       <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.28"/>
@@ -5935,7 +5941,7 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.36"/>
@@ -8466,12 +8472,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+      <selection pane="bottomLeft" activeCell="A88" activeCellId="0" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -10295,7 +10301,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="26" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B88" s="26" t="str">
         <f aca="false">NODES!$A$29</f>
@@ -12345,17 +12351,17 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="26" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B194" s="26" t="s">
         <v>109</v>
       </c>
       <c r="C194" s="42"/>
       <c r="D194" s="44" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E194" s="42" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F194" s="42"/>
       <c r="G194" s="42"/>
@@ -12372,24 +12378,24 @@
         <v>744</v>
       </c>
       <c r="E195" s="42" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F195" s="42"/>
       <c r="G195" s="42"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="26" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B196" s="26" t="s">
         <v>109</v>
       </c>
       <c r="C196" s="42"/>
       <c r="D196" s="44" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E196" s="42" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F196" s="42"/>
       <c r="G196" s="42"/>
@@ -12406,24 +12412,24 @@
         <v>744</v>
       </c>
       <c r="E197" s="42" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F197" s="42"/>
       <c r="G197" s="42"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="26" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B198" s="26" t="s">
         <v>109</v>
       </c>
       <c r="C198" s="42"/>
       <c r="D198" s="44" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="E198" s="42" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F198" s="42"/>
       <c r="G198" s="42"/>
@@ -12440,24 +12446,24 @@
         <v>744</v>
       </c>
       <c r="E199" s="42" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F199" s="42"/>
       <c r="G199" s="42"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="26" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B200" s="26" t="s">
         <v>109</v>
       </c>
       <c r="C200" s="42"/>
       <c r="D200" s="44" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="E200" s="42" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F200" s="42"/>
       <c r="G200" s="42"/>
@@ -12474,7 +12480,7 @@
       <c r="C201" s="42"/>
       <c r="D201" s="42"/>
       <c r="E201" s="42" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="F201" s="42"/>
       <c r="G201" s="42"/>
@@ -12491,7 +12497,7 @@
       <c r="C202" s="42"/>
       <c r="D202" s="42"/>
       <c r="E202" s="42" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F202" s="42"/>
       <c r="G202" s="42"/>
@@ -12508,7 +12514,7 @@
       <c r="C203" s="42"/>
       <c r="D203" s="42"/>
       <c r="E203" s="42" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F203" s="42"/>
       <c r="G203" s="42"/>
@@ -12525,7 +12531,7 @@
       <c r="C204" s="42"/>
       <c r="D204" s="42"/>
       <c r="E204" s="42" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F204" s="42"/>
       <c r="G204" s="42"/>
@@ -12542,7 +12548,7 @@
       <c r="C205" s="42"/>
       <c r="D205" s="42"/>
       <c r="E205" s="42" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F205" s="42"/>
       <c r="G205" s="42"/>
@@ -12559,7 +12565,7 @@
       <c r="C206" s="42"/>
       <c r="D206" s="42"/>
       <c r="E206" s="42" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F206" s="42"/>
       <c r="G206" s="42"/>
@@ -12576,7 +12582,7 @@
       <c r="C207" s="42"/>
       <c r="D207" s="42"/>
       <c r="E207" s="42" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F207" s="42"/>
       <c r="G207" s="42"/>
@@ -12593,7 +12599,7 @@
       <c r="C208" s="42"/>
       <c r="D208" s="42"/>
       <c r="E208" s="42" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F208" s="42"/>
       <c r="G208" s="42"/>
@@ -12610,7 +12616,7 @@
       <c r="C209" s="42"/>
       <c r="D209" s="42"/>
       <c r="E209" s="42" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F209" s="42"/>
       <c r="G209" s="42"/>
@@ -12625,10 +12631,10 @@
       </c>
       <c r="C210" s="42"/>
       <c r="D210" s="42" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E210" s="42" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F210" s="42"/>
       <c r="G210" s="42"/>
@@ -12645,7 +12651,7 @@
       <c r="C211" s="42"/>
       <c r="D211" s="42"/>
       <c r="E211" s="42" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F211" s="42"/>
       <c r="G211" s="42"/>
@@ -12660,10 +12666,10 @@
       </c>
       <c r="C212" s="42"/>
       <c r="D212" s="42" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E212" s="42" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F212" s="42"/>
       <c r="G212" s="42"/>
@@ -12678,10 +12684,10 @@
       </c>
       <c r="C213" s="42"/>
       <c r="D213" s="42" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E213" s="42" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F213" s="42"/>
       <c r="G213" s="42"/>
@@ -12696,10 +12702,10 @@
       </c>
       <c r="C214" s="42"/>
       <c r="D214" s="42" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E214" s="42" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="F214" s="42"/>
       <c r="G214" s="42"/>
@@ -12714,10 +12720,10 @@
       </c>
       <c r="C215" s="42"/>
       <c r="D215" s="42" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E215" s="42" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F215" s="42"/>
       <c r="G215" s="42"/>
@@ -12732,10 +12738,10 @@
       </c>
       <c r="C216" s="42"/>
       <c r="D216" s="42" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E216" s="42" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F216" s="42"/>
       <c r="G216" s="42"/>
@@ -12749,10 +12755,10 @@
       </c>
       <c r="C217" s="42"/>
       <c r="D217" s="42" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E217" s="42" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F217" s="42"/>
       <c r="G217" s="42"/>
@@ -12769,7 +12775,7 @@
       <c r="C218" s="42"/>
       <c r="D218" s="42"/>
       <c r="E218" s="42" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F218" s="42"/>
       <c r="G218" s="42"/>
@@ -12784,10 +12790,10 @@
       </c>
       <c r="C219" s="42"/>
       <c r="D219" s="42" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E219" s="42" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F219" s="42"/>
       <c r="G219" s="42"/>
@@ -12801,10 +12807,10 @@
       </c>
       <c r="C220" s="42"/>
       <c r="D220" s="44" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E220" s="44" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F220" s="42"/>
       <c r="G220" s="42"/>
@@ -12821,7 +12827,7 @@
       <c r="C221" s="42"/>
       <c r="D221" s="42"/>
       <c r="E221" s="42" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F221" s="42"/>
       <c r="G221" s="42"/>
@@ -12836,10 +12842,10 @@
       </c>
       <c r="C222" s="42"/>
       <c r="D222" s="42" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E222" s="42" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="F222" s="42"/>
       <c r="G222" s="42"/>
@@ -12853,10 +12859,10 @@
       </c>
       <c r="C223" s="42"/>
       <c r="D223" s="42" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E223" s="44" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="F223" s="42"/>
       <c r="G223" s="42"/>
@@ -12872,10 +12878,10 @@
       </c>
       <c r="C224" s="42"/>
       <c r="D224" s="42" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E224" s="42" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F224" s="42"/>
       <c r="G224" s="42"/>
@@ -12892,7 +12898,7 @@
       <c r="C225" s="42"/>
       <c r="D225" s="42"/>
       <c r="E225" s="42" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F225" s="42"/>
       <c r="G225" s="42"/>
@@ -12907,10 +12913,10 @@
       </c>
       <c r="C226" s="42"/>
       <c r="D226" s="42" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E226" s="42" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F226" s="42"/>
       <c r="G226" s="42"/>
@@ -12927,7 +12933,7 @@
       <c r="C227" s="42"/>
       <c r="D227" s="42"/>
       <c r="E227" s="42" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="F227" s="42"/>
       <c r="G227" s="42"/>
@@ -12942,10 +12948,10 @@
       </c>
       <c r="C228" s="42"/>
       <c r="D228" s="42" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E228" s="42" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F228" s="42"/>
       <c r="G228" s="42"/>
@@ -12959,10 +12965,10 @@
       </c>
       <c r="C229" s="42"/>
       <c r="D229" s="42" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E229" s="42" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F229" s="42"/>
       <c r="G229" s="42"/>
@@ -12979,7 +12985,7 @@
       <c r="C230" s="42"/>
       <c r="D230" s="42"/>
       <c r="E230" s="42" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F230" s="42"/>
       <c r="G230" s="42"/>
@@ -12996,7 +13002,7 @@
       <c r="C231" s="42"/>
       <c r="D231" s="42"/>
       <c r="E231" s="42" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F231" s="42"/>
       <c r="G231" s="42"/>
@@ -13012,10 +13018,10 @@
       </c>
       <c r="C232" s="42"/>
       <c r="D232" s="42" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E232" s="42" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="F232" s="42"/>
       <c r="G232" s="42"/>
@@ -13030,10 +13036,10 @@
       </c>
       <c r="C233" s="42"/>
       <c r="D233" s="42" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E233" s="42" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F233" s="42"/>
       <c r="G233" s="42"/>
@@ -13050,7 +13056,7 @@
       <c r="C234" s="42"/>
       <c r="D234" s="42"/>
       <c r="E234" s="42" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F234" s="42"/>
       <c r="G234" s="42"/>
@@ -13067,7 +13073,7 @@
       <c r="C235" s="42"/>
       <c r="D235" s="42"/>
       <c r="E235" s="42" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F235" s="42"/>
       <c r="G235" s="42"/>
@@ -13084,7 +13090,7 @@
       <c r="C236" s="42"/>
       <c r="D236" s="42"/>
       <c r="E236" s="42" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F236" s="42"/>
       <c r="G236" s="42"/>
@@ -13101,7 +13107,7 @@
       <c r="C237" s="42"/>
       <c r="D237" s="42"/>
       <c r="E237" s="42" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="F237" s="42"/>
       <c r="G237" s="42"/>
@@ -13118,7 +13124,7 @@
       <c r="C238" s="42"/>
       <c r="D238" s="42"/>
       <c r="E238" s="42" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F238" s="42"/>
       <c r="G238" s="42"/>
@@ -13135,7 +13141,7 @@
       <c r="C239" s="42"/>
       <c r="D239" s="42"/>
       <c r="E239" s="42" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F239" s="42"/>
       <c r="G239" s="42"/>
@@ -13152,7 +13158,7 @@
       <c r="C240" s="42"/>
       <c r="D240" s="42"/>
       <c r="E240" s="42" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F240" s="42"/>
       <c r="G240" s="42"/>
@@ -13169,7 +13175,7 @@
       <c r="C241" s="42"/>
       <c r="D241" s="42"/>
       <c r="E241" s="42" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F241" s="42"/>
       <c r="G241" s="42"/>
@@ -13186,7 +13192,7 @@
       <c r="C242" s="42"/>
       <c r="D242" s="42"/>
       <c r="E242" s="42" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F242" s="42"/>
       <c r="G242" s="42"/>
@@ -13201,10 +13207,10 @@
       </c>
       <c r="C243" s="42"/>
       <c r="D243" s="42" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E243" s="42" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F243" s="42"/>
       <c r="G243" s="42"/>
@@ -13221,7 +13227,7 @@
       <c r="C244" s="42"/>
       <c r="D244" s="42"/>
       <c r="E244" s="42" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F244" s="42"/>
       <c r="G244" s="42"/>
@@ -13237,10 +13243,10 @@
       </c>
       <c r="C245" s="42"/>
       <c r="D245" s="42" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E245" s="42" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="F245" s="42"/>
       <c r="G245" s="42"/>
@@ -13254,10 +13260,10 @@
       </c>
       <c r="C246" s="42"/>
       <c r="D246" s="42" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E246" s="42" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F246" s="42"/>
       <c r="G246" s="42"/>
@@ -13274,7 +13280,7 @@
       <c r="C247" s="42"/>
       <c r="D247" s="42"/>
       <c r="E247" s="42" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F247" s="42"/>
       <c r="G247" s="42"/>
@@ -13291,7 +13297,7 @@
       <c r="C248" s="42"/>
       <c r="D248" s="42"/>
       <c r="E248" s="42" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F248" s="42"/>
       <c r="G248" s="42"/>
@@ -13305,10 +13311,10 @@
       </c>
       <c r="C249" s="42"/>
       <c r="D249" s="42" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E249" s="42" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="F249" s="42"/>
       <c r="G249" s="42"/>
@@ -13322,10 +13328,10 @@
       </c>
       <c r="C250" s="42"/>
       <c r="D250" s="42" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E250" s="42" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="F250" s="42"/>
       <c r="G250" s="42"/>
@@ -13339,10 +13345,10 @@
       </c>
       <c r="C251" s="42"/>
       <c r="D251" s="42" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E251" s="42" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F251" s="42"/>
       <c r="G251" s="42"/>
@@ -13356,10 +13362,10 @@
       </c>
       <c r="C252" s="42"/>
       <c r="D252" s="44" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E252" s="44" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="F252" s="42"/>
       <c r="G252" s="42"/>
@@ -13373,10 +13379,10 @@
       </c>
       <c r="C253" s="42"/>
       <c r="D253" s="44" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E253" s="44" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="F253" s="42"/>
       <c r="G253" s="42"/>
@@ -13390,10 +13396,10 @@
       </c>
       <c r="C254" s="42"/>
       <c r="D254" s="44" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E254" s="44" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F254" s="42"/>
       <c r="G254" s="42"/>
@@ -13407,10 +13413,10 @@
       </c>
       <c r="C255" s="42"/>
       <c r="D255" s="44" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E255" s="44" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="F255" s="42"/>
       <c r="G255" s="42"/>
@@ -13424,10 +13430,10 @@
       </c>
       <c r="C256" s="42"/>
       <c r="D256" s="44" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E256" s="44" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F256" s="42"/>
       <c r="G256" s="42"/>
@@ -13441,10 +13447,10 @@
       </c>
       <c r="C257" s="42"/>
       <c r="D257" s="44" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E257" s="44" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F257" s="42"/>
       <c r="G257" s="42"/>
@@ -13458,10 +13464,10 @@
       </c>
       <c r="C258" s="42"/>
       <c r="D258" s="44" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E258" s="44" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="F258" s="42"/>
       <c r="G258" s="42"/>
@@ -13475,10 +13481,10 @@
       </c>
       <c r="C259" s="42"/>
       <c r="D259" s="44" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E259" s="44" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="F259" s="42"/>
       <c r="G259" s="42"/>
@@ -13492,10 +13498,10 @@
       </c>
       <c r="C260" s="42"/>
       <c r="D260" s="44" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E260" s="44" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F260" s="42"/>
       <c r="G260" s="42"/>
@@ -13509,10 +13515,10 @@
       </c>
       <c r="C261" s="42"/>
       <c r="D261" s="44" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E261" s="44" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F261" s="42"/>
       <c r="G261" s="42"/>
@@ -13526,10 +13532,10 @@
       </c>
       <c r="C262" s="42"/>
       <c r="D262" s="44" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E262" s="44" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F262" s="42"/>
       <c r="G262" s="42"/>
@@ -13543,10 +13549,10 @@
       </c>
       <c r="C263" s="42"/>
       <c r="D263" s="44" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E263" s="44" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="F263" s="42"/>
       <c r="G263" s="42"/>
@@ -13560,10 +13566,10 @@
       </c>
       <c r="C264" s="42"/>
       <c r="D264" s="44" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E264" s="44" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F264" s="42"/>
       <c r="G264" s="42"/>
@@ -13577,10 +13583,10 @@
       </c>
       <c r="C265" s="42"/>
       <c r="D265" s="44" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E265" s="44" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F265" s="42"/>
       <c r="G265" s="42"/>
@@ -13594,10 +13600,10 @@
       </c>
       <c r="C266" s="42"/>
       <c r="D266" s="44" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E266" s="44" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F266" s="42"/>
       <c r="G266" s="42"/>
@@ -13611,10 +13617,10 @@
       </c>
       <c r="C267" s="42"/>
       <c r="D267" s="44" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E267" s="44" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F267" s="42"/>
       <c r="G267" s="42"/>
@@ -13628,10 +13634,10 @@
       </c>
       <c r="C268" s="42"/>
       <c r="D268" s="44" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E268" s="44" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F268" s="42"/>
       <c r="G268" s="42"/>
@@ -13645,10 +13651,10 @@
       </c>
       <c r="C269" s="42"/>
       <c r="D269" s="44" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E269" s="44" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F269" s="42"/>
       <c r="G269" s="42"/>
@@ -13662,10 +13668,10 @@
       </c>
       <c r="C270" s="42"/>
       <c r="D270" s="44" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E270" s="44" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F270" s="42"/>
       <c r="G270" s="42"/>
@@ -13679,10 +13685,10 @@
       </c>
       <c r="C271" s="42"/>
       <c r="D271" s="44" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="E271" s="44" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="F271" s="42"/>
       <c r="G271" s="42"/>
@@ -13696,10 +13702,10 @@
       </c>
       <c r="C272" s="42"/>
       <c r="D272" s="44" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E272" s="44" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F272" s="42"/>
       <c r="G272" s="42"/>
@@ -13713,10 +13719,10 @@
       </c>
       <c r="C273" s="42"/>
       <c r="D273" s="44" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E273" s="44" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F273" s="42"/>
       <c r="G273" s="42"/>
@@ -13730,10 +13736,10 @@
       </c>
       <c r="C274" s="42"/>
       <c r="D274" s="44" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E274" s="44" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F274" s="42"/>
       <c r="G274" s="42"/>
@@ -13747,10 +13753,10 @@
       </c>
       <c r="C275" s="42"/>
       <c r="D275" s="44" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E275" s="44" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F275" s="42"/>
       <c r="G275" s="42"/>
@@ -13764,10 +13770,10 @@
       </c>
       <c r="C276" s="42"/>
       <c r="D276" s="44" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E276" s="44" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F276" s="42"/>
       <c r="G276" s="42"/>
@@ -13781,10 +13787,10 @@
       </c>
       <c r="C277" s="42"/>
       <c r="D277" s="44" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E277" s="44" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F277" s="42"/>
       <c r="G277" s="42"/>
@@ -13798,10 +13804,10 @@
       </c>
       <c r="C278" s="42"/>
       <c r="D278" s="44" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="E278" s="44" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F278" s="42"/>
       <c r="G278" s="42"/>
@@ -13815,10 +13821,10 @@
       </c>
       <c r="C279" s="42"/>
       <c r="D279" s="44" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="E279" s="44" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="F279" s="42"/>
       <c r="G279" s="42"/>
@@ -13833,7 +13839,7 @@
       <c r="C280" s="42"/>
       <c r="D280" s="44"/>
       <c r="E280" s="44" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F280" s="42"/>
       <c r="G280" s="42"/>
@@ -13848,7 +13854,7 @@
       <c r="C281" s="42"/>
       <c r="D281" s="44"/>
       <c r="E281" s="44" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="F281" s="42"/>
       <c r="G281" s="42"/>
@@ -13863,7 +13869,7 @@
       <c r="C282" s="42"/>
       <c r="D282" s="44"/>
       <c r="E282" s="44" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F282" s="42"/>
       <c r="G282" s="42"/>
@@ -13878,7 +13884,7 @@
       <c r="C283" s="42"/>
       <c r="D283" s="44"/>
       <c r="E283" s="44" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="F283" s="42"/>
       <c r="G283" s="42"/>
@@ -13893,7 +13899,7 @@
       <c r="C284" s="42"/>
       <c r="D284" s="44"/>
       <c r="E284" s="44" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F284" s="42"/>
       <c r="G284" s="42"/>
@@ -13908,7 +13914,7 @@
       <c r="C285" s="42"/>
       <c r="D285" s="44"/>
       <c r="E285" s="44" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="F285" s="42"/>
       <c r="G285" s="42"/>
@@ -13923,7 +13929,7 @@
       <c r="C286" s="42"/>
       <c r="D286" s="44"/>
       <c r="E286" s="44" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F286" s="42"/>
       <c r="G286" s="42"/>
@@ -13938,7 +13944,7 @@
       <c r="C287" s="42"/>
       <c r="D287" s="44"/>
       <c r="E287" s="44" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="F287" s="42"/>
       <c r="G287" s="42"/>
@@ -13953,7 +13959,7 @@
       <c r="C288" s="42"/>
       <c r="D288" s="44"/>
       <c r="E288" s="44" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F288" s="42"/>
       <c r="G288" s="42"/>
@@ -13968,7 +13974,7 @@
       <c r="C289" s="42"/>
       <c r="D289" s="44"/>
       <c r="E289" s="44" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="F289" s="42"/>
       <c r="G289" s="42"/>
@@ -13983,7 +13989,7 @@
       <c r="C290" s="42"/>
       <c r="D290" s="44"/>
       <c r="E290" s="44" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F290" s="42"/>
       <c r="G290" s="42"/>
@@ -13998,7 +14004,7 @@
       <c r="C291" s="42"/>
       <c r="D291" s="44"/>
       <c r="E291" s="44" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="F291" s="42"/>
       <c r="G291" s="42"/>
@@ -14013,7 +14019,7 @@
       <c r="C292" s="42"/>
       <c r="D292" s="44"/>
       <c r="E292" s="44" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F292" s="42"/>
       <c r="G292" s="42"/>
@@ -14028,7 +14034,7 @@
       <c r="C293" s="42"/>
       <c r="D293" s="44"/>
       <c r="E293" s="44" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="F293" s="42"/>
       <c r="G293" s="42"/>
@@ -14042,10 +14048,10 @@
       </c>
       <c r="C294" s="42"/>
       <c r="D294" s="44" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E294" s="44" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F294" s="42"/>
       <c r="G294" s="42"/>
@@ -14059,10 +14065,10 @@
       </c>
       <c r="C295" s="42"/>
       <c r="D295" s="44" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E295" s="44" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="F295" s="42"/>
       <c r="G295" s="42"/>
@@ -14076,10 +14082,10 @@
       </c>
       <c r="C296" s="42"/>
       <c r="D296" s="44" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E296" s="44" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="F296" s="42"/>
       <c r="G296" s="42"/>
@@ -14094,7 +14100,7 @@
       <c r="C297" s="42"/>
       <c r="D297" s="44"/>
       <c r="E297" s="44" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F297" s="42"/>
       <c r="G297" s="42"/>
@@ -14109,7 +14115,7 @@
       <c r="C298" s="42"/>
       <c r="D298" s="44"/>
       <c r="E298" s="44" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F298" s="42"/>
       <c r="G298" s="42"/>
@@ -14123,10 +14129,10 @@
       </c>
       <c r="C299" s="42"/>
       <c r="D299" s="44" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E299" s="44" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="F299" s="42"/>
       <c r="G299" s="42"/>
@@ -14140,10 +14146,10 @@
       </c>
       <c r="C300" s="42"/>
       <c r="D300" s="44" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E300" s="44" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="F300" s="42"/>
       <c r="G300" s="42"/>
@@ -14157,10 +14163,10 @@
       </c>
       <c r="C301" s="42"/>
       <c r="D301" s="44" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E301" s="44" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="F301" s="42"/>
       <c r="G301" s="42"/>
@@ -14174,10 +14180,10 @@
       </c>
       <c r="C302" s="42"/>
       <c r="D302" s="44" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E302" s="44" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="F302" s="42"/>
       <c r="G302" s="42"/>
@@ -14191,10 +14197,10 @@
       </c>
       <c r="C303" s="42"/>
       <c r="D303" s="44" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E303" s="44" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="F303" s="42"/>
       <c r="G303" s="42"/>
@@ -14208,10 +14214,10 @@
       </c>
       <c r="C304" s="42"/>
       <c r="D304" s="44" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E304" s="44" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F304" s="42"/>
       <c r="G304" s="42"/>
@@ -14245,7 +14251,7 @@
       <selection pane="bottomLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -14288,10 +14294,10 @@
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -14305,10 +14311,10 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="44" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -14322,10 +14328,10 @@
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="44" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -14339,10 +14345,10 @@
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="44" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -14356,10 +14362,10 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="44" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -14373,10 +14379,10 @@
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="44" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
@@ -14390,10 +14396,10 @@
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="44" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
@@ -14407,10 +14413,10 @@
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="44" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
@@ -14424,10 +14430,10 @@
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="44" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -14441,10 +14447,10 @@
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="44" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
@@ -14458,10 +14464,10 @@
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="44" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
@@ -14475,10 +14481,10 @@
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="44" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
@@ -14492,10 +14498,10 @@
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="44" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
@@ -14509,10 +14515,10 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="44" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
@@ -14526,10 +14532,10 @@
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="44" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
@@ -14543,10 +14549,10 @@
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="44" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -14560,10 +14566,10 @@
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="44" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -14577,10 +14583,10 @@
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="44" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
@@ -14594,10 +14600,10 @@
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="44" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
@@ -14611,10 +14617,10 @@
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="44" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
@@ -14628,10 +14634,10 @@
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="44" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
@@ -14645,10 +14651,10 @@
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="44" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
@@ -14662,10 +14668,10 @@
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="44" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
@@ -14679,10 +14685,10 @@
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="44" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -14696,10 +14702,10 @@
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="44" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
@@ -14713,10 +14719,10 @@
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="44" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -14730,10 +14736,10 @@
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="44" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -14747,10 +14753,10 @@
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="44" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -14764,10 +14770,10 @@
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="44" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -14781,10 +14787,10 @@
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="44" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -14797,13 +14803,13 @@
         <v>327</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -14819,10 +14825,10 @@
         <v>125</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
@@ -14838,10 +14844,10 @@
         <v>132</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
@@ -14857,10 +14863,10 @@
         <v>118</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
@@ -14873,13 +14879,13 @@
         <v>327</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -14893,10 +14899,10 @@
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="44" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -14913,7 +14919,7 @@
         <v>344</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -14927,10 +14933,10 @@
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="44" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
@@ -14944,10 +14950,10 @@
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="44" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
@@ -14960,13 +14966,13 @@
         <v>349</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
@@ -14980,10 +14986,10 @@
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="44" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
@@ -14997,10 +15003,10 @@
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="44" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
@@ -15014,10 +15020,10 @@
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="44" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
@@ -15031,10 +15037,10 @@
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="44" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
@@ -15048,10 +15054,10 @@
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="44" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
@@ -15065,10 +15071,10 @@
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="44" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
@@ -15082,10 +15088,10 @@
       </c>
       <c r="C48" s="42"/>
       <c r="D48" s="44" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
@@ -15099,10 +15105,10 @@
       </c>
       <c r="C49" s="42"/>
       <c r="D49" s="44" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
@@ -15116,10 +15122,10 @@
       </c>
       <c r="C50" s="42"/>
       <c r="D50" s="44" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
@@ -15133,10 +15139,10 @@
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="44" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -15153,7 +15159,7 @@
         <v>354</v>
       </c>
       <c r="E52" s="50" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
@@ -15170,7 +15176,7 @@
         <v>354</v>
       </c>
       <c r="E53" s="50" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
@@ -15184,10 +15190,10 @@
       </c>
       <c r="C54" s="42"/>
       <c r="D54" s="44" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E54" s="50" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
@@ -15204,7 +15210,7 @@
         <v>498</v>
       </c>
       <c r="E55" s="50" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
@@ -15217,13 +15223,13 @@
         <v>327</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
@@ -15237,10 +15243,10 @@
       </c>
       <c r="C57" s="42"/>
       <c r="D57" s="44" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E57" s="50" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
@@ -15254,10 +15260,10 @@
       </c>
       <c r="C58" s="42"/>
       <c r="D58" s="44" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E58" s="50" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
@@ -15274,7 +15280,7 @@
         <v>146</v>
       </c>
       <c r="E59" s="50" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
@@ -15291,7 +15297,7 @@
         <v>361</v>
       </c>
       <c r="E60" s="50" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
@@ -15305,10 +15311,10 @@
       </c>
       <c r="C61" s="42"/>
       <c r="D61" s="44" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E61" s="44" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -15322,10 +15328,10 @@
       </c>
       <c r="C62" s="42"/>
       <c r="D62" s="44" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E62" s="44" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
@@ -15339,10 +15345,10 @@
       </c>
       <c r="C63" s="42"/>
       <c r="D63" s="44" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E63" s="44" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
@@ -15356,10 +15362,10 @@
       </c>
       <c r="C64" s="42"/>
       <c r="D64" s="44" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E64" s="44" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
@@ -15373,10 +15379,10 @@
       </c>
       <c r="C65" s="42"/>
       <c r="D65" s="44" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E65" s="44" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
@@ -15390,10 +15396,10 @@
       </c>
       <c r="C66" s="42"/>
       <c r="D66" s="44" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E66" s="44" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
@@ -15407,10 +15413,10 @@
       </c>
       <c r="C67" s="42"/>
       <c r="D67" s="44" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E67" s="44" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
@@ -15424,10 +15430,10 @@
       </c>
       <c r="C68" s="42"/>
       <c r="D68" s="44" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E68" s="44" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
@@ -15670,7 +15676,7 @@
       <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -15713,10 +15719,10 @@
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -15730,10 +15736,10 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="44" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -15747,10 +15753,10 @@
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="44" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -15764,10 +15770,10 @@
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="44" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -15781,112 +15787,112 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="44" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="48" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="44" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="48" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="44" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="44" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="48" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="44" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="44" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="48" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="44" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
@@ -15900,218 +15906,218 @@
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="44" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="48" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="44" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="48" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="44" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="44" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="48" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="44" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="48" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="44" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="48" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="48" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="44" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="48" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="44" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="48" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="44" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="48" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="44" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="48" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>232</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="44" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="48" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>232</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -16128,24 +16134,24 @@
         <v>344</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="48" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="44" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -16159,10 +16165,10 @@
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="44" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -16176,10 +16182,10 @@
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="44" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -16196,7 +16202,7 @@
         <v>354</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -16213,7 +16219,7 @@
         <v>361</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -16230,7 +16236,7 @@
         <v>146</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -16244,10 +16250,10 @@
       </c>
       <c r="C33" s="42"/>
       <c r="D33" s="49" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
@@ -16261,10 +16267,10 @@
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="44" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
@@ -16296,7 +16302,7 @@
       <selection pane="bottomLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -16323,563 +16329,563 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C2" s="53" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>1027</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>1025</v>
-      </c>
       <c r="E2" s="55" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B3" s="52" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E3" s="55" t="s">
         <v>1030</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B14" s="52" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E14" s="57" t="s">
         <v>1054</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C21" s="53" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D21" s="54" t="s">
         <v>1071</v>
       </c>
-      <c r="D21" s="54" t="s">
-        <v>1069</v>
-      </c>
       <c r="E21" s="55" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C22" s="53" t="s">
         <v>1073</v>
       </c>
-      <c r="B22" s="60" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>1071</v>
-      </c>
       <c r="D22" s="54" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C25" s="53" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D25" s="54" t="s">
         <v>1082</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>1080</v>
-      </c>
       <c r="E25" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="E27" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="E28" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="E30" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="C33" s="56" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D33" s="62" t="s">
         <v>1105</v>
       </c>
-      <c r="D33" s="62" t="s">
-        <v>1103</v>
-      </c>
       <c r="E33" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B34" s="58" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C34" s="56" t="s">
         <v>1107</v>
       </c>
-      <c r="C34" s="56" t="s">
-        <v>1105</v>
-      </c>
       <c r="D34" s="54" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="E34" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -16913,7 +16919,7 @@
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -16940,274 +16946,274 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="54" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C3" s="53" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>1112</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>1110</v>
-      </c>
       <c r="E3" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C4" s="53"/>
       <c r="D4" s="54" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="54" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="54" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="54" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="54" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="54" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="54" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="54" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="54" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="54" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="54" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="54" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="54" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="54" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="54" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -17238,7 +17244,7 @@
       <selection pane="bottomRight" activeCell="AQ9" activeCellId="0" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.27"/>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" state="visible" r:id="rId2"/>
@@ -5148,7 +5148,7 @@
       <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.30859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.91"/>
@@ -5758,7 +5758,7 @@
       <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.30859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.28"/>
@@ -5941,7 +5941,7 @@
       <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.30859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.36"/>
@@ -8471,13 +8471,13 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A88" activeCellId="0" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.30859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -14251,7 +14251,7 @@
       <selection pane="bottomLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.30859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -15670,13 +15670,13 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.30859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -16195,7 +16195,7 @@
         <v>353</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="44" t="s">
@@ -16263,7 +16263,7 @@
         <v>355</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>224</v>
+        <v>355</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="44" t="s">
@@ -16302,7 +16302,7 @@
       <selection pane="bottomLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.30859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -16919,7 +16919,7 @@
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.30859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -17244,7 +17244,7 @@
       <selection pane="bottomRight" activeCell="AQ9" activeCellId="0" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.30859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.27"/>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" state="visible" r:id="rId2"/>
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="1140">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -3363,9 +3363,6 @@
   </si>
   <si>
     <t xml:space="preserve">emmgasccx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmgasccxx</t>
   </si>
   <si>
     <t xml:space="preserve">solid biomass for industry CC</t>
@@ -8476,8 +8473,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E108" activeCellId="0" sqref="E108"/>
     </sheetView>
@@ -14064,10 +14061,10 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E69" activeCellId="0" sqref="E69"/>
+      <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14832,65 +14829,65 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="51" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="C44" s="44"/>
       <c r="D44" s="46" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F44" s="44"/>
       <c r="G44" s="44"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="51" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="C45" s="44"/>
       <c r="D45" s="46" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F45" s="44"/>
       <c r="G45" s="44"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="51" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C46" s="44"/>
       <c r="D46" s="46" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="B47" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>328</v>
       </c>
       <c r="C47" s="44"/>
       <c r="D47" s="46" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E47" s="46" t="s">
         <v>978</v>
@@ -14900,48 +14897,48 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="B48" s="28" t="s">
         <v>328</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>340</v>
       </c>
       <c r="C48" s="44"/>
       <c r="D48" s="46" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="51" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C49" s="44"/>
       <c r="D49" s="46" t="s">
-        <v>980</v>
-      </c>
-      <c r="E49" s="46" t="s">
         <v>981</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>982</v>
       </c>
       <c r="F49" s="44"/>
       <c r="G49" s="44"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="B50" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>338</v>
       </c>
       <c r="C50" s="44"/>
       <c r="D50" s="46" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E50" s="53" t="s">
         <v>983</v>
@@ -14951,14 +14948,14 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="51" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C51" s="44"/>
       <c r="D51" s="46" t="s">
-        <v>982</v>
+        <v>355</v>
       </c>
       <c r="E51" s="53" t="s">
         <v>984</v>
@@ -14968,10 +14965,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="B52" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>334</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="46" t="s">
@@ -14985,31 +14982,31 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="B53" s="28" t="s">
         <v>328</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>354</v>
       </c>
       <c r="C53" s="44"/>
       <c r="D53" s="46" t="s">
-        <v>355</v>
+        <v>986</v>
       </c>
       <c r="E53" s="53" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="51" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C54" s="44"/>
       <c r="D54" s="46" t="s">
-        <v>987</v>
+        <v>501</v>
       </c>
       <c r="E54" s="53" t="s">
         <v>988</v>
@@ -15019,31 +15016,31 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="51" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="C55" s="44"/>
       <c r="D55" s="46" t="s">
-        <v>501</v>
+        <v>989</v>
       </c>
       <c r="E55" s="53" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="51" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="C56" s="44"/>
       <c r="D56" s="46" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E56" s="53" t="s">
         <v>991</v>
@@ -15053,14 +15050,14 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="51" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="B57" s="28" t="s">
         <v>330</v>
       </c>
       <c r="C57" s="44"/>
       <c r="D57" s="46" t="s">
-        <v>990</v>
+        <v>147</v>
       </c>
       <c r="E57" s="53" t="s">
         <v>992</v>
@@ -15070,14 +15067,14 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="51" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="C58" s="44"/>
       <c r="D58" s="46" t="s">
-        <v>147</v>
+        <v>362</v>
       </c>
       <c r="E58" s="53" t="s">
         <v>993</v>
@@ -15087,17 +15084,17 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="51" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="C59" s="44"/>
       <c r="D59" s="46" t="s">
-        <v>362</v>
-      </c>
-      <c r="E59" s="53" t="s">
         <v>994</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>995</v>
       </c>
       <c r="F59" s="44"/>
       <c r="G59" s="44"/>
@@ -15111,24 +15108,24 @@
       </c>
       <c r="C60" s="44"/>
       <c r="D60" s="46" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F60" s="44"/>
       <c r="G60" s="44"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="B61" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>334</v>
       </c>
       <c r="C61" s="44"/>
       <c r="D61" s="46" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E61" s="46" t="s">
         <v>998</v>
@@ -15138,14 +15135,14 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="51" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C62" s="44"/>
       <c r="D62" s="46" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E62" s="46" t="s">
         <v>999</v>
@@ -15155,14 +15152,14 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="B63" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>330</v>
       </c>
       <c r="C63" s="44"/>
       <c r="D63" s="46" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E63" s="46" t="s">
         <v>1000</v>
@@ -15172,51 +15169,51 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="51" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C64" s="44"/>
       <c r="D64" s="46" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E64" s="46" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F64" s="44"/>
       <c r="G64" s="44"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="51" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="C65" s="44"/>
       <c r="D65" s="46" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E65" s="46" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F65" s="44"/>
       <c r="G65" s="44"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="51" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C66" s="44"/>
       <c r="D66" s="46" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E66" s="46" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F66" s="44"/>
       <c r="G66" s="44"/>
@@ -15226,14 +15223,14 @@
         <v>334</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="C67" s="44"/>
       <c r="D67" s="46" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E67" s="46" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F67" s="44"/>
       <c r="G67" s="44"/>
@@ -15243,11 +15240,11 @@
         <v>334</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C68" s="44"/>
       <c r="D68" s="46" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E68" s="46" t="s">
         <v>1009</v>
@@ -15255,23 +15252,7 @@
       <c r="F68" s="44"/>
       <c r="G68" s="44"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="46" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E69" s="46" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-    </row>
+    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15603,7 +15584,7 @@
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="46" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E5" s="46" t="s">
         <v>903</v>
@@ -15630,7 +15611,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>223</v>
@@ -15647,7 +15628,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="51" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>223</v>
@@ -15664,7 +15645,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="51" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>223</v>
@@ -15681,7 +15662,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="51" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>223</v>
@@ -15698,7 +15679,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="51" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>223</v>
@@ -15715,7 +15696,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="51" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>223</v>
@@ -15749,7 +15730,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="51" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>221</v>
@@ -15766,7 +15747,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="51" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>221</v>
@@ -15783,7 +15764,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="51" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>221</v>
@@ -15800,7 +15781,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="51" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>221</v>
@@ -15817,7 +15798,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="51" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>223</v>
@@ -15834,7 +15815,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="51" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>221</v>
@@ -15853,7 +15834,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="51" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>221</v>
@@ -15870,7 +15851,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="51" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>221</v>
@@ -15887,7 +15868,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="51" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>221</v>
@@ -15904,7 +15885,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="51" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>221</v>
@@ -15921,7 +15902,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="51" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>233</v>
@@ -15955,7 +15936,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="51" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>223</v>
@@ -15979,10 +15960,10 @@
       </c>
       <c r="C27" s="44"/>
       <c r="D27" s="46" t="s">
+        <v>979</v>
+      </c>
+      <c r="E27" s="46" t="s">
         <v>980</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>981</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
@@ -15996,10 +15977,10 @@
       </c>
       <c r="C28" s="44"/>
       <c r="D28" s="46" t="s">
+        <v>986</v>
+      </c>
+      <c r="E28" s="45" t="s">
         <v>987</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>988</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
@@ -16016,7 +15997,7 @@
         <v>355</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
@@ -16033,7 +16014,7 @@
         <v>147</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
@@ -16047,10 +16028,10 @@
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="52" t="s">
+        <v>972</v>
+      </c>
+      <c r="E31" s="46" t="s">
         <v>973</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>974</v>
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -16064,10 +16045,10 @@
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="46" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -16081,10 +16062,10 @@
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="46" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
@@ -16098,10 +16079,10 @@
       </c>
       <c r="C34" s="44"/>
       <c r="D34" s="46" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
@@ -16115,10 +16096,10 @@
       </c>
       <c r="C35" s="44"/>
       <c r="D35" s="46" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E35" s="46" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
@@ -16178,563 +16159,563 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>1021</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>1022</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="D2" s="57" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>1023</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>1025</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>1026</v>
       </c>
-      <c r="C3" s="56" t="s">
-        <v>1027</v>
-      </c>
       <c r="D3" s="57" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B4" s="55" t="s">
         <v>1028</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>1029</v>
-      </c>
       <c r="C4" s="56" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E4" s="58" t="s">
         <v>1023</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>1031</v>
-      </c>
       <c r="C5" s="56" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B6" s="55" t="s">
         <v>1032</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>1033</v>
-      </c>
       <c r="C6" s="59" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E6" s="58" t="s">
         <v>1023</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B7" s="55" t="s">
         <v>1034</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>1035</v>
-      </c>
       <c r="C7" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>1036</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>1037</v>
-      </c>
       <c r="C8" s="56" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E8" s="58" t="s">
         <v>1023</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B9" s="55" t="s">
         <v>1038</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>1039</v>
-      </c>
       <c r="C9" s="56" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>1040</v>
       </c>
-      <c r="B10" s="55" t="s">
-        <v>1041</v>
-      </c>
       <c r="C10" s="56" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E10" s="58" t="s">
         <v>1023</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B11" s="55" t="s">
         <v>1042</v>
       </c>
-      <c r="B11" s="55" t="s">
-        <v>1043</v>
-      </c>
       <c r="C11" s="56" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E11" s="58" t="s">
         <v>1023</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B12" s="55" t="s">
         <v>1044</v>
       </c>
-      <c r="B12" s="55" t="s">
-        <v>1045</v>
-      </c>
       <c r="C12" s="56" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B13" s="55" t="s">
         <v>1046</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="C13" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E13" s="60" t="s">
         <v>1047</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B14" s="55" t="s">
         <v>1049</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>1050</v>
-      </c>
       <c r="C14" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B15" s="55" t="s">
         <v>1051</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="C15" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D15" s="57" t="s">
         <v>1052</v>
       </c>
-      <c r="C15" s="59" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>1053</v>
-      </c>
       <c r="E15" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>1054</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>1055</v>
-      </c>
       <c r="C16" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B17" s="55" t="s">
         <v>1056</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>1057</v>
-      </c>
       <c r="C17" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B18" s="55" t="s">
         <v>1058</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>1059</v>
-      </c>
       <c r="C18" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B19" s="61" t="s">
         <v>1060</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="C19" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D19" s="57" t="s">
         <v>1061</v>
       </c>
-      <c r="C19" s="59" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>1062</v>
-      </c>
       <c r="E19" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B20" s="55" t="s">
         <v>1063</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>1064</v>
-      </c>
       <c r="C20" s="56" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B21" s="62" t="s">
         <v>1065</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="C21" s="56" t="s">
         <v>1066</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="D21" s="57" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E21" s="58" t="s">
         <v>1067</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B22" s="63" t="s">
         <v>1069</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="C22" s="56" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D22" s="57" t="s">
         <v>1070</v>
       </c>
-      <c r="C22" s="56" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>1071</v>
-      </c>
       <c r="E22" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B23" s="55" t="s">
         <v>1072</v>
       </c>
-      <c r="B23" s="55" t="s">
-        <v>1073</v>
-      </c>
       <c r="C23" s="56" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B24" s="55" t="s">
         <v>1074</v>
       </c>
-      <c r="B24" s="55" t="s">
-        <v>1075</v>
-      </c>
       <c r="C24" s="56" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B25" s="55" t="s">
         <v>1076</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="C25" s="56" t="s">
         <v>1077</v>
       </c>
-      <c r="C25" s="56" t="s">
-        <v>1078</v>
-      </c>
       <c r="D25" s="57" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B26" s="64" t="s">
         <v>1079</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="C26" s="56" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D26" s="65" t="s">
         <v>1080</v>
       </c>
-      <c r="C26" s="56" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>1081</v>
-      </c>
       <c r="E26" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B27" s="64" t="s">
         <v>1082</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="C27" s="66" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D27" s="65" t="s">
         <v>1083</v>
       </c>
-      <c r="C27" s="66" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>1084</v>
-      </c>
       <c r="E27" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B28" s="64" t="s">
         <v>1085</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="C28" s="66" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D28" s="65" t="s">
         <v>1086</v>
       </c>
-      <c r="C28" s="66" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D28" s="65" t="s">
-        <v>1087</v>
-      </c>
       <c r="E28" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B29" s="64" t="s">
         <v>1088</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="C29" s="66" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D29" s="65" t="s">
         <v>1089</v>
       </c>
-      <c r="C29" s="66" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>1090</v>
-      </c>
       <c r="E29" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B30" s="64" t="s">
         <v>1091</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="C30" s="56" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D30" s="65" t="s">
         <v>1092</v>
       </c>
-      <c r="C30" s="56" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>1093</v>
-      </c>
       <c r="E30" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B31" s="64" t="s">
         <v>1094</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="C31" s="66" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D31" s="65" t="s">
         <v>1095</v>
       </c>
-      <c r="C31" s="66" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D31" s="65" t="s">
-        <v>1096</v>
-      </c>
       <c r="E31" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B32" s="55" t="s">
         <v>1097</v>
       </c>
-      <c r="B32" s="55" t="s">
-        <v>1098</v>
-      </c>
       <c r="C32" s="56" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D32" s="57" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B33" s="61" t="s">
         <v>1099</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="C33" s="59" t="s">
         <v>1100</v>
       </c>
-      <c r="C33" s="59" t="s">
-        <v>1101</v>
-      </c>
       <c r="D33" s="65" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E33" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B34" s="61" t="s">
         <v>1102</v>
       </c>
-      <c r="B34" s="61" t="s">
-        <v>1103</v>
-      </c>
       <c r="C34" s="59" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D34" s="57" t="s">
         <v>1101</v>
       </c>
-      <c r="D34" s="57" t="s">
-        <v>1102</v>
-      </c>
       <c r="E34" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -16795,274 +16776,274 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>1104</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>1105</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="57" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>1106</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>1107</v>
       </c>
-      <c r="C3" s="56" t="s">
-        <v>1108</v>
-      </c>
       <c r="D3" s="57" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B4" s="55" t="s">
         <v>1109</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>1110</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="57" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>1111</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>1112</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="57" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B6" s="55" t="s">
         <v>1113</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>1114</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="57" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B7" s="55" t="s">
         <v>1115</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>1116</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="57" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>1117</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>1118</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="57" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B9" s="55" t="s">
         <v>1119</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>1120</v>
       </c>
       <c r="C9" s="56"/>
       <c r="D9" s="57" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>1121</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>1122</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="57" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B11" s="55" t="s">
         <v>1123</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>1124</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="57" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B12" s="55" t="s">
         <v>1125</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>1126</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="57" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B13" s="55" t="s">
         <v>1127</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>1128</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="57" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B14" s="55" t="s">
         <v>1129</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>1130</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="57" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B15" s="55" t="s">
         <v>1131</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>1132</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="57" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>1133</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>1134</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="57" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B17" s="55" t="s">
         <v>1135</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>1136</v>
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="57" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B18" s="55" t="s">
         <v>1137</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>1138</v>
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="57" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B19" s="55" t="s">
         <v>1139</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>1140</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="57" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">DB_PARAMS!$A$1:$E$3</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">INDICATORS!$A$1:$E$24</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MAIN_PARAMS!$A$1:$C$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">NODES!$A$1:$S$81</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">NODES!$A$1:$S$103</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">PROCESSES!$A$1:$G$252</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">PROCESSES_2!$A$1:$G$2</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">PROCESSES_3!$A$1:$G$2</definedName>
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="1155">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -1482,7 +1482,7 @@
     <t xml:space="preserve">bec_ghg</t>
   </si>
   <si>
-    <t xml:space="preserve">Biomass Capture</t>
+    <t xml:space="preserve">Biomass</t>
   </si>
   <si>
     <t xml:space="preserve">blg_ghg</t>
@@ -1524,10 +1524,16 @@
     <t xml:space="preserve">export gas emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">oth_ghg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other country emissions</t>
+    <t xml:space="preserve">hth_ghg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imported methanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eth_ghg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exported Methanol</t>
   </si>
   <si>
     <t xml:space="preserve">Domestic production of uranium</t>
@@ -1560,12 +1566,6 @@
     <t xml:space="preserve">prodomboi</t>
   </si>
   <si>
-    <t xml:space="preserve">Domestic production of liquid biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prodomblq</t>
-  </si>
-  <si>
     <t xml:space="preserve">Domestivc production of biogas</t>
   </si>
   <si>
@@ -1578,6 +1578,15 @@
     <t xml:space="preserve">prodombgr</t>
   </si>
   <si>
+    <t xml:space="preserve">cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomethane injected directly into the gas network CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prodombgrcc</t>
+  </si>
+  <si>
     <t xml:space="preserve">btl</t>
   </si>
   <si>
@@ -2118,7 +2127,10 @@
     <t xml:space="preserve">Gas network</t>
   </si>
   <si>
-    <t xml:space="preserve">prbrchgazz</t>
+    <t xml:space="preserve"> Gas-fired boilers losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchgazzloss</t>
   </si>
   <si>
     <t xml:space="preserve">Heat energy output from oil-fired boilers</t>
@@ -2868,7 +2880,10 @@
     <t xml:space="preserve">presenccfneind</t>
   </si>
   <si>
-    <t xml:space="preserve">cmscfens</t>
+    <t xml:space="preserve">coal for industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmscfind</t>
   </si>
   <si>
     <t xml:space="preserve">enccfens</t>
@@ -3087,6 +3102,12 @@
     <t xml:space="preserve">probiosng</t>
   </si>
   <si>
+    <t xml:space="preserve">BioSNG losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probiosngloss</t>
+  </si>
+  <si>
     <t xml:space="preserve">oil exports</t>
   </si>
   <si>
@@ -3108,12 +3129,12 @@
     <t xml:space="preserve">Heat requirement DAC</t>
   </si>
   <si>
-    <t xml:space="preserve">predache</t>
-  </si>
-  <si>
     <t xml:space="preserve">predachee</t>
   </si>
   <si>
+    <t xml:space="preserve">precoalpf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Process emissions from industry</t>
   </si>
   <si>
@@ -3387,6 +3408,18 @@
     <t xml:space="preserve">emmbiogasat</t>
   </si>
   <si>
+    <t xml:space="preserve">biogas to gas CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmbiogasccc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmbiogascc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmbiogasatcc</t>
+  </si>
+  <si>
     <t xml:space="preserve">urban central gas chp</t>
   </si>
   <si>
@@ -3417,6 +3450,9 @@
     <t xml:space="preserve">emmbmsng</t>
   </si>
   <si>
+    <t xml:space="preserve">emmbmsngatm</t>
+  </si>
+  <si>
     <t xml:space="preserve">solid biomass to gas CC</t>
   </si>
   <si>
@@ -3459,6 +3495,15 @@
     <t xml:space="preserve">emmgaschpatmcc</t>
   </si>
   <si>
+    <t xml:space="preserve">emmmetexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imported Methanol Emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmmetimp</t>
+  </si>
+  <si>
     <t xml:space="preserve">OCGT emissions</t>
   </si>
   <si>
@@ -3481,6 +3526,9 @@
   </si>
   <si>
     <t xml:space="preserve">wati_ghg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biogas to gas cc</t>
   </si>
   <si>
     <t xml:space="preserve">Biomass CHP CC</t>
@@ -4634,11 +4682,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4766,6 +4814,13 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF008556"/>
         </patternFill>
       </fill>
@@ -4886,13 +4941,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFA7D00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5107,7 +5155,7 @@
       <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.91"/>
@@ -5717,7 +5765,7 @@
       <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.28"/>
@@ -5847,7 +5895,7 @@
       <c r="B11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="7" t="b">
+      <c r="C11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5859,7 +5907,7 @@
       <c r="B12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="7" t="b">
+      <c r="C12" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5897,15 +5945,15 @@
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D42" activeCellId="0" sqref="D42"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.36"/>
@@ -6062,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="11" t="n">
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="T5" s="0" t="s">
         <v>122</v>
@@ -6086,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="11" t="n">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
       <c r="T6" s="0" t="s">
         <v>122</v>
@@ -6110,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="11" t="n">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="T7" s="0" t="s">
         <v>122</v>
@@ -6134,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="T8" s="0" t="s">
         <v>132</v>
@@ -6158,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="T9" s="0" t="s">
         <v>136</v>
@@ -6205,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="11" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="T11" s="0" t="s">
         <v>132</v>
@@ -6229,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="11" t="n">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="T12" s="0" t="s">
         <v>145</v>
@@ -8377,12 +8425,26 @@
         <v>365</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>128</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:S81"/>
+  <autoFilter ref="A1:S103"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8402,13 +8464,13 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E286" activeCellId="0" sqref="E286"/>
+      <selection pane="bottomLeft" activeCell="A160" activeCellId="0" sqref="A160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -8453,10 +8515,10 @@
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -8472,10 +8534,10 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -8491,10 +8553,10 @@
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -8510,10 +8572,10 @@
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -8529,65 +8591,65 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="str">
-        <f aca="false">NODES!$A$52</f>
-        <v>prod</v>
-      </c>
-      <c r="B7" s="26" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A7" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>237</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>237</v>
+      <c r="A8" s="26" t="str">
+        <f aca="false">NODES!$A$47</f>
+        <v>bgl_pe</v>
+      </c>
+      <c r="B8" s="26" t="str">
+        <f aca="false">NODES!$A$28</f>
+        <v>gaz_se</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="str">
-        <f aca="false">NODES!$A$47</f>
-        <v>bgl_pe</v>
-      </c>
-      <c r="B9" s="26" t="str">
-        <f aca="false">NODES!$A$28</f>
-        <v>gaz_se</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>381</v>
+      <c r="A9" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>384</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
@@ -8602,16 +8664,16 @@
         <v>lqf_se</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G10" s="42"/>
     </row>
@@ -8625,10 +8687,10 @@
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="42" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
@@ -8642,10 +8704,10 @@
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
@@ -8660,10 +8722,10 @@
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
@@ -8678,10 +8740,10 @@
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="42" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
@@ -8696,10 +8758,10 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
@@ -8714,10 +8776,10 @@
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
@@ -8732,10 +8794,10 @@
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -8750,10 +8812,10 @@
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="42" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -8768,10 +8830,10 @@
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="42" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
@@ -8786,10 +8848,10 @@
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="42" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
@@ -8804,16 +8866,16 @@
         <v>elc_se</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G21" s="42"/>
     </row>
@@ -8826,10 +8888,10 @@
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="42" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
@@ -8844,16 +8906,16 @@
         <v>elc_se</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G23" s="42"/>
     </row>
@@ -8866,16 +8928,16 @@
         <v>elc_se</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G24" s="42"/>
     </row>
@@ -8889,16 +8951,16 @@
         <v>elc_se</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G25" s="42"/>
     </row>
@@ -8912,16 +8974,16 @@
         <v>elc_se</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G26" s="42"/>
     </row>
@@ -8934,10 +8996,10 @@
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="42" t="s">
-        <v>420</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>421</v>
+        <v>423</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>424</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -8951,10 +9013,10 @@
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="42" t="s">
-        <v>422</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>423</v>
+        <v>425</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>426</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -8969,16 +9031,16 @@
         <v>elc_se</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G29" s="42"/>
     </row>
@@ -8992,16 +9054,16 @@
         <v>elc_se</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G30" s="42"/>
     </row>
@@ -9023,7 +9085,7 @@
         <v>Waste-fired power generation</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -9046,7 +9108,7 @@
         <v>Waste-fired power generation</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -9061,16 +9123,16 @@
         <v>elc_se</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G33" s="42"/>
     </row>
@@ -9084,16 +9146,16 @@
         <v>elc_se</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G34" s="42"/>
     </row>
@@ -9107,16 +9169,16 @@
         <v>elc_se</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G35" s="42"/>
     </row>
@@ -9130,16 +9192,16 @@
         <v>elc_se</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G36" s="42"/>
     </row>
@@ -9151,13 +9213,13 @@
         <v>186</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -9172,16 +9234,16 @@
         <v>elc_se</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="G38" s="42"/>
     </row>
@@ -9195,16 +9257,16 @@
         <v>elc_se</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G39" s="42"/>
     </row>
@@ -9217,10 +9279,10 @@
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="42" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
@@ -9235,16 +9297,16 @@
         <v>elc_se</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G41" s="42"/>
     </row>
@@ -9266,7 +9328,7 @@
         <v>Power output from waste-to-energy CHP plants</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
@@ -9289,7 +9351,7 @@
         <v>Power output from waste-to-energy CHP plants</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
@@ -9304,16 +9366,16 @@
         <v>elc_se</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G44" s="42"/>
     </row>
@@ -9327,16 +9389,16 @@
         <v>elc_se</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G45" s="42"/>
     </row>
@@ -9350,16 +9412,16 @@
         <v>hyd_se</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G46" s="42"/>
     </row>
@@ -9372,10 +9434,10 @@
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="42" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
@@ -9389,10 +9451,10 @@
       </c>
       <c r="C48" s="42"/>
       <c r="D48" s="42" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
@@ -9406,10 +9468,10 @@
       </c>
       <c r="C49" s="42"/>
       <c r="D49" s="42" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
@@ -9423,13 +9485,13 @@
       </c>
       <c r="C50" s="42"/>
       <c r="D50" s="42" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G50" s="42"/>
     </row>
@@ -9441,11 +9503,11 @@
         <v>184</v>
       </c>
       <c r="C51" s="42"/>
-      <c r="D51" s="44" t="s">
-        <v>479</v>
+      <c r="D51" s="43" t="s">
+        <v>482</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -9460,16 +9522,16 @@
         <v>hyd_se</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G52" s="42"/>
     </row>
@@ -9483,16 +9545,16 @@
         <v>hyd_se</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G53" s="42"/>
     </row>
@@ -9504,11 +9566,11 @@
         <v>154</v>
       </c>
       <c r="C54" s="42"/>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="44" t="s">
         <v>354</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
@@ -9521,11 +9583,11 @@
         <v>271</v>
       </c>
       <c r="C55" s="42"/>
-      <c r="D55" s="43" t="s">
-        <v>488</v>
-      </c>
-      <c r="E55" s="43" t="s">
-        <v>489</v>
+      <c r="D55" s="44" t="s">
+        <v>491</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>492</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
@@ -9538,11 +9600,11 @@
         <v>197</v>
       </c>
       <c r="C56" s="42"/>
-      <c r="D56" s="43" t="s">
-        <v>490</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>491</v>
+      <c r="D56" s="44" t="s">
+        <v>493</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>494</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
@@ -9555,11 +9617,11 @@
         <v>271</v>
       </c>
       <c r="C57" s="42"/>
-      <c r="D57" s="43" t="s">
-        <v>492</v>
-      </c>
-      <c r="E57" s="43" t="s">
-        <v>493</v>
+      <c r="D57" s="44" t="s">
+        <v>495</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>496</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
@@ -9572,11 +9634,11 @@
         <v>186</v>
       </c>
       <c r="C58" s="42"/>
-      <c r="D58" s="43" t="s">
-        <v>494</v>
-      </c>
-      <c r="E58" s="43" t="s">
-        <v>495</v>
+      <c r="D58" s="44" t="s">
+        <v>497</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>498</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
@@ -9589,11 +9651,11 @@
         <v>271</v>
       </c>
       <c r="C59" s="42"/>
-      <c r="D59" s="43" t="s">
-        <v>496</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>497</v>
+      <c r="D59" s="44" t="s">
+        <v>499</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>500</v>
       </c>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
@@ -9606,11 +9668,11 @@
         <v>154</v>
       </c>
       <c r="C60" s="42"/>
-      <c r="D60" s="43" t="s">
-        <v>498</v>
-      </c>
-      <c r="E60" s="43" t="s">
-        <v>499</v>
+      <c r="D60" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>502</v>
       </c>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
@@ -9623,11 +9685,11 @@
         <v>194</v>
       </c>
       <c r="C61" s="42"/>
-      <c r="D61" s="43" t="s">
-        <v>500</v>
-      </c>
-      <c r="E61" s="43" t="s">
-        <v>501</v>
+      <c r="D61" s="44" t="s">
+        <v>503</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>504</v>
       </c>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -9640,11 +9702,11 @@
         <v>271</v>
       </c>
       <c r="C62" s="42"/>
-      <c r="D62" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="E62" s="43" t="s">
-        <v>503</v>
+      <c r="D62" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>506</v>
       </c>
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
@@ -9659,19 +9721,19 @@
         <v>vap_se</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9684,19 +9746,19 @@
         <v>vap_se</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F64" s="42" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9709,19 +9771,19 @@
         <v>vap_se</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F65" s="42" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9732,13 +9794,13 @@
         <v>194</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>435</v>
-      </c>
-      <c r="D66" s="44" t="s">
-        <v>516</v>
+        <v>438</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>519</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
@@ -9753,19 +9815,19 @@
         <v>vap_se</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F67" s="42" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9778,19 +9840,19 @@
         <v>vap_se</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9802,10 +9864,10 @@
       </c>
       <c r="C69" s="42"/>
       <c r="D69" s="42" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
@@ -9820,19 +9882,19 @@
         <v>vap_se</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F70" s="42" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G70" s="42" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9853,7 +9915,7 @@
         <v>Heat energy output from waste-to-energy CHP plants</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F71" s="42"/>
       <c r="G71" s="42"/>
@@ -9876,7 +9938,7 @@
         <v>Heat energy output from waste-to-energy CHP plants</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F72" s="42"/>
       <c r="G72" s="42"/>
@@ -9891,19 +9953,19 @@
         <v>vap_se</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G73" s="42" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9916,19 +9978,19 @@
         <v>vap_se</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F74" s="42" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G74" s="42" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9941,17 +10003,17 @@
         <v>vap_se</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F75" s="42"/>
       <c r="G75" s="42" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9964,19 +10026,19 @@
         <v>vap_se</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F76" s="42" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9997,7 +10059,7 @@
         <v>Heat energy output from household waste incineration</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
@@ -10020,7 +10082,7 @@
         <v>Heat energy output from household waste incineration</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
@@ -10035,17 +10097,17 @@
         <v>vap_se</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F79" s="42"/>
       <c r="G79" s="42" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10058,16 +10120,16 @@
         <v>vap_se</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F80" s="42" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G80" s="42" t="s">
         <v>171</v>
@@ -10084,16 +10146,16 @@
       </c>
       <c r="C81" s="42"/>
       <c r="D81" s="42" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F81" s="42" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G81" s="42" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10101,22 +10163,21 @@
         <f aca="false">NODES!$A$28</f>
         <v>gaz_se</v>
       </c>
-      <c r="B82" s="26" t="str">
-        <f aca="false">NODES!$A$29</f>
-        <v>vap_se</v>
+      <c r="B82" s="26" t="s">
+        <v>271</v>
       </c>
       <c r="C82" s="42"/>
       <c r="D82" s="42" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="F82" s="42" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G82" s="42" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10129,19 +10190,19 @@
         <v>vap_se</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10153,10 +10214,10 @@
       </c>
       <c r="C84" s="42"/>
       <c r="D84" s="42" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
@@ -10170,10 +10231,10 @@
       </c>
       <c r="C85" s="42"/>
       <c r="D85" s="42" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F85" s="42"/>
       <c r="G85" s="42"/>
@@ -10187,10 +10248,10 @@
       </c>
       <c r="C86" s="42"/>
       <c r="D86" s="42" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F86" s="42"/>
       <c r="G86" s="42"/>
@@ -10205,16 +10266,16 @@
         <v>vap_se</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F87" s="42" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="G87" s="42" t="s">
         <v>168</v>
@@ -10230,17 +10291,17 @@
         <v>vap_se</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F88" s="42"/>
       <c r="G88" s="42" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10253,19 +10314,19 @@
         <v>vap_se</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F89" s="42" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G89" s="42" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10277,19 +10338,19 @@
         <v>vap_se</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F90" s="42" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10300,11 +10361,11 @@
         <v>194</v>
       </c>
       <c r="C91" s="42"/>
-      <c r="D91" s="44" t="s">
-        <v>583</v>
+      <c r="D91" s="43" t="s">
+        <v>587</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F91" s="42"/>
       <c r="G91" s="42"/>
@@ -10317,11 +10378,11 @@
         <v>194</v>
       </c>
       <c r="C92" s="42"/>
-      <c r="D92" s="44" t="s">
-        <v>583</v>
+      <c r="D92" s="43" t="s">
+        <v>587</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F92" s="42"/>
       <c r="G92" s="42"/>
@@ -10334,11 +10395,11 @@
         <v>194</v>
       </c>
       <c r="C93" s="42"/>
-      <c r="D93" s="44" t="s">
-        <v>583</v>
+      <c r="D93" s="43" t="s">
+        <v>587</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F93" s="42"/>
       <c r="G93" s="42"/>
@@ -10353,16 +10414,16 @@
         <v>vap_se</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D94" s="42" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F94" s="42" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="G94" s="42" t="s">
         <v>161</v>
@@ -10382,10 +10443,10 @@
         <v>thm</v>
       </c>
       <c r="D95" s="42" t="s">
-        <v>590</v>
-      </c>
-      <c r="E95" s="44" t="s">
-        <v>591</v>
+        <v>594</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>595</v>
       </c>
       <c r="F95" s="42"/>
       <c r="G95" s="42"/>
@@ -10404,10 +10465,10 @@
         <v>thm</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F96" s="42"/>
       <c r="G96" s="42"/>
@@ -10426,10 +10487,10 @@
         <v>thm</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="F97" s="42"/>
       <c r="G97" s="42"/>
@@ -10448,10 +10509,10 @@
         <v>thm</v>
       </c>
       <c r="D98" s="42" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F98" s="42"/>
       <c r="G98" s="42"/>
@@ -10467,10 +10528,10 @@
       </c>
       <c r="C99" s="26"/>
       <c r="D99" s="42" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F99" s="42"/>
       <c r="G99" s="42"/>
@@ -10489,10 +10550,10 @@
         <v>thm</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F100" s="42"/>
       <c r="G100" s="42"/>
@@ -10511,10 +10572,10 @@
         <v>thm</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F101" s="42"/>
       <c r="G101" s="42"/>
@@ -10537,7 +10598,7 @@
         <v>Transformation losses (waste-fired powerplants)</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F102" s="42"/>
       <c r="G102" s="42"/>
@@ -10560,7 +10621,7 @@
         <v>Transformation losses (waste-fired powerplants)</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F103" s="42"/>
       <c r="G103" s="42"/>
@@ -10579,10 +10640,10 @@
         <v>thm</v>
       </c>
       <c r="D104" s="42" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="E104" s="42" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F104" s="42"/>
       <c r="G104" s="42"/>
@@ -10601,10 +10662,10 @@
         <v>chp</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F105" s="42"/>
       <c r="G105" s="42"/>
@@ -10623,10 +10684,10 @@
         <v>chp</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E106" s="42" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="F106" s="42"/>
       <c r="G106" s="42"/>
@@ -10642,10 +10703,10 @@
       </c>
       <c r="C107" s="26"/>
       <c r="D107" s="42" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E107" s="42" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F107" s="42"/>
       <c r="G107" s="42"/>
@@ -10661,10 +10722,10 @@
       </c>
       <c r="C108" s="26"/>
       <c r="D108" s="42" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F108" s="42"/>
       <c r="G108" s="42"/>
@@ -10680,10 +10741,10 @@
       </c>
       <c r="C109" s="26"/>
       <c r="D109" s="42" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F109" s="42"/>
       <c r="G109" s="42"/>
@@ -10702,10 +10763,10 @@
         <v>chp</v>
       </c>
       <c r="D110" s="42" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F110" s="42"/>
       <c r="G110" s="42"/>
@@ -10719,10 +10780,10 @@
       </c>
       <c r="C111" s="26"/>
       <c r="D111" s="42" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="E111" s="42" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F111" s="42"/>
       <c r="G111" s="42"/>
@@ -10741,10 +10802,10 @@
         <v>chp</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E112" s="42" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="F112" s="42"/>
       <c r="G112" s="42"/>
@@ -10767,7 +10828,7 @@
         <v>Transformation losses (waste-to-energy CHP plants)</v>
       </c>
       <c r="E113" s="42" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F113" s="42"/>
       <c r="G113" s="42"/>
@@ -10790,7 +10851,7 @@
         <v>Transformation losses (waste-to-energy CHP plants)</v>
       </c>
       <c r="E114" s="42" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F114" s="42"/>
       <c r="G114" s="42"/>
@@ -10809,10 +10870,10 @@
         <v>chp</v>
       </c>
       <c r="D115" s="42" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E115" s="42" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F115" s="42"/>
       <c r="G115" s="42"/>
@@ -10826,10 +10887,10 @@
       </c>
       <c r="C116" s="26"/>
       <c r="D116" s="42" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="F116" s="42"/>
       <c r="G116" s="42"/>
@@ -10848,10 +10909,10 @@
         <v>chp</v>
       </c>
       <c r="D117" s="42" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F117" s="42"/>
       <c r="G117" s="42"/>
@@ -10870,10 +10931,10 @@
         <v>els</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="E118" s="42" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F118" s="42"/>
       <c r="G118" s="42"/>
@@ -10892,10 +10953,10 @@
         <v>smr</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E119" s="42" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="F119" s="42"/>
       <c r="G119" s="42"/>
@@ -10914,10 +10975,10 @@
         <v>smr</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E120" s="42" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="F120" s="42"/>
       <c r="G120" s="42"/>
@@ -10936,10 +10997,10 @@
         <v>rch</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E121" s="42" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F121" s="42"/>
       <c r="G121" s="42"/>
@@ -10958,10 +11019,10 @@
         <v>rch</v>
       </c>
       <c r="D122" s="42" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="E122" s="42" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F122" s="42"/>
       <c r="G122" s="42"/>
@@ -10984,7 +11045,7 @@
         <v>Transformation losses (household waste incineration)</v>
       </c>
       <c r="E123" s="42" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="F123" s="42"/>
       <c r="G123" s="42"/>
@@ -11007,7 +11068,7 @@
         <v>Transformation losses (household waste incineration)</v>
       </c>
       <c r="E124" s="42" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F124" s="42"/>
       <c r="G124" s="42"/>
@@ -11026,10 +11087,10 @@
         <v>rch</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="E125" s="42" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F125" s="42"/>
       <c r="G125" s="42"/>
@@ -11048,10 +11109,10 @@
         <v>rch</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E126" s="42" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F126" s="42"/>
       <c r="G126" s="42"/>
@@ -11069,10 +11130,10 @@
         <v>0</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="E127" s="42" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F127" s="42"/>
       <c r="G127" s="42"/>
@@ -11090,10 +11151,10 @@
         <v>rch</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="E128" s="42" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F128" s="42"/>
       <c r="G128" s="42"/>
@@ -11107,21 +11168,20 @@
         <v>per</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E129" s="42" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F129" s="42"/>
       <c r="G129" s="42"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="26" t="str">
-        <f aca="false">A81</f>
-        <v>gaz_se</v>
+      <c r="A130" s="26" t="s">
+        <v>191</v>
       </c>
       <c r="B130" s="26" t="str">
         <f aca="false">NODES!$A$59</f>
@@ -11129,10 +11189,10 @@
       </c>
       <c r="C130" s="26"/>
       <c r="D130" s="42" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E130" s="42" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F130" s="42"/>
       <c r="G130" s="42"/>
@@ -11147,10 +11207,10 @@
       </c>
       <c r="C131" s="26"/>
       <c r="D131" s="42" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="E131" s="42" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F131" s="42"/>
       <c r="G131" s="42"/>
@@ -11165,10 +11225,10 @@
       </c>
       <c r="C132" s="26"/>
       <c r="D132" s="42" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="E132" s="42" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F132" s="42"/>
       <c r="G132" s="42"/>
@@ -11183,18 +11243,17 @@
       </c>
       <c r="C133" s="26"/>
       <c r="D133" s="42" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E133" s="42" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F133" s="42"/>
       <c r="G133" s="42"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="26" t="str">
-        <f aca="false">NODES!$A$40</f>
-        <v>pet_pe</v>
+      <c r="A134" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="B134" s="26" t="str">
         <f aca="false">NODES!$A$59</f>
@@ -11205,73 +11264,70 @@
         <v>rch</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="E134" s="42" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F134" s="42"/>
       <c r="G134" s="42"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="26" t="str">
-        <f aca="false">NODES!$A$40</f>
-        <v>pet_pe</v>
+      <c r="A135" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="B135" s="26" t="str">
         <f aca="false">NODES!$A$59</f>
         <v>per</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D135" s="42" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="E135" s="42" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F135" s="42"/>
       <c r="G135" s="42"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="26" t="str">
-        <f aca="false">NODES!$A$40</f>
-        <v>pet_pe</v>
+      <c r="A136" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="B136" s="26" t="str">
         <f aca="false">NODES!$A$59</f>
         <v>per</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D136" s="42" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="E136" s="42" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F136" s="42"/>
       <c r="G136" s="42"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="26" t="str">
-        <f aca="false">NODES!$A$40</f>
-        <v>pet_pe</v>
+      <c r="A137" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="B137" s="26" t="str">
         <f aca="false">NODES!$A$59</f>
         <v>per</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D137" s="42" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="E137" s="42" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="F137" s="42"/>
       <c r="G137" s="42"/>
@@ -11290,10 +11346,10 @@
         <v>rch</v>
       </c>
       <c r="D138" s="42" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="E138" s="42" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F138" s="42"/>
       <c r="G138" s="42"/>
@@ -11312,10 +11368,10 @@
         <v>rch</v>
       </c>
       <c r="D139" s="42" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="E139" s="42" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="F139" s="42"/>
       <c r="G139" s="42"/>
@@ -11334,10 +11390,10 @@
         <v>rch</v>
       </c>
       <c r="D140" s="42" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E140" s="42" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F140" s="42"/>
       <c r="G140" s="42"/>
@@ -11356,10 +11412,10 @@
         <v>rch</v>
       </c>
       <c r="D141" s="42" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E141" s="42" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F141" s="42"/>
       <c r="G141" s="42"/>
@@ -11375,10 +11431,10 @@
       </c>
       <c r="C142" s="42"/>
       <c r="D142" s="42" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E142" s="42" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F142" s="42"/>
       <c r="G142" s="42"/>
@@ -11394,10 +11450,10 @@
       </c>
       <c r="C143" s="42"/>
       <c r="D143" s="42" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="E143" s="42" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F143" s="42"/>
       <c r="G143" s="42"/>
@@ -11413,10 +11469,10 @@
       </c>
       <c r="C144" s="42"/>
       <c r="D144" s="42" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="E144" s="42" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F144" s="42"/>
       <c r="G144" s="42"/>
@@ -11432,10 +11488,10 @@
       </c>
       <c r="C145" s="42"/>
       <c r="D145" s="42" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F145" s="42"/>
       <c r="G145" s="42"/>
@@ -11451,10 +11507,10 @@
       </c>
       <c r="C146" s="42"/>
       <c r="D146" s="42" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E146" s="42" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="F146" s="42"/>
       <c r="G146" s="42"/>
@@ -11470,10 +11526,10 @@
       </c>
       <c r="C147" s="42"/>
       <c r="D147" s="42" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E147" s="42" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F147" s="42"/>
       <c r="G147" s="42"/>
@@ -11489,10 +11545,10 @@
       </c>
       <c r="C148" s="42"/>
       <c r="D148" s="42" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F148" s="42"/>
       <c r="G148" s="42"/>
@@ -11508,10 +11564,10 @@
       </c>
       <c r="C149" s="42"/>
       <c r="D149" s="42" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E149" s="42" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F149" s="42"/>
       <c r="G149" s="42"/>
@@ -11527,10 +11583,10 @@
       </c>
       <c r="C150" s="42"/>
       <c r="D150" s="42" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E150" s="42" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F150" s="42"/>
       <c r="G150" s="42"/>
@@ -11546,10 +11602,10 @@
       </c>
       <c r="C151" s="42"/>
       <c r="D151" s="42" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E151" s="42" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="F151" s="42"/>
       <c r="G151" s="42"/>
@@ -11565,10 +11621,10 @@
       </c>
       <c r="C152" s="42"/>
       <c r="D152" s="42" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E152" s="42" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F152" s="42"/>
       <c r="G152" s="42"/>
@@ -11584,10 +11640,10 @@
       </c>
       <c r="C153" s="42"/>
       <c r="D153" s="42" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E153" s="42" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F153" s="42"/>
       <c r="G153" s="42"/>
@@ -11603,10 +11659,10 @@
       </c>
       <c r="C154" s="42"/>
       <c r="D154" s="42" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E154" s="42" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F154" s="42"/>
       <c r="G154" s="42"/>
@@ -11622,10 +11678,10 @@
       </c>
       <c r="C155" s="42"/>
       <c r="D155" s="42" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="E155" s="42" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F155" s="42"/>
       <c r="G155" s="42"/>
@@ -11641,10 +11697,10 @@
       </c>
       <c r="C156" s="42"/>
       <c r="D156" s="42" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="E156" s="42" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F156" s="42"/>
       <c r="G156" s="42"/>
@@ -11659,10 +11715,10 @@
       </c>
       <c r="C157" s="26"/>
       <c r="D157" s="42" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="E157" s="42" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F157" s="42"/>
       <c r="G157" s="42"/>
@@ -11681,10 +11737,10 @@
         <v>btl</v>
       </c>
       <c r="D158" s="42" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="E158" s="42" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="F158" s="42"/>
       <c r="G158" s="42"/>
@@ -11698,10 +11754,10 @@
       </c>
       <c r="C159" s="26"/>
       <c r="D159" s="42" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="E159" s="42" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="F159" s="42"/>
       <c r="G159" s="42"/>
@@ -11715,10 +11771,10 @@
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="42" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="E160" s="42" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="F160" s="42"/>
       <c r="G160" s="42"/>
@@ -11735,7 +11791,7 @@
       <c r="C161" s="42"/>
       <c r="D161" s="42"/>
       <c r="E161" s="42" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="F161" s="42"/>
       <c r="G161" s="42"/>
@@ -11749,10 +11805,10 @@
       </c>
       <c r="C162" s="42"/>
       <c r="D162" s="42" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="E162" s="42" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F162" s="42"/>
       <c r="G162" s="42"/>
@@ -11766,10 +11822,10 @@
       </c>
       <c r="C163" s="42"/>
       <c r="D163" s="42" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="E163" s="42" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F163" s="42"/>
       <c r="G163" s="42"/>
@@ -11783,10 +11839,10 @@
       </c>
       <c r="C164" s="42"/>
       <c r="D164" s="42" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="E164" s="42" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F164" s="42"/>
       <c r="G164" s="42"/>
@@ -11800,10 +11856,10 @@
       </c>
       <c r="C165" s="42"/>
       <c r="D165" s="42" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="E165" s="42" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F165" s="42"/>
       <c r="G165" s="42"/>
@@ -11816,11 +11872,11 @@
         <v>110</v>
       </c>
       <c r="C166" s="42"/>
-      <c r="D166" s="44" t="s">
-        <v>713</v>
+      <c r="D166" s="43" t="s">
+        <v>717</v>
       </c>
       <c r="E166" s="42" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="F166" s="42"/>
       <c r="G166" s="42"/>
@@ -11833,11 +11889,11 @@
         <v>110</v>
       </c>
       <c r="C167" s="42"/>
-      <c r="D167" s="44" t="s">
-        <v>713</v>
+      <c r="D167" s="43" t="s">
+        <v>717</v>
       </c>
       <c r="E167" s="42" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="F167" s="42"/>
       <c r="G167" s="42"/>
@@ -11850,11 +11906,11 @@
         <v>110</v>
       </c>
       <c r="C168" s="42"/>
-      <c r="D168" s="44" t="s">
-        <v>713</v>
+      <c r="D168" s="43" t="s">
+        <v>717</v>
       </c>
       <c r="E168" s="42" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="F168" s="42"/>
       <c r="G168" s="42"/>
@@ -11867,11 +11923,11 @@
         <v>110</v>
       </c>
       <c r="C169" s="42"/>
-      <c r="D169" s="44" t="s">
-        <v>713</v>
+      <c r="D169" s="43" t="s">
+        <v>717</v>
       </c>
       <c r="E169" s="42" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="F169" s="42"/>
       <c r="G169" s="42"/>
@@ -11884,11 +11940,11 @@
         <v>110</v>
       </c>
       <c r="C170" s="42"/>
-      <c r="D170" s="44" t="s">
-        <v>718</v>
+      <c r="D170" s="43" t="s">
+        <v>722</v>
       </c>
       <c r="E170" s="42" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="F170" s="42"/>
       <c r="G170" s="42"/>
@@ -11901,11 +11957,11 @@
         <v>110</v>
       </c>
       <c r="C171" s="42"/>
-      <c r="D171" s="44" t="s">
-        <v>718</v>
+      <c r="D171" s="43" t="s">
+        <v>722</v>
       </c>
       <c r="E171" s="42" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="F171" s="42"/>
       <c r="G171" s="42"/>
@@ -11918,11 +11974,11 @@
         <v>110</v>
       </c>
       <c r="C172" s="42"/>
-      <c r="D172" s="44" t="s">
-        <v>718</v>
+      <c r="D172" s="43" t="s">
+        <v>722</v>
       </c>
       <c r="E172" s="42" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F172" s="42"/>
       <c r="G172" s="42"/>
@@ -11935,11 +11991,11 @@
         <v>110</v>
       </c>
       <c r="C173" s="42"/>
-      <c r="D173" s="44" t="s">
-        <v>718</v>
+      <c r="D173" s="43" t="s">
+        <v>722</v>
       </c>
       <c r="E173" s="42" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="F173" s="42"/>
       <c r="G173" s="42"/>
@@ -11955,10 +12011,10 @@
       </c>
       <c r="C174" s="42"/>
       <c r="D174" s="42" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="E174" s="42" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="F174" s="42"/>
       <c r="G174" s="42"/>
@@ -11972,10 +12028,10 @@
       </c>
       <c r="C175" s="42"/>
       <c r="D175" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E175" s="42" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="F175" s="42"/>
       <c r="G175" s="42"/>
@@ -11989,10 +12045,10 @@
       </c>
       <c r="C176" s="42"/>
       <c r="D176" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E176" s="42" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="F176" s="42"/>
       <c r="G176" s="42"/>
@@ -12006,10 +12062,10 @@
       </c>
       <c r="C177" s="42"/>
       <c r="D177" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E177" s="42" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="F177" s="42"/>
       <c r="G177" s="42"/>
@@ -12023,10 +12079,10 @@
       </c>
       <c r="C178" s="42"/>
       <c r="D178" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E178" s="42" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="F178" s="42"/>
       <c r="G178" s="42"/>
@@ -12040,10 +12096,10 @@
       </c>
       <c r="C179" s="42"/>
       <c r="D179" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E179" s="42" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="F179" s="42"/>
       <c r="G179" s="42"/>
@@ -12057,10 +12113,10 @@
       </c>
       <c r="C180" s="42"/>
       <c r="D180" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E180" s="42" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="F180" s="42"/>
       <c r="G180" s="42"/>
@@ -12074,10 +12130,10 @@
       </c>
       <c r="C181" s="42"/>
       <c r="D181" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E181" s="42" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="F181" s="42"/>
       <c r="G181" s="42"/>
@@ -12091,10 +12147,10 @@
       </c>
       <c r="C182" s="42"/>
       <c r="D182" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E182" s="42" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="F182" s="42"/>
       <c r="G182" s="42"/>
@@ -12108,10 +12164,10 @@
       </c>
       <c r="C183" s="42"/>
       <c r="D183" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E183" s="42" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="F183" s="42"/>
       <c r="G183" s="42"/>
@@ -12125,10 +12181,10 @@
       </c>
       <c r="C184" s="42"/>
       <c r="D184" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E184" s="42" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="F184" s="42"/>
       <c r="G184" s="42"/>
@@ -12142,10 +12198,10 @@
       </c>
       <c r="C185" s="42"/>
       <c r="D185" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E185" s="42" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="F185" s="42"/>
       <c r="G185" s="42"/>
@@ -12159,10 +12215,10 @@
       </c>
       <c r="C186" s="42"/>
       <c r="D186" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E186" s="42" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="F186" s="42"/>
       <c r="G186" s="42"/>
@@ -12176,10 +12232,10 @@
       </c>
       <c r="C187" s="42"/>
       <c r="D187" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E187" s="42" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="F187" s="42"/>
       <c r="G187" s="42"/>
@@ -12193,10 +12249,10 @@
       </c>
       <c r="C188" s="42"/>
       <c r="D188" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E188" s="42" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="F188" s="42"/>
       <c r="G188" s="42"/>
@@ -12210,10 +12266,10 @@
       </c>
       <c r="C189" s="42"/>
       <c r="D189" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E189" s="42" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="F189" s="42"/>
       <c r="G189" s="42"/>
@@ -12227,10 +12283,10 @@
       </c>
       <c r="C190" s="42"/>
       <c r="D190" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E190" s="42" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="F190" s="42"/>
       <c r="G190" s="42"/>
@@ -12244,10 +12300,10 @@
       </c>
       <c r="C191" s="42"/>
       <c r="D191" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E191" s="42" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="F191" s="42"/>
       <c r="G191" s="42"/>
@@ -12261,10 +12317,10 @@
       </c>
       <c r="C192" s="42"/>
       <c r="D192" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E192" s="42" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="F192" s="42"/>
       <c r="G192" s="42"/>
@@ -12278,10 +12334,10 @@
       </c>
       <c r="C193" s="42"/>
       <c r="D193" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E193" s="42" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="F193" s="42"/>
       <c r="G193" s="42"/>
@@ -12295,10 +12351,10 @@
       </c>
       <c r="C194" s="42"/>
       <c r="D194" s="42" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E194" s="42" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="F194" s="42"/>
       <c r="G194" s="42"/>
@@ -12312,10 +12368,10 @@
       </c>
       <c r="C195" s="42"/>
       <c r="D195" s="42" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="E195" s="42" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="F195" s="42"/>
       <c r="G195" s="42"/>
@@ -12329,10 +12385,10 @@
       </c>
       <c r="C196" s="42"/>
       <c r="D196" s="42" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="E196" s="42" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="F196" s="42"/>
       <c r="G196" s="42"/>
@@ -12345,11 +12401,11 @@
         <v>110</v>
       </c>
       <c r="C197" s="42"/>
-      <c r="D197" s="44" t="s">
-        <v>750</v>
+      <c r="D197" s="43" t="s">
+        <v>754</v>
       </c>
       <c r="E197" s="42" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="F197" s="42"/>
       <c r="G197" s="42"/>
@@ -12362,11 +12418,11 @@
         <v>110</v>
       </c>
       <c r="C198" s="42"/>
-      <c r="D198" s="44" t="s">
-        <v>752</v>
+      <c r="D198" s="43" t="s">
+        <v>756</v>
       </c>
       <c r="E198" s="42" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="F198" s="42"/>
       <c r="G198" s="42"/>
@@ -12379,11 +12435,11 @@
         <v>110</v>
       </c>
       <c r="C199" s="42"/>
-      <c r="D199" s="44" t="s">
-        <v>750</v>
+      <c r="D199" s="43" t="s">
+        <v>754</v>
       </c>
       <c r="E199" s="42" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="F199" s="42"/>
       <c r="G199" s="42"/>
@@ -12396,11 +12452,11 @@
         <v>110</v>
       </c>
       <c r="C200" s="42"/>
-      <c r="D200" s="44" t="s">
-        <v>752</v>
+      <c r="D200" s="43" t="s">
+        <v>756</v>
       </c>
       <c r="E200" s="42" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="F200" s="42"/>
       <c r="G200" s="42"/>
@@ -12413,11 +12469,11 @@
         <v>110</v>
       </c>
       <c r="C201" s="42"/>
-      <c r="D201" s="44" t="s">
-        <v>750</v>
+      <c r="D201" s="43" t="s">
+        <v>754</v>
       </c>
       <c r="E201" s="42" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="F201" s="42"/>
       <c r="G201" s="42"/>
@@ -12430,11 +12486,11 @@
         <v>110</v>
       </c>
       <c r="C202" s="42"/>
-      <c r="D202" s="44" t="s">
-        <v>757</v>
+      <c r="D202" s="43" t="s">
+        <v>761</v>
       </c>
       <c r="E202" s="42" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="F202" s="42"/>
       <c r="G202" s="42"/>
@@ -12447,11 +12503,11 @@
         <v>110</v>
       </c>
       <c r="C203" s="42"/>
-      <c r="D203" s="44" t="s">
-        <v>750</v>
+      <c r="D203" s="43" t="s">
+        <v>754</v>
       </c>
       <c r="E203" s="42" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="F203" s="42"/>
       <c r="G203" s="42"/>
@@ -12464,11 +12520,11 @@
         <v>110</v>
       </c>
       <c r="C204" s="42"/>
-      <c r="D204" s="44" t="s">
-        <v>757</v>
+      <c r="D204" s="43" t="s">
+        <v>761</v>
       </c>
       <c r="E204" s="42" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="F204" s="42"/>
       <c r="G204" s="42"/>
@@ -12485,7 +12541,7 @@
       <c r="C205" s="42"/>
       <c r="D205" s="42"/>
       <c r="E205" s="42" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="F205" s="42"/>
       <c r="G205" s="42"/>
@@ -12502,7 +12558,7 @@
       <c r="C206" s="42"/>
       <c r="D206" s="42"/>
       <c r="E206" s="42" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="F206" s="42"/>
       <c r="G206" s="42"/>
@@ -12519,7 +12575,7 @@
       <c r="C207" s="42"/>
       <c r="D207" s="42"/>
       <c r="E207" s="42" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="F207" s="42"/>
       <c r="G207" s="42"/>
@@ -12536,7 +12592,7 @@
       <c r="C208" s="42"/>
       <c r="D208" s="42"/>
       <c r="E208" s="42" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F208" s="42"/>
       <c r="G208" s="42"/>
@@ -12553,7 +12609,7 @@
       <c r="C209" s="42"/>
       <c r="D209" s="42"/>
       <c r="E209" s="42" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="F209" s="42"/>
       <c r="G209" s="42"/>
@@ -12570,7 +12626,7 @@
       <c r="C210" s="42"/>
       <c r="D210" s="42"/>
       <c r="E210" s="42" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="F210" s="42"/>
       <c r="G210" s="42"/>
@@ -12587,7 +12643,7 @@
       <c r="C211" s="42"/>
       <c r="D211" s="42"/>
       <c r="E211" s="42" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="F211" s="42"/>
       <c r="G211" s="42"/>
@@ -12604,7 +12660,7 @@
       <c r="C212" s="42"/>
       <c r="D212" s="42"/>
       <c r="E212" s="42" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="F212" s="42"/>
       <c r="G212" s="42"/>
@@ -12621,7 +12677,7 @@
       <c r="C213" s="42"/>
       <c r="D213" s="42"/>
       <c r="E213" s="42" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="F213" s="42"/>
       <c r="G213" s="42"/>
@@ -12636,10 +12692,10 @@
       </c>
       <c r="C214" s="42"/>
       <c r="D214" s="42" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E214" s="42" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="F214" s="42"/>
       <c r="G214" s="42"/>
@@ -12656,7 +12712,7 @@
       <c r="C215" s="42"/>
       <c r="D215" s="42"/>
       <c r="E215" s="42" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="F215" s="42"/>
       <c r="G215" s="42"/>
@@ -12671,10 +12727,10 @@
       </c>
       <c r="C216" s="42"/>
       <c r="D216" s="42" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="E216" s="42" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="F216" s="42"/>
       <c r="G216" s="42"/>
@@ -12689,10 +12745,10 @@
       </c>
       <c r="C217" s="42"/>
       <c r="D217" s="42" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="E217" s="42" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="F217" s="42"/>
       <c r="G217" s="42"/>
@@ -12707,10 +12763,10 @@
       </c>
       <c r="C218" s="42"/>
       <c r="D218" s="42" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="E218" s="42" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="F218" s="42"/>
       <c r="G218" s="42"/>
@@ -12725,10 +12781,10 @@
       </c>
       <c r="C219" s="42"/>
       <c r="D219" s="42" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="E219" s="42" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="F219" s="42"/>
       <c r="G219" s="42"/>
@@ -12743,10 +12799,10 @@
       </c>
       <c r="C220" s="42"/>
       <c r="D220" s="42" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="E220" s="42" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="F220" s="42"/>
       <c r="G220" s="42"/>
@@ -12760,10 +12816,10 @@
       </c>
       <c r="C221" s="42"/>
       <c r="D221" s="42" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="E221" s="42" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="F221" s="42"/>
       <c r="G221" s="42"/>
@@ -12780,7 +12836,7 @@
       <c r="C222" s="42"/>
       <c r="D222" s="42"/>
       <c r="E222" s="42" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="F222" s="42"/>
       <c r="G222" s="42"/>
@@ -12795,10 +12851,10 @@
       </c>
       <c r="C223" s="42"/>
       <c r="D223" s="42" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="E223" s="42" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="F223" s="42"/>
       <c r="G223" s="42"/>
@@ -12811,11 +12867,11 @@
         <v>129</v>
       </c>
       <c r="C224" s="42"/>
-      <c r="D224" s="44" t="s">
-        <v>788</v>
-      </c>
-      <c r="E224" s="44" t="s">
-        <v>789</v>
+      <c r="D224" s="43" t="s">
+        <v>792</v>
+      </c>
+      <c r="E224" s="43" t="s">
+        <v>793</v>
       </c>
       <c r="F224" s="42"/>
       <c r="G224" s="42"/>
@@ -12832,7 +12888,7 @@
       <c r="C225" s="42"/>
       <c r="D225" s="42"/>
       <c r="E225" s="42" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="F225" s="42"/>
       <c r="G225" s="42"/>
@@ -12847,10 +12903,10 @@
       </c>
       <c r="C226" s="42"/>
       <c r="D226" s="42" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="E226" s="42" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="F226" s="42"/>
       <c r="G226" s="42"/>
@@ -12864,10 +12920,10 @@
       </c>
       <c r="C227" s="42"/>
       <c r="D227" s="42" t="s">
-        <v>793</v>
-      </c>
-      <c r="E227" s="44" t="s">
-        <v>794</v>
+        <v>797</v>
+      </c>
+      <c r="E227" s="43" t="s">
+        <v>798</v>
       </c>
       <c r="F227" s="42"/>
       <c r="G227" s="42"/>
@@ -12883,10 +12939,10 @@
       </c>
       <c r="C228" s="42"/>
       <c r="D228" s="42" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="E228" s="42" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="F228" s="42"/>
       <c r="G228" s="42"/>
@@ -12903,7 +12959,7 @@
       <c r="C229" s="42"/>
       <c r="D229" s="42"/>
       <c r="E229" s="42" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="F229" s="42"/>
       <c r="G229" s="42"/>
@@ -12918,10 +12974,10 @@
       </c>
       <c r="C230" s="42"/>
       <c r="D230" s="42" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="E230" s="42" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F230" s="42"/>
       <c r="G230" s="42"/>
@@ -12938,7 +12994,7 @@
       <c r="C231" s="42"/>
       <c r="D231" s="42"/>
       <c r="E231" s="42" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="F231" s="42"/>
       <c r="G231" s="42"/>
@@ -12953,10 +13009,10 @@
       </c>
       <c r="C232" s="42"/>
       <c r="D232" s="42" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="E232" s="42" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="F232" s="42"/>
       <c r="G232" s="42"/>
@@ -12970,10 +13026,10 @@
       </c>
       <c r="C233" s="42"/>
       <c r="D233" s="42" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="E233" s="42" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="F233" s="42"/>
       <c r="G233" s="42"/>
@@ -12990,7 +13046,7 @@
       <c r="C234" s="42"/>
       <c r="D234" s="42"/>
       <c r="E234" s="42" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="F234" s="42"/>
       <c r="G234" s="42"/>
@@ -13007,7 +13063,7 @@
       <c r="C235" s="42"/>
       <c r="D235" s="42"/>
       <c r="E235" s="42" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="F235" s="42"/>
       <c r="G235" s="42"/>
@@ -13023,10 +13079,10 @@
       </c>
       <c r="C236" s="42"/>
       <c r="D236" s="42" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="E236" s="42" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="F236" s="42"/>
       <c r="G236" s="42"/>
@@ -13041,10 +13097,10 @@
       </c>
       <c r="C237" s="42"/>
       <c r="D237" s="42" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E237" s="42" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="F237" s="42"/>
       <c r="G237" s="42"/>
@@ -13061,7 +13117,7 @@
       <c r="C238" s="42"/>
       <c r="D238" s="42"/>
       <c r="E238" s="42" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="F238" s="42"/>
       <c r="G238" s="42"/>
@@ -13071,14 +13127,15 @@
         <f aca="false">NODES!$A$19</f>
         <v>cms_fe</v>
       </c>
-      <c r="B239" s="26" t="str">
-        <f aca="false">NODES!$A$10</f>
-        <v>ens</v>
+      <c r="B239" s="26" t="s">
+        <v>129</v>
       </c>
       <c r="C239" s="42"/>
-      <c r="D239" s="42"/>
+      <c r="D239" s="42" t="s">
+        <v>816</v>
+      </c>
       <c r="E239" s="42" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="F239" s="42"/>
       <c r="G239" s="42"/>
@@ -13095,7 +13152,7 @@
       <c r="C240" s="42"/>
       <c r="D240" s="42"/>
       <c r="E240" s="42" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="F240" s="42"/>
       <c r="G240" s="42"/>
@@ -13112,7 +13169,7 @@
       <c r="C241" s="42"/>
       <c r="D241" s="42"/>
       <c r="E241" s="42" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="F241" s="42"/>
       <c r="G241" s="42"/>
@@ -13129,7 +13186,7 @@
       <c r="C242" s="42"/>
       <c r="D242" s="42"/>
       <c r="E242" s="42" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="F242" s="42"/>
       <c r="G242" s="42"/>
@@ -13146,7 +13203,7 @@
       <c r="C243" s="42"/>
       <c r="D243" s="42"/>
       <c r="E243" s="42" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="F243" s="42"/>
       <c r="G243" s="42"/>
@@ -13163,7 +13220,7 @@
       <c r="C244" s="42"/>
       <c r="D244" s="42"/>
       <c r="E244" s="42" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="F244" s="42"/>
       <c r="G244" s="42"/>
@@ -13180,7 +13237,7 @@
       <c r="C245" s="42"/>
       <c r="D245" s="42"/>
       <c r="E245" s="42" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="F245" s="42"/>
       <c r="G245" s="42"/>
@@ -13197,7 +13254,7 @@
       <c r="C246" s="42"/>
       <c r="D246" s="42"/>
       <c r="E246" s="42" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="F246" s="42"/>
       <c r="G246" s="42"/>
@@ -13212,10 +13269,10 @@
       </c>
       <c r="C247" s="42"/>
       <c r="D247" s="42" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="E247" s="42" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="F247" s="42"/>
       <c r="G247" s="42"/>
@@ -13231,10 +13288,10 @@
       </c>
       <c r="C248" s="42"/>
       <c r="D248" s="42" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="E248" s="42" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="F248" s="42"/>
       <c r="G248" s="42"/>
@@ -13248,10 +13305,10 @@
       </c>
       <c r="C249" s="42"/>
       <c r="D249" s="42" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="E249" s="42" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="F249" s="42"/>
       <c r="G249" s="42"/>
@@ -13265,10 +13322,10 @@
       </c>
       <c r="C250" s="42"/>
       <c r="D250" s="42" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="E250" s="42" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="F250" s="42"/>
       <c r="G250" s="42"/>
@@ -13285,7 +13342,7 @@
       <c r="C251" s="42"/>
       <c r="D251" s="42"/>
       <c r="E251" s="42" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="F251" s="42"/>
       <c r="G251" s="42"/>
@@ -13302,7 +13359,7 @@
       <c r="C252" s="42"/>
       <c r="D252" s="42"/>
       <c r="E252" s="42" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="F252" s="42"/>
       <c r="G252" s="42"/>
@@ -13316,10 +13373,10 @@
       </c>
       <c r="C253" s="42"/>
       <c r="D253" s="42" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="E253" s="42" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="F253" s="42"/>
       <c r="G253" s="42"/>
@@ -13333,10 +13390,10 @@
       </c>
       <c r="C254" s="42"/>
       <c r="D254" s="42" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="E254" s="42" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="F254" s="42"/>
       <c r="G254" s="42"/>
@@ -13350,10 +13407,10 @@
       </c>
       <c r="C255" s="42"/>
       <c r="D255" s="42" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="E255" s="42" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="F255" s="42"/>
       <c r="G255" s="42"/>
@@ -13366,11 +13423,11 @@
         <v>271</v>
       </c>
       <c r="C256" s="42"/>
-      <c r="D256" s="44" t="s">
-        <v>835</v>
-      </c>
-      <c r="E256" s="44" t="s">
-        <v>836</v>
+      <c r="D256" s="43" t="s">
+        <v>840</v>
+      </c>
+      <c r="E256" s="43" t="s">
+        <v>841</v>
       </c>
       <c r="F256" s="42"/>
       <c r="G256" s="42"/>
@@ -13383,11 +13440,11 @@
         <v>199</v>
       </c>
       <c r="C257" s="42"/>
-      <c r="D257" s="44" t="s">
-        <v>837</v>
-      </c>
-      <c r="E257" s="44" t="s">
-        <v>838</v>
+      <c r="D257" s="43" t="s">
+        <v>842</v>
+      </c>
+      <c r="E257" s="43" t="s">
+        <v>843</v>
       </c>
       <c r="F257" s="42"/>
       <c r="G257" s="42"/>
@@ -13400,11 +13457,11 @@
         <v>194</v>
       </c>
       <c r="C258" s="42"/>
-      <c r="D258" s="44" t="s">
-        <v>839</v>
-      </c>
-      <c r="E258" s="44" t="s">
-        <v>840</v>
+      <c r="D258" s="43" t="s">
+        <v>844</v>
+      </c>
+      <c r="E258" s="43" t="s">
+        <v>845</v>
       </c>
       <c r="F258" s="42"/>
       <c r="G258" s="42"/>
@@ -13417,11 +13474,11 @@
         <v>271</v>
       </c>
       <c r="C259" s="42"/>
-      <c r="D259" s="44" t="s">
-        <v>841</v>
-      </c>
-      <c r="E259" s="44" t="s">
-        <v>842</v>
+      <c r="D259" s="43" t="s">
+        <v>846</v>
+      </c>
+      <c r="E259" s="43" t="s">
+        <v>847</v>
       </c>
       <c r="F259" s="42"/>
       <c r="G259" s="42"/>
@@ -13434,11 +13491,11 @@
         <v>271</v>
       </c>
       <c r="C260" s="42"/>
-      <c r="D260" s="44" t="s">
-        <v>843</v>
-      </c>
-      <c r="E260" s="44" t="s">
-        <v>844</v>
+      <c r="D260" s="43" t="s">
+        <v>848</v>
+      </c>
+      <c r="E260" s="43" t="s">
+        <v>849</v>
       </c>
       <c r="F260" s="42"/>
       <c r="G260" s="42"/>
@@ -13451,11 +13508,11 @@
         <v>191</v>
       </c>
       <c r="C261" s="42"/>
-      <c r="D261" s="44" t="s">
-        <v>845</v>
-      </c>
-      <c r="E261" s="44" t="s">
-        <v>846</v>
+      <c r="D261" s="43" t="s">
+        <v>850</v>
+      </c>
+      <c r="E261" s="43" t="s">
+        <v>851</v>
       </c>
       <c r="F261" s="42"/>
       <c r="G261" s="42"/>
@@ -13468,11 +13525,11 @@
         <v>154</v>
       </c>
       <c r="C262" s="42"/>
-      <c r="D262" s="44" t="s">
-        <v>847</v>
-      </c>
-      <c r="E262" s="44" t="s">
-        <v>848</v>
+      <c r="D262" s="43" t="s">
+        <v>852</v>
+      </c>
+      <c r="E262" s="43" t="s">
+        <v>853</v>
       </c>
       <c r="F262" s="42"/>
       <c r="G262" s="42"/>
@@ -13485,11 +13542,11 @@
         <v>149</v>
       </c>
       <c r="C263" s="42"/>
-      <c r="D263" s="44" t="s">
-        <v>849</v>
-      </c>
-      <c r="E263" s="44" t="s">
-        <v>850</v>
+      <c r="D263" s="43" t="s">
+        <v>854</v>
+      </c>
+      <c r="E263" s="43" t="s">
+        <v>855</v>
       </c>
       <c r="F263" s="42"/>
       <c r="G263" s="42"/>
@@ -13502,11 +13559,11 @@
         <v>170</v>
       </c>
       <c r="C264" s="42"/>
-      <c r="D264" s="44" t="s">
-        <v>851</v>
-      </c>
-      <c r="E264" s="44" t="s">
-        <v>852</v>
+      <c r="D264" s="43" t="s">
+        <v>856</v>
+      </c>
+      <c r="E264" s="43" t="s">
+        <v>857</v>
       </c>
       <c r="F264" s="42"/>
       <c r="G264" s="42"/>
@@ -13519,11 +13576,11 @@
         <v>164</v>
       </c>
       <c r="C265" s="42"/>
-      <c r="D265" s="44" t="s">
-        <v>853</v>
-      </c>
-      <c r="E265" s="44" t="s">
-        <v>854</v>
+      <c r="D265" s="43" t="s">
+        <v>858</v>
+      </c>
+      <c r="E265" s="43" t="s">
+        <v>859</v>
       </c>
       <c r="F265" s="42"/>
       <c r="G265" s="42"/>
@@ -13536,11 +13593,11 @@
         <v>179</v>
       </c>
       <c r="C266" s="42"/>
-      <c r="D266" s="44" t="s">
-        <v>855</v>
-      </c>
-      <c r="E266" s="44" t="s">
-        <v>856</v>
+      <c r="D266" s="43" t="s">
+        <v>860</v>
+      </c>
+      <c r="E266" s="43" t="s">
+        <v>861</v>
       </c>
       <c r="F266" s="42"/>
       <c r="G266" s="42"/>
@@ -13553,11 +13610,11 @@
         <v>173</v>
       </c>
       <c r="C267" s="42"/>
-      <c r="D267" s="44" t="s">
-        <v>857</v>
-      </c>
-      <c r="E267" s="44" t="s">
-        <v>858</v>
+      <c r="D267" s="43" t="s">
+        <v>862</v>
+      </c>
+      <c r="E267" s="43" t="s">
+        <v>863</v>
       </c>
       <c r="F267" s="42"/>
       <c r="G267" s="42"/>
@@ -13570,9 +13627,9 @@
         <v>201</v>
       </c>
       <c r="C268" s="42"/>
-      <c r="D268" s="44"/>
-      <c r="E268" s="44" t="s">
-        <v>859</v>
+      <c r="D268" s="43"/>
+      <c r="E268" s="43" t="s">
+        <v>864</v>
       </c>
       <c r="F268" s="42"/>
       <c r="G268" s="42"/>
@@ -13585,9 +13642,9 @@
         <v>209</v>
       </c>
       <c r="C269" s="42"/>
-      <c r="D269" s="44"/>
-      <c r="E269" s="44" t="s">
-        <v>860</v>
+      <c r="D269" s="43"/>
+      <c r="E269" s="43" t="s">
+        <v>865</v>
       </c>
       <c r="F269" s="42"/>
       <c r="G269" s="42"/>
@@ -13600,9 +13657,9 @@
         <v>212</v>
       </c>
       <c r="C270" s="42"/>
-      <c r="D270" s="44"/>
-      <c r="E270" s="44" t="s">
-        <v>861</v>
+      <c r="D270" s="43"/>
+      <c r="E270" s="43" t="s">
+        <v>866</v>
       </c>
       <c r="F270" s="42"/>
       <c r="G270" s="42"/>
@@ -13615,9 +13672,9 @@
         <v>214</v>
       </c>
       <c r="C271" s="42"/>
-      <c r="D271" s="44"/>
-      <c r="E271" s="44" t="s">
-        <v>862</v>
+      <c r="D271" s="43"/>
+      <c r="E271" s="43" t="s">
+        <v>867</v>
       </c>
       <c r="F271" s="42"/>
       <c r="G271" s="42"/>
@@ -13630,9 +13687,9 @@
         <v>245</v>
       </c>
       <c r="C272" s="42"/>
-      <c r="D272" s="44"/>
-      <c r="E272" s="44" t="s">
-        <v>863</v>
+      <c r="D272" s="43"/>
+      <c r="E272" s="43" t="s">
+        <v>868</v>
       </c>
       <c r="F272" s="42"/>
       <c r="G272" s="42"/>
@@ -13645,9 +13702,9 @@
         <v>223</v>
       </c>
       <c r="C273" s="42"/>
-      <c r="D273" s="44"/>
-      <c r="E273" s="44" t="s">
-        <v>864</v>
+      <c r="D273" s="43"/>
+      <c r="E273" s="43" t="s">
+        <v>869</v>
       </c>
       <c r="F273" s="42"/>
       <c r="G273" s="42"/>
@@ -13660,9 +13717,9 @@
         <v>221</v>
       </c>
       <c r="C274" s="42"/>
-      <c r="D274" s="44"/>
-      <c r="E274" s="44" t="s">
-        <v>865</v>
+      <c r="D274" s="43"/>
+      <c r="E274" s="43" t="s">
+        <v>870</v>
       </c>
       <c r="F274" s="42"/>
       <c r="G274" s="42"/>
@@ -13675,9 +13732,9 @@
         <v>186</v>
       </c>
       <c r="C275" s="42"/>
-      <c r="D275" s="44"/>
-      <c r="E275" s="44" t="s">
-        <v>866</v>
+      <c r="D275" s="43"/>
+      <c r="E275" s="43" t="s">
+        <v>871</v>
       </c>
       <c r="F275" s="42"/>
       <c r="G275" s="42"/>
@@ -13690,9 +13747,9 @@
         <v>189</v>
       </c>
       <c r="C276" s="42"/>
-      <c r="D276" s="44"/>
-      <c r="E276" s="44" t="s">
-        <v>867</v>
+      <c r="D276" s="43"/>
+      <c r="E276" s="43" t="s">
+        <v>872</v>
       </c>
       <c r="F276" s="42"/>
       <c r="G276" s="42"/>
@@ -13705,9 +13762,9 @@
         <v>225</v>
       </c>
       <c r="C277" s="42"/>
-      <c r="D277" s="44"/>
-      <c r="E277" s="44" t="s">
-        <v>868</v>
+      <c r="D277" s="43"/>
+      <c r="E277" s="43" t="s">
+        <v>873</v>
       </c>
       <c r="F277" s="42"/>
       <c r="G277" s="42"/>
@@ -13720,9 +13777,9 @@
         <v>194</v>
       </c>
       <c r="C278" s="42"/>
-      <c r="D278" s="44"/>
-      <c r="E278" s="44" t="s">
-        <v>869</v>
+      <c r="D278" s="43"/>
+      <c r="E278" s="43" t="s">
+        <v>874</v>
       </c>
       <c r="F278" s="42"/>
       <c r="G278" s="42"/>
@@ -13735,9 +13792,9 @@
         <v>184</v>
       </c>
       <c r="C279" s="42"/>
-      <c r="D279" s="44"/>
-      <c r="E279" s="44" t="s">
-        <v>870</v>
+      <c r="D279" s="43"/>
+      <c r="E279" s="43" t="s">
+        <v>875</v>
       </c>
       <c r="F279" s="42"/>
       <c r="G279" s="42"/>
@@ -13750,9 +13807,9 @@
         <v>182</v>
       </c>
       <c r="C280" s="42"/>
-      <c r="D280" s="44"/>
-      <c r="E280" s="44" t="s">
-        <v>871</v>
+      <c r="D280" s="43"/>
+      <c r="E280" s="43" t="s">
+        <v>876</v>
       </c>
       <c r="F280" s="42"/>
       <c r="G280" s="42"/>
@@ -13765,9 +13822,9 @@
         <v>220</v>
       </c>
       <c r="C281" s="42"/>
-      <c r="D281" s="44"/>
-      <c r="E281" s="44" t="s">
-        <v>872</v>
+      <c r="D281" s="43"/>
+      <c r="E281" s="43" t="s">
+        <v>877</v>
       </c>
       <c r="F281" s="42"/>
       <c r="G281" s="42"/>
@@ -13780,11 +13837,11 @@
         <v>266</v>
       </c>
       <c r="C282" s="42"/>
-      <c r="D282" s="44" t="s">
-        <v>873</v>
-      </c>
-      <c r="E282" s="44" t="s">
-        <v>874</v>
+      <c r="D282" s="43" t="s">
+        <v>878</v>
+      </c>
+      <c r="E282" s="43" t="s">
+        <v>879</v>
       </c>
       <c r="F282" s="42"/>
       <c r="G282" s="42"/>
@@ -13797,11 +13854,11 @@
         <v>266</v>
       </c>
       <c r="C283" s="42"/>
-      <c r="D283" s="44" t="s">
-        <v>875</v>
-      </c>
-      <c r="E283" s="44" t="s">
-        <v>876</v>
+      <c r="D283" s="43" t="s">
+        <v>880</v>
+      </c>
+      <c r="E283" s="43" t="s">
+        <v>881</v>
       </c>
       <c r="F283" s="42"/>
       <c r="G283" s="42"/>
@@ -13814,11 +13871,11 @@
         <v>266</v>
       </c>
       <c r="C284" s="42"/>
-      <c r="D284" s="44" t="s">
-        <v>877</v>
-      </c>
-      <c r="E284" s="44" t="s">
-        <v>878</v>
+      <c r="D284" s="43" t="s">
+        <v>882</v>
+      </c>
+      <c r="E284" s="43" t="s">
+        <v>883</v>
       </c>
       <c r="F284" s="42"/>
       <c r="G284" s="42"/>
@@ -13831,9 +13888,9 @@
         <v>266</v>
       </c>
       <c r="C285" s="42"/>
-      <c r="D285" s="44"/>
-      <c r="E285" s="44" t="s">
-        <v>879</v>
+      <c r="D285" s="43"/>
+      <c r="E285" s="43" t="s">
+        <v>884</v>
       </c>
       <c r="F285" s="42"/>
       <c r="G285" s="42"/>
@@ -13846,11 +13903,11 @@
         <v>266</v>
       </c>
       <c r="C286" s="42"/>
-      <c r="D286" s="44" t="s">
-        <v>880</v>
-      </c>
-      <c r="E286" s="44" t="s">
-        <v>881</v>
+      <c r="D286" s="43" t="s">
+        <v>885</v>
+      </c>
+      <c r="E286" s="43" t="s">
+        <v>886</v>
       </c>
       <c r="F286" s="42"/>
       <c r="G286" s="42"/>
@@ -13863,9 +13920,9 @@
         <v>266</v>
       </c>
       <c r="C287" s="42"/>
-      <c r="D287" s="44"/>
-      <c r="E287" s="44" t="s">
-        <v>882</v>
+      <c r="D287" s="43"/>
+      <c r="E287" s="43" t="s">
+        <v>887</v>
       </c>
       <c r="F287" s="42"/>
       <c r="G287" s="42"/>
@@ -13878,79 +13935,79 @@
         <v>191</v>
       </c>
       <c r="C288" s="42"/>
-      <c r="D288" s="44" t="s">
-        <v>883</v>
-      </c>
-      <c r="E288" s="44" t="s">
-        <v>884</v>
+      <c r="D288" s="43" t="s">
+        <v>888</v>
+      </c>
+      <c r="E288" s="43" t="s">
+        <v>889</v>
       </c>
       <c r="F288" s="42"/>
       <c r="G288" s="42"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="26" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="B289" s="26" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C289" s="42"/>
-      <c r="D289" s="44" t="s">
-        <v>885</v>
-      </c>
-      <c r="E289" s="44" t="s">
-        <v>886</v>
+      <c r="D289" s="43" t="s">
+        <v>890</v>
+      </c>
+      <c r="E289" s="43" t="s">
+        <v>891</v>
       </c>
       <c r="F289" s="42"/>
       <c r="G289" s="42"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="26" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B290" s="26" t="s">
         <v>266</v>
       </c>
       <c r="C290" s="42"/>
-      <c r="D290" s="44" t="s">
-        <v>887</v>
-      </c>
-      <c r="E290" s="44" t="s">
-        <v>888</v>
+      <c r="D290" s="43" t="s">
+        <v>892</v>
+      </c>
+      <c r="E290" s="43" t="s">
+        <v>893</v>
       </c>
       <c r="F290" s="42"/>
       <c r="G290" s="42"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="26" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B291" s="26" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="C291" s="42"/>
-      <c r="D291" s="44" t="s">
-        <v>889</v>
-      </c>
-      <c r="E291" s="44" t="s">
-        <v>890</v>
+      <c r="D291" s="43" t="s">
+        <v>894</v>
+      </c>
+      <c r="E291" s="43" t="s">
+        <v>895</v>
       </c>
       <c r="F291" s="42"/>
       <c r="G291" s="42"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="26" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B292" s="26" t="s">
         <v>146</v>
       </c>
       <c r="C292" s="42"/>
-      <c r="D292" s="44" t="s">
-        <v>891</v>
-      </c>
-      <c r="E292" s="44" t="s">
-        <v>892</v>
+      <c r="D292" s="43" t="s">
+        <v>896</v>
+      </c>
+      <c r="E292" s="43" t="s">
+        <v>897</v>
       </c>
       <c r="F292" s="42"/>
       <c r="G292" s="42"/>
@@ -13963,16 +14020,30 @@
         <v>146</v>
       </c>
       <c r="C293" s="42"/>
-      <c r="D293" s="44" t="s">
-        <v>891</v>
-      </c>
-      <c r="E293" s="44" t="s">
-        <v>893</v>
+      <c r="D293" s="43" t="s">
+        <v>898</v>
+      </c>
+      <c r="E293" s="43" t="s">
+        <v>899</v>
       </c>
       <c r="F293" s="42"/>
       <c r="G293" s="42"/>
     </row>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B294" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C294" s="42"/>
+      <c r="D294" s="43"/>
+      <c r="E294" s="43" t="s">
+        <v>900</v>
+      </c>
+      <c r="F294" s="42"/>
+      <c r="G294" s="42"/>
+    </row>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14007,12 +14078,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+      <selection pane="bottomLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -14055,10 +14126,10 @@
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -14071,11 +14142,11 @@
         <v>325</v>
       </c>
       <c r="C3" s="42"/>
-      <c r="D3" s="44" t="s">
-        <v>896</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>897</v>
+      <c r="D3" s="43" t="s">
+        <v>903</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>904</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -14088,11 +14159,11 @@
         <v>327</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="44" t="s">
-        <v>896</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>898</v>
+      <c r="D4" s="43" t="s">
+        <v>903</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>905</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -14105,11 +14176,11 @@
         <v>325</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="44" t="s">
-        <v>899</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>900</v>
+      <c r="D5" s="43" t="s">
+        <v>906</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>907</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -14122,11 +14193,11 @@
         <v>325</v>
       </c>
       <c r="C6" s="42"/>
-      <c r="D6" s="44" t="s">
-        <v>901</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>902</v>
+      <c r="D6" s="43" t="s">
+        <v>908</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>909</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -14139,11 +14210,11 @@
         <v>325</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="44" t="s">
-        <v>903</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>904</v>
+      <c r="D7" s="43" t="s">
+        <v>910</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>911</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
@@ -14156,11 +14227,11 @@
         <v>325</v>
       </c>
       <c r="C8" s="42"/>
-      <c r="D8" s="44" t="s">
-        <v>905</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>906</v>
+      <c r="D8" s="43" t="s">
+        <v>912</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>913</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
@@ -14173,11 +14244,11 @@
         <v>325</v>
       </c>
       <c r="C9" s="42"/>
-      <c r="D9" s="44" t="s">
-        <v>907</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>908</v>
+      <c r="D9" s="43" t="s">
+        <v>914</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>915</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
@@ -14190,11 +14261,11 @@
         <v>327</v>
       </c>
       <c r="C10" s="42"/>
-      <c r="D10" s="44" t="s">
-        <v>909</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>910</v>
+      <c r="D10" s="43" t="s">
+        <v>916</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>917</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -14207,11 +14278,11 @@
         <v>325</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="44" t="s">
-        <v>911</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>912</v>
+      <c r="D11" s="43" t="s">
+        <v>918</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>919</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
@@ -14224,11 +14295,11 @@
         <v>325</v>
       </c>
       <c r="C12" s="42"/>
-      <c r="D12" s="44" t="s">
-        <v>913</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>914</v>
+      <c r="D12" s="43" t="s">
+        <v>920</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>921</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
@@ -14241,11 +14312,11 @@
         <v>325</v>
       </c>
       <c r="C13" s="42"/>
-      <c r="D13" s="44" t="s">
-        <v>915</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>916</v>
+      <c r="D13" s="43" t="s">
+        <v>922</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>923</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
@@ -14258,11 +14329,11 @@
         <v>325</v>
       </c>
       <c r="C14" s="42"/>
-      <c r="D14" s="44" t="s">
-        <v>917</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>918</v>
+      <c r="D14" s="43" t="s">
+        <v>924</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>925</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
@@ -14275,11 +14346,11 @@
         <v>325</v>
       </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="44" t="s">
-        <v>919</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>920</v>
+      <c r="D15" s="43" t="s">
+        <v>926</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>927</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
@@ -14292,11 +14363,11 @@
         <v>325</v>
       </c>
       <c r="C16" s="42"/>
-      <c r="D16" s="44" t="s">
-        <v>921</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>922</v>
+      <c r="D16" s="43" t="s">
+        <v>928</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>929</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
@@ -14309,11 +14380,11 @@
         <v>325</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="44" t="s">
-        <v>923</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>924</v>
+      <c r="D17" s="43" t="s">
+        <v>930</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>931</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -14326,11 +14397,11 @@
         <v>325</v>
       </c>
       <c r="C18" s="42"/>
-      <c r="D18" s="44" t="s">
-        <v>925</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>926</v>
+      <c r="D18" s="43" t="s">
+        <v>932</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>933</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -14343,11 +14414,11 @@
         <v>325</v>
       </c>
       <c r="C19" s="42"/>
-      <c r="D19" s="44" t="s">
-        <v>927</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>928</v>
+      <c r="D19" s="43" t="s">
+        <v>934</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>935</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
@@ -14360,11 +14431,11 @@
         <v>325</v>
       </c>
       <c r="C20" s="42"/>
-      <c r="D20" s="44" t="s">
-        <v>929</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>930</v>
+      <c r="D20" s="43" t="s">
+        <v>936</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>937</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
@@ -14377,11 +14448,11 @@
         <v>337</v>
       </c>
       <c r="C21" s="42"/>
-      <c r="D21" s="44" t="s">
-        <v>929</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>931</v>
+      <c r="D21" s="43" t="s">
+        <v>936</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>938</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
@@ -14394,11 +14465,11 @@
         <v>339</v>
       </c>
       <c r="C22" s="42"/>
-      <c r="D22" s="44" t="s">
-        <v>932</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>933</v>
+      <c r="D22" s="43" t="s">
+        <v>939</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>940</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
@@ -14411,11 +14482,11 @@
         <v>325</v>
       </c>
       <c r="C23" s="42"/>
-      <c r="D23" s="44" t="s">
-        <v>791</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>934</v>
+      <c r="D23" s="43" t="s">
+        <v>795</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>941</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
@@ -14428,11 +14499,11 @@
         <v>325</v>
       </c>
       <c r="C24" s="42"/>
-      <c r="D24" s="44" t="s">
-        <v>935</v>
+      <c r="D24" s="43" t="s">
+        <v>942</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
@@ -14445,11 +14516,11 @@
         <v>337</v>
       </c>
       <c r="C25" s="42"/>
-      <c r="D25" s="44" t="s">
-        <v>935</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>937</v>
+      <c r="D25" s="43" t="s">
+        <v>942</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>944</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -14462,11 +14533,11 @@
         <v>325</v>
       </c>
       <c r="C26" s="42"/>
-      <c r="D26" s="44" t="s">
-        <v>938</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>939</v>
+      <c r="D26" s="43" t="s">
+        <v>945</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>946</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
@@ -14479,11 +14550,11 @@
         <v>337</v>
       </c>
       <c r="C27" s="42"/>
-      <c r="D27" s="44" t="s">
-        <v>938</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>940</v>
+      <c r="D27" s="43" t="s">
+        <v>945</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>947</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -14496,11 +14567,11 @@
         <v>325</v>
       </c>
       <c r="C28" s="42"/>
-      <c r="D28" s="44" t="s">
-        <v>941</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>942</v>
+      <c r="D28" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>949</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -14513,11 +14584,11 @@
         <v>337</v>
       </c>
       <c r="C29" s="42"/>
-      <c r="D29" s="44" t="s">
-        <v>941</v>
-      </c>
-      <c r="E29" s="44" t="s">
-        <v>943</v>
+      <c r="D29" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>950</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -14530,11 +14601,11 @@
         <v>325</v>
       </c>
       <c r="C30" s="42"/>
-      <c r="D30" s="44" t="s">
-        <v>944</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>945</v>
+      <c r="D30" s="43" t="s">
+        <v>951</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>952</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -14547,11 +14618,11 @@
         <v>337</v>
       </c>
       <c r="C31" s="42"/>
-      <c r="D31" s="44" t="s">
-        <v>944</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>946</v>
+      <c r="D31" s="43" t="s">
+        <v>951</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>953</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -14564,13 +14635,13 @@
         <v>325</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>947</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>948</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>949</v>
+        <v>954</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>955</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>956</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -14585,11 +14656,11 @@
       <c r="C33" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="44" t="s">
-        <v>950</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>951</v>
+      <c r="D33" s="43" t="s">
+        <v>957</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>958</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
@@ -14604,11 +14675,11 @@
       <c r="C34" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="44" t="s">
-        <v>952</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>953</v>
+      <c r="D34" s="43" t="s">
+        <v>959</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>960</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
@@ -14623,11 +14694,11 @@
       <c r="C35" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="44" t="s">
-        <v>954</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>955</v>
+      <c r="D35" s="43" t="s">
+        <v>961</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>962</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
@@ -14640,13 +14711,13 @@
         <v>325</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>956</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>957</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>958</v>
+        <v>963</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>964</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>965</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -14659,11 +14730,11 @@
         <v>325</v>
       </c>
       <c r="C37" s="42"/>
-      <c r="D37" s="44" t="s">
-        <v>959</v>
-      </c>
-      <c r="E37" s="44" t="s">
-        <v>960</v>
+      <c r="D37" s="43" t="s">
+        <v>966</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>967</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -14676,11 +14747,11 @@
         <v>341</v>
       </c>
       <c r="C38" s="42"/>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="E38" s="44" t="s">
-        <v>961</v>
+      <c r="E38" s="43" t="s">
+        <v>968</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -14693,11 +14764,11 @@
         <v>331</v>
       </c>
       <c r="C39" s="42"/>
-      <c r="D39" s="44" t="s">
-        <v>962</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>963</v>
+      <c r="D39" s="43" t="s">
+        <v>969</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>970</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
@@ -14710,11 +14781,11 @@
         <v>335</v>
       </c>
       <c r="C40" s="42"/>
-      <c r="D40" s="44" t="s">
-        <v>847</v>
-      </c>
-      <c r="E40" s="44" t="s">
-        <v>964</v>
+      <c r="D40" s="43" t="s">
+        <v>852</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>971</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
@@ -14727,13 +14798,13 @@
         <v>347</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>965</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>966</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>967</v>
+        <v>972</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>973</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>974</v>
       </c>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
@@ -14746,11 +14817,11 @@
         <v>325</v>
       </c>
       <c r="C42" s="42"/>
-      <c r="D42" s="44" t="s">
-        <v>968</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>969</v>
+      <c r="D42" s="43" t="s">
+        <v>975</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>976</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
@@ -14763,11 +14834,11 @@
         <v>327</v>
       </c>
       <c r="C43" s="42"/>
-      <c r="D43" s="44" t="s">
-        <v>968</v>
-      </c>
-      <c r="E43" s="44" t="s">
-        <v>970</v>
+      <c r="D43" s="43" t="s">
+        <v>975</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>977</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
@@ -14780,11 +14851,11 @@
         <v>349</v>
       </c>
       <c r="C44" s="42"/>
-      <c r="D44" s="44" t="s">
-        <v>971</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>972</v>
+      <c r="D44" s="43" t="s">
+        <v>978</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>979</v>
       </c>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
@@ -14797,11 +14868,11 @@
         <v>327</v>
       </c>
       <c r="C45" s="42"/>
-      <c r="D45" s="44" t="s">
-        <v>973</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>974</v>
+      <c r="D45" s="43" t="s">
+        <v>980</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>981</v>
       </c>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
@@ -14814,11 +14885,11 @@
         <v>325</v>
       </c>
       <c r="C46" s="42"/>
-      <c r="D46" s="44" t="s">
-        <v>975</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>976</v>
+      <c r="D46" s="43" t="s">
+        <v>982</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>983</v>
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
@@ -14831,11 +14902,11 @@
         <v>337</v>
       </c>
       <c r="C47" s="42"/>
-      <c r="D47" s="44" t="s">
-        <v>975</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>977</v>
+      <c r="D47" s="43" t="s">
+        <v>982</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>984</v>
       </c>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
@@ -14848,11 +14919,11 @@
         <v>325</v>
       </c>
       <c r="C48" s="42"/>
-      <c r="D48" s="44" t="s">
-        <v>978</v>
-      </c>
-      <c r="E48" s="44" t="s">
-        <v>979</v>
+      <c r="D48" s="43" t="s">
+        <v>985</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>986</v>
       </c>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
@@ -14865,11 +14936,11 @@
         <v>335</v>
       </c>
       <c r="C49" s="42"/>
-      <c r="D49" s="44" t="s">
-        <v>980</v>
+      <c r="D49" s="43" t="s">
+        <v>987</v>
       </c>
       <c r="E49" s="50" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
@@ -14882,11 +14953,11 @@
         <v>337</v>
       </c>
       <c r="C50" s="42"/>
-      <c r="D50" s="44" t="s">
-        <v>980</v>
+      <c r="D50" s="43" t="s">
+        <v>987</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
@@ -14899,11 +14970,11 @@
         <v>331</v>
       </c>
       <c r="C51" s="42"/>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="43" t="s">
         <v>352</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -14916,164 +14987,166 @@
         <v>351</v>
       </c>
       <c r="C52" s="42"/>
-      <c r="D52" s="44" t="s">
+      <c r="D52" s="43" t="s">
         <v>352</v>
       </c>
       <c r="E52" s="50" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="B53" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="B53" s="26" t="s">
-        <v>325</v>
-      </c>
       <c r="C53" s="42"/>
-      <c r="D53" s="44" t="s">
-        <v>985</v>
+      <c r="D53" s="43" t="s">
+        <v>992</v>
       </c>
       <c r="E53" s="50" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="48" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="C54" s="42"/>
-      <c r="D54" s="44" t="s">
-        <v>498</v>
+        <v>351</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>992</v>
       </c>
       <c r="E54" s="50" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="48" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="C55" s="42"/>
-      <c r="D55" s="44" t="s">
-        <v>988</v>
+      <c r="D55" s="43" t="s">
+        <v>992</v>
       </c>
       <c r="E55" s="50" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="48" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C56" s="42"/>
-      <c r="D56" s="44" t="s">
-        <v>988</v>
+      <c r="D56" s="43" t="s">
+        <v>996</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="48" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C57" s="42"/>
-      <c r="D57" s="44" t="s">
-        <v>147</v>
+      <c r="D57" s="43" t="s">
+        <v>501</v>
       </c>
       <c r="E57" s="50" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="48" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C58" s="42"/>
-      <c r="D58" s="44" t="s">
-        <v>359</v>
+      <c r="D58" s="43" t="s">
+        <v>999</v>
       </c>
       <c r="E58" s="50" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="48" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C59" s="42"/>
-      <c r="D59" s="44" t="s">
-        <v>993</v>
-      </c>
-      <c r="E59" s="44" t="s">
-        <v>994</v>
+      <c r="D59" s="43" t="s">
+        <v>999</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>1001</v>
       </c>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="48" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C60" s="42"/>
-      <c r="D60" s="44" t="s">
-        <v>995</v>
-      </c>
-      <c r="E60" s="44" t="s">
-        <v>996</v>
+      <c r="D60" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="50" t="s">
+        <v>1002</v>
       </c>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="48" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="C61" s="42"/>
-      <c r="D61" s="44" t="s">
-        <v>995</v>
-      </c>
-      <c r="E61" s="44" t="s">
-        <v>997</v>
+      <c r="D61" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>1003</v>
       </c>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -15083,14 +15156,14 @@
         <v>337</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C62" s="42"/>
-      <c r="D62" s="44" t="s">
-        <v>995</v>
-      </c>
-      <c r="E62" s="44" t="s">
-        <v>998</v>
+      <c r="D62" s="43" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>1005</v>
       </c>
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
@@ -15103,104 +15176,202 @@
         <v>337</v>
       </c>
       <c r="C63" s="42"/>
-      <c r="D63" s="44" t="s">
-        <v>995</v>
-      </c>
-      <c r="E63" s="44" t="s">
-        <v>999</v>
+      <c r="D63" s="43" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>1006</v>
       </c>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="48" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B64" s="26" t="s">
         <v>331</v>
       </c>
       <c r="C64" s="42"/>
-      <c r="D64" s="44" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E64" s="44" t="s">
-        <v>1001</v>
+      <c r="D64" s="43" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>1008</v>
       </c>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="48" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="C65" s="42"/>
-      <c r="D65" s="44" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>1003</v>
+      <c r="D65" s="43" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>1009</v>
       </c>
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="48" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="C66" s="42"/>
-      <c r="D66" s="44" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E66" s="44" t="s">
-        <v>1005</v>
+      <c r="D66" s="43" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>1010</v>
       </c>
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="48" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C67" s="42"/>
-      <c r="D67" s="44" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E67" s="44" t="s">
+      <c r="D67" s="43" t="s">
         <v>1007</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>1011</v>
       </c>
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="B68" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="B68" s="26" t="s">
-        <v>327</v>
-      </c>
       <c r="C68" s="42"/>
-      <c r="D68" s="44" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E68" s="44" t="s">
-        <v>1008</v>
+      <c r="D68" s="43" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>1013</v>
       </c>
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
     </row>
-    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C69" s="42"/>
+      <c r="D69" s="43" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E69" s="43" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="C70" s="42"/>
+      <c r="D70" s="43" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E70" s="43" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C71" s="42"/>
+      <c r="D71" s="43" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C72" s="42"/>
+      <c r="D72" s="43" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C73" s="42"/>
+      <c r="D73" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="E73" s="49" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="C74" s="42"/>
+      <c r="D74" s="49" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E74" s="49" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+    </row>
     <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15432,10 +15603,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -15478,10 +15649,10 @@
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -15494,11 +15665,11 @@
         <v>280</v>
       </c>
       <c r="C3" s="42"/>
-      <c r="D3" s="44" t="s">
-        <v>896</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>897</v>
+      <c r="D3" s="43" t="s">
+        <v>903</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>904</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -15511,11 +15682,11 @@
         <v>223</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="44" t="s">
-        <v>899</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>900</v>
+      <c r="D4" s="43" t="s">
+        <v>906</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>907</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -15528,11 +15699,11 @@
         <v>223</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="44" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>902</v>
+      <c r="D5" s="43" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>909</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -15545,113 +15716,113 @@
         <v>220</v>
       </c>
       <c r="C6" s="42"/>
-      <c r="D6" s="44" t="s">
-        <v>903</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>904</v>
+      <c r="D6" s="43" t="s">
+        <v>910</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>911</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="48" t="s">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>223</v>
       </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="44" t="s">
-        <v>905</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>906</v>
+      <c r="D7" s="43" t="s">
+        <v>912</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>913</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="48" t="s">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>223</v>
       </c>
       <c r="C8" s="42"/>
-      <c r="D8" s="44" t="s">
-        <v>907</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>908</v>
+      <c r="D8" s="43" t="s">
+        <v>914</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>915</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>223</v>
       </c>
       <c r="C9" s="42"/>
-      <c r="D9" s="44" t="s">
-        <v>911</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>912</v>
+      <c r="D9" s="43" t="s">
+        <v>918</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>919</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="48" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>223</v>
       </c>
       <c r="C10" s="42"/>
-      <c r="D10" s="44" t="s">
-        <v>913</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>914</v>
+      <c r="D10" s="43" t="s">
+        <v>920</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>921</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>223</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="44" t="s">
-        <v>915</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>916</v>
+      <c r="D11" s="43" t="s">
+        <v>922</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>923</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="48" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>223</v>
       </c>
       <c r="C12" s="42"/>
-      <c r="D12" s="44" t="s">
-        <v>917</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>918</v>
+      <c r="D12" s="43" t="s">
+        <v>924</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>925</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
@@ -15664,200 +15835,200 @@
         <v>223</v>
       </c>
       <c r="C13" s="42"/>
-      <c r="D13" s="44" t="s">
-        <v>919</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>920</v>
+      <c r="D13" s="43" t="s">
+        <v>926</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>927</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="48" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>221</v>
       </c>
       <c r="C14" s="42"/>
-      <c r="D14" s="44" t="s">
-        <v>921</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>922</v>
+      <c r="D14" s="43" t="s">
+        <v>928</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>929</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="48" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>221</v>
       </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="44" t="s">
-        <v>923</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>924</v>
+      <c r="D15" s="43" t="s">
+        <v>930</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>931</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>221</v>
       </c>
       <c r="C16" s="42"/>
-      <c r="D16" s="44" t="s">
-        <v>925</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>926</v>
+      <c r="D16" s="43" t="s">
+        <v>932</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>933</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="48" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>221</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="44" t="s">
-        <v>927</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>928</v>
+      <c r="D17" s="43" t="s">
+        <v>934</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>935</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="48" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>223</v>
       </c>
       <c r="C18" s="42"/>
-      <c r="D18" s="44" t="s">
-        <v>791</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>934</v>
+      <c r="D18" s="43" t="s">
+        <v>795</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>941</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="48" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>221</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>947</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>948</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>949</v>
+        <v>954</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>955</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>956</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="48" t="s">
-        <v>1013</v>
+        <v>1028</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>221</v>
       </c>
       <c r="C20" s="42"/>
-      <c r="D20" s="44" t="s">
-        <v>950</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>951</v>
+      <c r="D20" s="43" t="s">
+        <v>957</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>958</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="48" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>221</v>
       </c>
       <c r="C21" s="42"/>
-      <c r="D21" s="44" t="s">
-        <v>952</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>953</v>
+      <c r="D21" s="43" t="s">
+        <v>959</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>960</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="48" t="s">
-        <v>1015</v>
+        <v>1030</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>221</v>
       </c>
       <c r="C22" s="42"/>
-      <c r="D22" s="44" t="s">
-        <v>954</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>955</v>
+      <c r="D22" s="43" t="s">
+        <v>961</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>962</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="48" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>221</v>
       </c>
       <c r="C23" s="42"/>
-      <c r="D23" s="44" t="s">
-        <v>957</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>958</v>
+      <c r="D23" s="43" t="s">
+        <v>964</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>965</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="48" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>230</v>
       </c>
       <c r="C24" s="42"/>
-      <c r="D24" s="44" t="s">
-        <v>959</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>960</v>
+      <c r="D24" s="43" t="s">
+        <v>966</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>967</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
@@ -15870,28 +16041,28 @@
         <v>321</v>
       </c>
       <c r="C25" s="42"/>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="E25" s="44" t="s">
-        <v>961</v>
+      <c r="E25" s="43" t="s">
+        <v>968</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="48" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="B26" s="26" t="s">
         <v>223</v>
       </c>
       <c r="C26" s="42"/>
-      <c r="D26" s="44" t="s">
-        <v>968</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>969</v>
+      <c r="D26" s="43" t="s">
+        <v>975</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>976</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
@@ -15904,11 +16075,11 @@
         <v>220</v>
       </c>
       <c r="C27" s="42"/>
-      <c r="D27" s="44" t="s">
-        <v>978</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>979</v>
+      <c r="D27" s="43" t="s">
+        <v>985</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>986</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -15921,11 +16092,11 @@
         <v>223</v>
       </c>
       <c r="C28" s="42"/>
-      <c r="D28" s="44" t="s">
-        <v>985</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>986</v>
+      <c r="D28" s="43" t="s">
+        <v>996</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>997</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -15938,79 +16109,79 @@
         <v>351</v>
       </c>
       <c r="C29" s="42"/>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="43" t="s">
         <v>352</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="51" t="s">
-        <v>357</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>357</v>
+      <c r="A30" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>351</v>
       </c>
       <c r="C30" s="42"/>
-      <c r="D30" s="49" t="s">
-        <v>147</v>
+      <c r="D30" s="43" t="s">
+        <v>1032</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="51" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="49" t="s">
-        <v>971</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>972</v>
+        <v>147</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>1002</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>353</v>
+      <c r="A32" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>349</v>
       </c>
       <c r="C32" s="42"/>
-      <c r="D32" s="44" t="s">
-        <v>980</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>982</v>
+      <c r="D32" s="49" t="s">
+        <v>978</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>979</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="48" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C33" s="42"/>
-      <c r="D33" s="44" t="s">
-        <v>995</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>998</v>
+      <c r="D33" s="43" t="s">
+        <v>987</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>989</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
@@ -16023,11 +16194,11 @@
         <v>349</v>
       </c>
       <c r="C34" s="42"/>
-      <c r="D34" s="44" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>990</v>
+      <c r="D34" s="43" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>1010</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
@@ -16040,15 +16211,50 @@
         <v>349</v>
       </c>
       <c r="C35" s="42"/>
-      <c r="D35" s="44" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>996</v>
+      <c r="D35" s="43" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>1001</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
     </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:G2"/>
@@ -16072,12 +16278,12 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -16104,563 +16310,563 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>1020</v>
+        <v>1036</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>1021</v>
+        <v>1037</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1023</v>
+        <v>1039</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>1024</v>
+        <v>1040</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>1023</v>
+        <v>1039</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1026</v>
+        <v>1042</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>1027</v>
+        <v>1043</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>1021</v>
+        <v>1037</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1026</v>
+        <v>1042</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1028</v>
+        <v>1044</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>1029</v>
+        <v>1045</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1028</v>
+        <v>1044</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1030</v>
+        <v>1046</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>1031</v>
+        <v>1047</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>1021</v>
+        <v>1037</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>1030</v>
+        <v>1046</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1032</v>
+        <v>1048</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>1033</v>
+        <v>1049</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>1032</v>
+        <v>1048</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1034</v>
+        <v>1050</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>1035</v>
+        <v>1051</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>1021</v>
+        <v>1037</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>1034</v>
+        <v>1050</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1036</v>
+        <v>1052</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>1036</v>
+        <v>1052</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E10" s="55" t="s">
         <v>1038</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1040</v>
+        <v>1056</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1041</v>
+        <v>1057</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>1021</v>
+        <v>1037</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>1040</v>
+        <v>1056</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1042</v>
+        <v>1058</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>1043</v>
+        <v>1059</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>1042</v>
+        <v>1058</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1044</v>
+        <v>1060</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1045</v>
+        <v>1061</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>1044</v>
+        <v>1060</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1047</v>
+        <v>1063</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>1048</v>
+        <v>1064</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>1047</v>
+        <v>1063</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1049</v>
+        <v>1065</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>1050</v>
+        <v>1066</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>1051</v>
+        <v>1067</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1052</v>
+        <v>1068</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>1053</v>
+        <v>1069</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>1052</v>
+        <v>1068</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1054</v>
+        <v>1070</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>1055</v>
+        <v>1071</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>1054</v>
+        <v>1070</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1056</v>
+        <v>1072</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>1057</v>
+        <v>1073</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>1056</v>
+        <v>1072</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1058</v>
+        <v>1074</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>1059</v>
+        <v>1075</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1061</v>
+        <v>1077</v>
       </c>
       <c r="B20" s="52" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E20" s="57" t="s">
         <v>1062</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1063</v>
+        <v>1079</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>1064</v>
+        <v>1080</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>1063</v>
+        <v>1079</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>1066</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1067</v>
+        <v>1083</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>1068</v>
+        <v>1084</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>1069</v>
+        <v>1085</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1070</v>
+        <v>1086</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>1071</v>
+        <v>1087</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>1070</v>
+        <v>1086</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1072</v>
+        <v>1088</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>1073</v>
+        <v>1089</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>1072</v>
+        <v>1088</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1074</v>
+        <v>1090</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>1075</v>
+        <v>1091</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>1076</v>
+        <v>1092</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>1074</v>
+        <v>1090</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1077</v>
+        <v>1093</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>1078</v>
+        <v>1094</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>1079</v>
+        <v>1095</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1080</v>
+        <v>1096</v>
       </c>
       <c r="B27" s="61" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C27" s="63" t="s">
         <v>1081</v>
       </c>
-      <c r="C27" s="63" t="s">
-        <v>1065</v>
-      </c>
       <c r="D27" s="62" t="s">
-        <v>1082</v>
+        <v>1098</v>
       </c>
       <c r="E27" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1083</v>
+        <v>1099</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>1084</v>
+        <v>1100</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>1085</v>
+        <v>1101</v>
       </c>
       <c r="E28" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1086</v>
+        <v>1102</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>1087</v>
+        <v>1103</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>1088</v>
+        <v>1104</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1089</v>
+        <v>1105</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>1090</v>
+        <v>1106</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>1091</v>
+        <v>1107</v>
       </c>
       <c r="E30" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1092</v>
+        <v>1108</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>1093</v>
+        <v>1109</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1095</v>
+        <v>1111</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>1096</v>
+        <v>1112</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>1095</v>
+        <v>1111</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1097</v>
+        <v>1113</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>1098</v>
+        <v>1114</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>1097</v>
+        <v>1113</v>
       </c>
       <c r="E33" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1100</v>
+        <v>1116</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>1101</v>
+        <v>1117</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>1100</v>
+        <v>1116</v>
       </c>
       <c r="E34" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -16694,7 +16900,7 @@
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -16721,274 +16927,274 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1102</v>
+        <v>1118</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>1103</v>
+        <v>1119</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="54" t="s">
-        <v>1102</v>
+        <v>1118</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>1066</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1104</v>
+        <v>1120</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>1105</v>
+        <v>1121</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>1106</v>
+        <v>1122</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>1104</v>
+        <v>1120</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1107</v>
+        <v>1123</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>1108</v>
+        <v>1124</v>
       </c>
       <c r="C4" s="53"/>
       <c r="D4" s="54" t="s">
-        <v>1107</v>
+        <v>1123</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1109</v>
+        <v>1125</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>1110</v>
+        <v>1126</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="54" t="s">
-        <v>1109</v>
+        <v>1125</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1111</v>
+        <v>1127</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>1112</v>
+        <v>1128</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="54" t="s">
-        <v>1111</v>
+        <v>1127</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1113</v>
+        <v>1129</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>1114</v>
+        <v>1130</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="54" t="s">
-        <v>1113</v>
+        <v>1129</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1115</v>
+        <v>1131</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>1116</v>
+        <v>1132</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="54" t="s">
-        <v>1115</v>
+        <v>1131</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1117</v>
+        <v>1133</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>1118</v>
+        <v>1134</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="54" t="s">
-        <v>1117</v>
+        <v>1133</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1119</v>
+        <v>1135</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1120</v>
+        <v>1136</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="54" t="s">
-        <v>1119</v>
+        <v>1135</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1121</v>
+        <v>1137</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1122</v>
+        <v>1138</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="54" t="s">
-        <v>1121</v>
+        <v>1137</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1123</v>
+        <v>1139</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>1124</v>
+        <v>1140</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="54" t="s">
-        <v>1123</v>
+        <v>1139</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1125</v>
+        <v>1141</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1126</v>
+        <v>1142</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="54" t="s">
-        <v>1125</v>
+        <v>1141</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1127</v>
+        <v>1143</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>1128</v>
+        <v>1144</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54" t="s">
-        <v>1127</v>
+        <v>1143</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1129</v>
+        <v>1145</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>1130</v>
+        <v>1146</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="54" t="s">
-        <v>1129</v>
+        <v>1145</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1131</v>
+        <v>1147</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>1132</v>
+        <v>1148</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="54" t="s">
-        <v>1131</v>
+        <v>1147</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1133</v>
+        <v>1149</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>1134</v>
+        <v>1150</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="54" t="s">
-        <v>1133</v>
+        <v>1149</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1135</v>
+        <v>1151</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>1136</v>
+        <v>1152</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="54" t="s">
-        <v>1135</v>
+        <v>1151</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1137</v>
+        <v>1153</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>1138</v>
+        <v>1154</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="54" t="s">
-        <v>1137</v>
+        <v>1153</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -17019,7 +17225,7 @@
       <selection pane="bottomRight" activeCell="AQ9" activeCellId="0" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.27"/>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">Oil</t>
   </si>
   <si>
-    <t xml:space="preserve">Heat energy output from centralised resistive heaters</t>
+    <t xml:space="preserve">Heat energy output from centralised electric boilers</t>
   </si>
   <si>
     <t xml:space="preserve">prbchresh</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">prbchreshh</t>
   </si>
   <si>
-    <t xml:space="preserve">Losses from centralised resistive heaters</t>
+    <t xml:space="preserve">Losses from centralised electric boilers</t>
   </si>
   <si>
     <t xml:space="preserve">losselchh</t>
@@ -2774,35 +2774,7 @@
     <t xml:space="preserve">presvapcfdhs</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Residential </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ambient </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">rural  heat pumps</t>
-    </r>
+    <t xml:space="preserve">Residential  ambient rural  heat pumps</t>
   </si>
   <si>
     <t xml:space="preserve">prespaccfres</t>
@@ -2811,35 +2783,7 @@
     <t xml:space="preserve">prespaccfra</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Residential </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ambient </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">urban heat pumps</t>
-    </r>
+    <t xml:space="preserve">Residential  ambient urban heat pumps</t>
   </si>
   <si>
     <t xml:space="preserve">prespaccfraa</t>
@@ -4550,7 +4494,7 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0%"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4624,12 +4568,6 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5130,15 +5068,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5146,7 +5084,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5158,11 +5096,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5170,7 +5108,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5194,11 +5132,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5588,10 +5526,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D4" activeCellId="1" sqref="193:193 D4"/>
+      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.91"/>
@@ -6196,10 +6134,10 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="193:193 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6844,10 +6782,10 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="1" sqref="193:193 F31"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7498,10 +7436,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C4" activeCellId="1" sqref="193:193 C4"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.28"/>
@@ -7682,14 +7620,14 @@
   <dimension ref="A1:T106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
-      <selection pane="bottomRight" activeCell="J86" activeCellId="1" sqref="193:193 J86"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="J86" activeCellId="0" sqref="J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.36"/>
@@ -10302,12 +10240,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A193" activeCellId="0" sqref="193:193"/>
+      <selection pane="bottomLeft" activeCell="D88" activeCellId="0" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -16059,10 +15997,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A71" activeCellId="1" sqref="193:193 A71"/>
+      <selection pane="bottomLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -17582,10 +17520,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B37" activeCellId="1" sqref="193:193 B37"/>
+      <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -18478,10 +18416,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B26" activeCellId="1" sqref="193:193 B26"/>
+      <selection pane="bottomLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -19095,10 +19033,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="1" sqref="193:193 B2"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -19420,10 +19358,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ9" activeCellId="1" sqref="193:193 AQ9"/>
+      <selection pane="bottomRight" activeCell="AQ9" activeCellId="0" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.27"/>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" state="visible" r:id="rId2"/>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">CRF1A1B-CRF1A1C</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuel combustion - industry</t>
+    <t xml:space="preserve">Fuel usage - industry</t>
   </si>
   <si>
     <t xml:space="preserve">CRF1A2</t>
@@ -5560,7 +5560,7 @@
       <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.91"/>
@@ -5686,7 +5686,7 @@
       <c r="B11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="b">
+      <c r="C11" s="0" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5698,7 +5698,7 @@
       <c r="B12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="b">
+      <c r="C12" s="0" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5710,7 +5710,7 @@
       <c r="B13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="b">
+      <c r="C13" s="0" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5722,7 +5722,7 @@
       <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2" t="b">
+      <c r="C14" s="0" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5734,7 +5734,7 @@
       <c r="B15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="b">
+      <c r="C15" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5746,7 +5746,7 @@
       <c r="B16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2" t="b">
+      <c r="C16" s="0" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5758,7 +5758,7 @@
       <c r="B17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2" t="b">
+      <c r="C17" s="0" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5770,7 +5770,7 @@
       <c r="B18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2" t="b">
+      <c r="C18" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5782,7 +5782,7 @@
       <c r="B19" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2" t="b">
+      <c r="C19" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5794,7 +5794,7 @@
       <c r="B20" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2" t="b">
+      <c r="C20" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5806,7 +5806,7 @@
       <c r="B21" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2" t="b">
+      <c r="C21" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5818,7 +5818,7 @@
       <c r="B22" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="2" t="b">
+      <c r="C22" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5830,7 +5830,7 @@
       <c r="B23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="2" t="b">
+      <c r="C23" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5842,7 +5842,7 @@
       <c r="B24" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="2" t="b">
+      <c r="C24" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5854,7 +5854,7 @@
       <c r="B25" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2" t="b">
+      <c r="C25" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5866,7 +5866,7 @@
       <c r="B26" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="2" t="b">
+      <c r="C26" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5934,7 +5934,7 @@
       <c r="B32" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="2" t="b">
+      <c r="C32" s="0" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5946,7 +5946,7 @@
       <c r="B33" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="2" t="b">
+      <c r="C33" s="0" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5958,7 +5958,7 @@
       <c r="B34" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="2" t="b">
+      <c r="C34" s="0" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6082,7 +6082,7 @@
       <c r="B45" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="2" t="b">
+      <c r="C45" s="0" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="B46" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="2" t="b">
+      <c r="C46" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6168,7 +6168,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6816,7 +6816,7 @@
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7470,7 +7470,7 @@
       <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.28"/>
@@ -7650,15 +7650,15 @@
   </sheetPr>
   <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D65" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D67" activeCellId="0" sqref="D67"/>
+      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="C73" activeCellId="0" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.36"/>
@@ -10298,13 +10298,13 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E304" activeCellId="0" sqref="E304"/>
+      <selection pane="bottomLeft" activeCell="C263" activeCellId="0" sqref="C263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -16070,12 +16070,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E75" activeCellId="0" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -17609,12 +17609,12 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -18527,7 +18527,7 @@
       <selection pane="bottomLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -19144,7 +19144,7 @@
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -19469,7 +19469,7 @@
       <selection pane="bottomRight" activeCell="AQ9" activeCellId="0" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.27"/>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" state="visible" r:id="rId2"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="1289">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -3516,6 +3516,9 @@
   </si>
   <si>
     <t xml:space="preserve">emmindatmbm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BECCUS</t>
   </si>
   <si>
     <t xml:space="preserve">emmindbeccs</t>
@@ -5560,7 +5563,7 @@
       <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.91"/>
@@ -5686,7 +5689,7 @@
       <c r="B11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="0" t="b">
+      <c r="C11" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5698,7 +5701,7 @@
       <c r="B12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="0" t="b">
+      <c r="C12" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5710,7 +5713,7 @@
       <c r="B13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="0" t="b">
+      <c r="C13" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5722,7 +5725,7 @@
       <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="b">
+      <c r="C14" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5734,7 +5737,7 @@
       <c r="B15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="0" t="b">
+      <c r="C15" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5746,7 +5749,7 @@
       <c r="B16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="0" t="b">
+      <c r="C16" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5758,7 +5761,7 @@
       <c r="B17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="0" t="b">
+      <c r="C17" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5770,7 +5773,7 @@
       <c r="B18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="0" t="b">
+      <c r="C18" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5782,7 +5785,7 @@
       <c r="B19" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="0" t="b">
+      <c r="C19" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5794,7 +5797,7 @@
       <c r="B20" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="0" t="b">
+      <c r="C20" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5806,7 +5809,7 @@
       <c r="B21" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="0" t="b">
+      <c r="C21" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5818,7 +5821,7 @@
       <c r="B22" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="0" t="b">
+      <c r="C22" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5830,7 +5833,7 @@
       <c r="B23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="0" t="b">
+      <c r="C23" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5842,7 +5845,7 @@
       <c r="B24" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="0" t="b">
+      <c r="C24" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5854,7 +5857,7 @@
       <c r="B25" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="0" t="b">
+      <c r="C25" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5866,7 +5869,7 @@
       <c r="B26" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="0" t="b">
+      <c r="C26" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5934,7 +5937,7 @@
       <c r="B32" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="0" t="b">
+      <c r="C32" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5946,7 +5949,7 @@
       <c r="B33" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="0" t="b">
+      <c r="C33" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5958,7 +5961,7 @@
       <c r="B34" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="0" t="b">
+      <c r="C34" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6082,7 +6085,7 @@
       <c r="B45" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="0" t="b">
+      <c r="C45" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6094,7 +6097,7 @@
       <c r="B46" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="0" t="b">
+      <c r="C46" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6168,11 +6171,11 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>2020</v>
@@ -6189,7 +6192,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10</v>
@@ -6204,12 +6207,12 @@
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -6224,12 +6227,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.6</v>
@@ -6244,12 +6247,12 @@
         <v>0.6</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -6264,12 +6267,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1.28</v>
@@ -6284,12 +6287,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>47</v>
@@ -6304,12 +6307,12 @@
         <v>40</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>20</v>
@@ -6324,12 +6327,12 @@
         <v>0</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -6344,12 +6347,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -6364,12 +6367,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -6384,12 +6387,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -6404,12 +6407,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6424,12 +6427,12 @@
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>8</v>
@@ -6444,12 +6447,12 @@
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>16</v>
@@ -6464,12 +6467,12 @@
         <v>16</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>19</v>
@@ -6484,12 +6487,12 @@
         <v>19</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>31</v>
@@ -6504,12 +6507,12 @@
         <v>20</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6524,12 +6527,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6544,12 +6547,12 @@
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6564,12 +6567,12 @@
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>107</v>
@@ -6584,12 +6587,12 @@
         <v>107</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1000</v>
@@ -6604,12 +6607,12 @@
         <v>1000</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>43</v>
@@ -6624,12 +6627,12 @@
         <v>43</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -6644,12 +6647,12 @@
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>68</v>
@@ -6664,12 +6667,12 @@
         <v>68</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -6684,12 +6687,12 @@
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -6704,12 +6707,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -6724,12 +6727,12 @@
         <v>0</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>351</v>
@@ -6744,12 +6747,12 @@
         <v>341</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">SUM(B2:B29)</f>
@@ -6816,11 +6819,11 @@
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>2020</v>
@@ -6837,7 +6840,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>6.5</v>
@@ -6852,12 +6855,12 @@
         <v>4</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -6872,12 +6875,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6892,12 +6895,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -6912,12 +6915,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1.36</v>
@@ -6932,12 +6935,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>38</v>
@@ -6952,12 +6955,12 @@
         <v>30</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>42</v>
@@ -6972,12 +6975,12 @@
         <v>0</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -6992,12 +6995,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -7012,12 +7015,12 @@
         <v>1</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -7032,12 +7035,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -7052,12 +7055,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>9</v>
@@ -7072,12 +7075,12 @@
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>8</v>
@@ -7092,12 +7095,12 @@
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -7112,12 +7115,12 @@
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -7132,12 +7135,12 @@
         <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>60</v>
@@ -7152,12 +7155,12 @@
         <v>60</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -7172,12 +7175,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -7192,12 +7195,12 @@
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -7212,12 +7215,12 @@
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>12</v>
@@ -7232,12 +7235,12 @@
         <v>12</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1076</v>
@@ -7252,12 +7255,12 @@
         <v>1000</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>11</v>
@@ -7272,12 +7275,12 @@
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7292,12 +7295,12 @@
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>40</v>
@@ -7312,12 +7315,12 @@
         <v>40</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7332,12 +7335,12 @@
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -7352,12 +7355,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2.4</v>
@@ -7372,12 +7375,12 @@
         <v>2.4</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>616</v>
@@ -7392,12 +7395,12 @@
         <v>600</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">SUM(B2:B29)</f>
@@ -7470,7 +7473,7 @@
       <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.28"/>
@@ -7650,15 +7653,15 @@
   </sheetPr>
   <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D65" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+      <selection pane="bottomLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
       <selection pane="bottomRight" activeCell="C73" activeCellId="0" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.36"/>
@@ -10299,12 +10302,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C263" activeCellId="0" sqref="C263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -16069,13 +16072,13 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E75" activeCellId="0" sqref="E75"/>
+      <selection pane="bottomLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -16840,7 +16843,7 @@
         <v>333</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C44" s="43"/>
       <c r="D44" s="44" t="s">
@@ -16854,17 +16857,17 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="49" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B45" s="27" t="s">
         <v>335</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="44" t="s">
-        <v>362</v>
+        <v>1028</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F45" s="43"/>
       <c r="G45" s="43"/>
@@ -16878,10 +16881,10 @@
       </c>
       <c r="C46" s="43"/>
       <c r="D46" s="44" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="43"/>
@@ -16895,10 +16898,10 @@
       </c>
       <c r="C47" s="43"/>
       <c r="D47" s="44" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="43"/>
@@ -16912,10 +16915,10 @@
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="44" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="43"/>
@@ -16929,10 +16932,10 @@
       </c>
       <c r="C49" s="43"/>
       <c r="D49" s="44" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E49" s="51" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="43"/>
@@ -16946,10 +16949,10 @@
       </c>
       <c r="C50" s="43"/>
       <c r="D50" s="44" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
@@ -16966,7 +16969,7 @@
         <v>365</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
@@ -16983,7 +16986,7 @@
         <v>365</v>
       </c>
       <c r="E52" s="51" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
@@ -16997,10 +17000,10 @@
       </c>
       <c r="C53" s="43"/>
       <c r="D53" s="44" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E53" s="51" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F53" s="43"/>
       <c r="G53" s="43"/>
@@ -17016,10 +17019,10 @@
         <v>398</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="43"/>
@@ -17033,10 +17036,10 @@
       </c>
       <c r="C55" s="43"/>
       <c r="D55" s="44" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E55" s="51" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="43"/>
@@ -17050,10 +17053,10 @@
       </c>
       <c r="C56" s="43"/>
       <c r="D56" s="44" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E56" s="51" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="43"/>
@@ -17070,7 +17073,7 @@
         <v>523</v>
       </c>
       <c r="E57" s="51" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="43"/>
@@ -17080,31 +17083,31 @@
         <v>333</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C58" s="43"/>
       <c r="D58" s="44" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E58" s="51" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="43"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="49" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B59" s="27" t="s">
         <v>335</v>
       </c>
       <c r="C59" s="43"/>
       <c r="D59" s="44" t="s">
-        <v>1046</v>
+        <v>1028</v>
       </c>
       <c r="E59" s="51" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="43"/>
@@ -17121,7 +17124,7 @@
         <v>371</v>
       </c>
       <c r="E60" s="51" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F60" s="43"/>
       <c r="G60" s="43"/>
@@ -17138,7 +17141,7 @@
         <v>373</v>
       </c>
       <c r="E61" s="51" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F61" s="43"/>
       <c r="G61" s="43"/>
@@ -17152,10 +17155,10 @@
       </c>
       <c r="C62" s="43"/>
       <c r="D62" s="44" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E62" s="44" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="43"/>
@@ -17169,10 +17172,10 @@
       </c>
       <c r="C63" s="43"/>
       <c r="D63" s="44" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E63" s="44" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F63" s="43"/>
       <c r="G63" s="43"/>
@@ -17186,10 +17189,10 @@
       </c>
       <c r="C64" s="43"/>
       <c r="D64" s="44" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E64" s="44" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F64" s="43"/>
       <c r="G64" s="43"/>
@@ -17203,10 +17206,10 @@
       </c>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E65" s="44" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="F65" s="43"/>
       <c r="G65" s="43"/>
@@ -17220,10 +17223,10 @@
       </c>
       <c r="C66" s="43"/>
       <c r="D66" s="44" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E66" s="44" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="F66" s="43"/>
       <c r="G66" s="43"/>
@@ -17237,10 +17240,10 @@
       </c>
       <c r="C67" s="43"/>
       <c r="D67" s="44" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E67" s="44" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F67" s="43"/>
       <c r="G67" s="43"/>
@@ -17254,10 +17257,10 @@
       </c>
       <c r="C68" s="43"/>
       <c r="D68" s="44" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E68" s="44" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="F68" s="43"/>
       <c r="G68" s="43"/>
@@ -17271,10 +17274,10 @@
       </c>
       <c r="C69" s="43"/>
       <c r="D69" s="44" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F69" s="43"/>
       <c r="G69" s="43"/>
@@ -17288,10 +17291,10 @@
       </c>
       <c r="C70" s="43"/>
       <c r="D70" s="44" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E70" s="44" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="F70" s="43"/>
       <c r="G70" s="43"/>
@@ -17305,10 +17308,10 @@
       </c>
       <c r="C71" s="43"/>
       <c r="D71" s="44" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E71" s="44" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F71" s="43"/>
       <c r="G71" s="43"/>
@@ -17322,10 +17325,10 @@
       </c>
       <c r="C72" s="43"/>
       <c r="D72" s="44" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E72" s="44" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F72" s="43"/>
       <c r="G72" s="43"/>
@@ -17342,7 +17345,7 @@
         <v>381</v>
       </c>
       <c r="E73" s="50" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F73" s="43"/>
       <c r="G73" s="43"/>
@@ -17356,10 +17359,10 @@
       </c>
       <c r="C74" s="43"/>
       <c r="D74" s="50" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="F74" s="43"/>
       <c r="G74" s="43"/>
@@ -17373,10 +17376,10 @@
       </c>
       <c r="C75" s="43"/>
       <c r="D75" s="50" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E75" s="50" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F75" s="43"/>
       <c r="G75" s="43"/>
@@ -17609,12 +17612,12 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
+      <selection pane="bottomLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -17708,7 +17711,7 @@
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="44" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E5" s="44" t="s">
         <v>957</v>
@@ -17735,7 +17738,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>227</v>
@@ -17752,7 +17755,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="49" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>227</v>
@@ -17769,7 +17772,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>227</v>
@@ -17786,7 +17789,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>227</v>
@@ -17803,7 +17806,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>227</v>
@@ -17820,7 +17823,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>227</v>
@@ -17854,7 +17857,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>225</v>
@@ -17871,7 +17874,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>225</v>
@@ -17888,7 +17891,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>225</v>
@@ -17905,7 +17908,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>225</v>
@@ -17922,7 +17925,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>227</v>
@@ -17939,7 +17942,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>225</v>
@@ -17958,7 +17961,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="49" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>225</v>
@@ -17975,7 +17978,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="49" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>225</v>
@@ -17992,7 +17995,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="49" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>225</v>
@@ -18009,7 +18012,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="49" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>225</v>
@@ -18026,7 +18029,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="49" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>234</v>
@@ -18060,7 +18063,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>227</v>
@@ -18084,10 +18087,10 @@
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="44" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
@@ -18101,10 +18104,10 @@
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="44" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
@@ -18121,7 +18124,7 @@
         <v>365</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
@@ -18135,10 +18138,10 @@
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="44" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
@@ -18155,17 +18158,17 @@
         <v>371</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="52" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="50" t="s">
@@ -18186,61 +18189,61 @@
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="44" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E33" s="51" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="49" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="44" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="49" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="44" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="44" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
@@ -18254,17 +18257,17 @@
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="44" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>345</v>
@@ -18298,7 +18301,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>345</v>
@@ -18332,7 +18335,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>345</v>
@@ -18366,7 +18369,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B44" s="27" t="s">
         <v>345</v>
@@ -18400,7 +18403,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B46" s="27" t="s">
         <v>345</v>
@@ -18434,17 +18437,17 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="49" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="44" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="43"/>
@@ -18458,10 +18461,10 @@
       </c>
       <c r="C49" s="43"/>
       <c r="D49" s="44" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="43"/>
@@ -18475,10 +18478,10 @@
       </c>
       <c r="C50" s="43"/>
       <c r="D50" s="44" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
@@ -18492,10 +18495,10 @@
       </c>
       <c r="C51" s="43"/>
       <c r="D51" s="44" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
@@ -18527,7 +18530,7 @@
       <selection pane="bottomLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -18554,563 +18557,563 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B2" s="53" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>1085</v>
       </c>
-      <c r="C2" s="54" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>1084</v>
-      </c>
       <c r="E2" s="56" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E3" s="56" t="s">
         <v>1088</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B4" s="53" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>1092</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>1091</v>
-      </c>
       <c r="E4" s="56" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B5" s="53" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>1094</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>1093</v>
-      </c>
       <c r="E5" s="56" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B6" s="53" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>1096</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>1095</v>
-      </c>
       <c r="E6" s="56" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B7" s="53" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>1098</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>1097</v>
-      </c>
       <c r="E7" s="56" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B8" s="53" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>1100</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>1099</v>
-      </c>
       <c r="E8" s="56" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B9" s="53" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>1102</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>1101</v>
-      </c>
       <c r="E9" s="56" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B10" s="53" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>1104</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>1103</v>
-      </c>
       <c r="E10" s="56" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B11" s="53" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>1106</v>
       </c>
-      <c r="C11" s="54" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>1105</v>
-      </c>
       <c r="E11" s="56" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B12" s="53" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D12" s="55" t="s">
         <v>1108</v>
       </c>
-      <c r="C12" s="54" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>1107</v>
-      </c>
       <c r="E12" s="56" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B13" s="53" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D13" s="55" t="s">
         <v>1110</v>
       </c>
-      <c r="C13" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>1109</v>
-      </c>
       <c r="E13" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E14" s="58" t="s">
         <v>1112</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B16" s="53" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D16" s="55" t="s">
         <v>1118</v>
       </c>
-      <c r="C16" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>1117</v>
-      </c>
       <c r="E16" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B17" s="53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D17" s="55" t="s">
         <v>1120</v>
       </c>
-      <c r="C17" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>1119</v>
-      </c>
       <c r="E17" s="56" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B18" s="53" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D18" s="55" t="s">
         <v>1122</v>
       </c>
-      <c r="C18" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>1121</v>
-      </c>
       <c r="E18" s="56" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B20" s="53" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D20" s="55" t="s">
         <v>1127</v>
       </c>
-      <c r="C20" s="54" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>1126</v>
-      </c>
       <c r="E20" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B21" s="60" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D21" s="55" t="s">
         <v>1129</v>
       </c>
-      <c r="C21" s="54" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>1128</v>
-      </c>
       <c r="E21" s="56" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B23" s="53" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D23" s="55" t="s">
         <v>1136</v>
       </c>
-      <c r="C23" s="54" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>1135</v>
-      </c>
       <c r="E23" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B24" s="53" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D24" s="55" t="s">
         <v>1138</v>
       </c>
-      <c r="C24" s="54" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>1137</v>
-      </c>
       <c r="E24" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B25" s="53" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D25" s="55" t="s">
         <v>1140</v>
       </c>
-      <c r="C25" s="54" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>1139</v>
-      </c>
       <c r="E25" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D26" s="63" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D31" s="63" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B32" s="53" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D32" s="55" t="s">
         <v>1161</v>
       </c>
-      <c r="C32" s="54" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>1160</v>
-      </c>
       <c r="E32" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B33" s="59" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D33" s="63" t="s">
         <v>1163</v>
       </c>
-      <c r="C33" s="57" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>1162</v>
-      </c>
       <c r="E33" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C34" s="57" t="s">
         <v>1165</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="D34" s="55" t="s">
         <v>1166</v>
       </c>
-      <c r="C34" s="57" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>1165</v>
-      </c>
       <c r="E34" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
@@ -19144,7 +19147,7 @@
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -19171,274 +19174,274 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="55" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B3" s="53" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>1170</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>1169</v>
-      </c>
       <c r="E3" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="55" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="55" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="55" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="55" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="55" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="55" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="55" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="55" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="55" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="55" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="55" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C15" s="54"/>
       <c r="D15" s="55" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="55" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="55" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="55" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="55" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
@@ -19469,7 +19472,7 @@
       <selection pane="bottomRight" activeCell="AQ9" activeCellId="0" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.27"/>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" state="visible" r:id="rId2"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="1288">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -4423,9 +4423,6 @@
   </si>
   <si>
     <t xml:space="preserve">GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.thinkgeoenergy.com/austrian-oil-gas-and-chemicals-company-to-pivot-to-geothermal/</t>
@@ -5563,7 +5560,7 @@
       <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.91"/>
@@ -6165,13 +6162,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6748,27 +6745,6 @@
       </c>
       <c r="F29" s="0" t="s">
         <v>1247</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <f aca="false">SUM(B2:B29)</f>
-        <v>1721.88</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <f aca="false">SUM(C2:C29)</f>
-        <v>1833.6</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <f aca="false">SUM(D2:D29)</f>
-        <v>1702.6</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <f aca="false">SUM(E2:E29)</f>
-        <v>1665.6</v>
       </c>
     </row>
   </sheetData>
@@ -6813,13 +6789,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6855,7 +6831,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6875,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6895,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6915,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6935,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6955,7 +6931,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6975,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6995,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7015,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7035,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7075,7 +7051,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7095,7 +7071,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7115,7 +7091,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7135,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7155,7 +7131,7 @@
         <v>60</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7195,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7215,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7235,7 +7211,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7255,7 +7231,7 @@
         <v>1000</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7275,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7295,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7315,7 +7291,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7335,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7355,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7375,7 +7351,7 @@
         <v>2.4</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7395,28 +7371,7 @@
         <v>600</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <f aca="false">SUM(B2:B29)</f>
-        <v>1936.26</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <f aca="false">SUM(C2:C29)</f>
-        <v>1917.4</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <f aca="false">SUM(D2:D29)</f>
-        <v>1814.4</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <f aca="false">SUM(E2:E29)</f>
-        <v>1779.4</v>
+        <v>1287</v>
       </c>
     </row>
   </sheetData>
@@ -7473,7 +7428,7 @@
       <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.28"/>
@@ -7661,7 +7616,7 @@
       <selection pane="bottomRight" activeCell="C73" activeCellId="0" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.36"/>
@@ -10307,7 +10262,7 @@
       <selection pane="bottomLeft" activeCell="C263" activeCellId="0" sqref="C263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -16072,13 +16027,13 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -17617,7 +17572,7 @@
       <selection pane="bottomLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -18530,7 +18485,7 @@
       <selection pane="bottomLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -19147,7 +19102,7 @@
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -19472,7 +19427,7 @@
       <selection pane="bottomRight" activeCell="AQ9" activeCellId="0" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.27"/>

--- a/SEPIA/SEPIA_config.xlsx
+++ b/SEPIA/SEPIA_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" state="visible" r:id="rId2"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="1289">
   <si>
     <t xml:space="preserve">Sheet</t>
   </si>
@@ -1529,2023 +1529,2026 @@
     <t xml:space="preserve">blg_ghg</t>
   </si>
   <si>
+    <t xml:space="preserve">biogas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blq_ghg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass to liquid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp_ghg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imported methanol emmissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dac_ghg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2 sequestration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext_ghg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export oil emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exg_ghg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export gas emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hth_ghg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imported methanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eth_ghg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exported Methanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agh_ghg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHG Agriculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic production of uranium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prodomura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic production of solid fossil fuels (coal…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prodomcms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic petroleum production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prodompet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic natural gas production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prodomgaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic production of solid biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prodomboi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestivc production of biogas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probiogasb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomethane injected directly into the gas network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prodombgr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomethane injected directly into the gas network CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prodombgrcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass liquefaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proboilqf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmboilqf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar photovoltaic Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prospv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar photovoltaic Production rooftop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prospvr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onshore wind-generated electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offshore wind-generated electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proeof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proeofac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proeofdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marine energy Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proenm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydropower production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prohdr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydropower production ror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prohdror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-temperature geothermal energy &amp; CSP production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proght</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuclear production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proelcnuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelcnuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proelcura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal-fired power generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proelccms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelccms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal-fired power generation lignite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proelign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil-fired power generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proelcpet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelcpet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas-fired power generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proelcgaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelcgaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCGT generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proelcgazoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCGT losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proelcgazoclo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy production from solid biomass power plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proelcboi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelcboi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste-fired power generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proelcwst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelcwst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfdfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfsfsfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen power generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proelchyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelchyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power output from coal-fired CHP plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbelcchpcms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelcchpcms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power output from oil-fired CHP plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbelcchppet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelcchppet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power output from methane-fired CHP plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbelcchpgaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelcchpgaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power output from gas fired CHP CC plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbelcchpccgaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power output from biogas-fired CHP plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbelcchpbgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelcchpbgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power output from solid biomass CHP plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbelcchpboi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelcchpboi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power output solid biomass chp CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbelccbmcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power output from waste-to-energy CHP plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbelcchpwst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelcchpwst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gegerg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power output from geothermal CHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbelcchpgeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelcchpgeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power output from hydrogen CHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbelcchphyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmelcchphyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">els</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production of H2 via electrolysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prohyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production of methanol via methanolisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promethanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity to methanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pretareen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methanation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production of ammonia from electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prohydcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmhydcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production losses of ammonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prohydclam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production of ammonia from hydrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prohydclamm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production of H2 via steam methane reforming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prohydgaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmsmr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production of H2 via steam methane reforming CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prohydgazcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steam Methane reforming H2 production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prohydfesmr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probmliqu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass to liquid losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probmliqlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery charger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probattchg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery charger losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probattchlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery discharger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probattdhg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery discharger losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probattdhlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fischer-Tropsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profischer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fischer-Tropsch heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profischerh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fischer-Tropsch losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profischerlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from coal-fired CHP plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbvapchpcms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmvapchpcms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal cogeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from oil-fired CHP plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbvapchppet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmvapchppet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil cogeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from methane-fired CHP plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbvapchpgaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmvapchpgaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas network cogeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from methane-fired CHP CC plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbvapchpccgaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from biogas-fired CHP plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbvapchpbgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmvapchpbgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biogas cogeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from solid biomass CHP plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbvapchpboi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmvapchpboi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid biomass cogeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat out put solid biomass CHP CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbelccbmcch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from waste-to-energy CHP plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbvapchpwst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmvapchpwst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste cogeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from geothermal CHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbvapchpgeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmvapchpgeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geothermal heat cogeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from hydrogen CHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbvapchphyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmvapchphyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen cogeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from heat recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchfat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from household waste incineration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmrchinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from geothermal energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchgeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geothermal heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from solid biomass boilers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchboi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmrchboi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from gas-fired boilers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchgaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmrchgaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gas-fired boilers losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchgazzloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from oil-fired boilers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchpet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmrchpet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from centralised electric boilers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbchresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbchreshh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losses from centralised electric boilers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">losselchh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from coal-fired boilers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchcms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmrchcms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from centralised solar thermal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchsth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centralised solar thermal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from centralised heat pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchpac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmrchpac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centralised heat pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchpacc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from centralised electric heat pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchpee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchpeee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchpeeee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat energy output from hydrogen boilers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbrchhyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdmrchhyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (nuclear powerplants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossnuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (coal-fired powerplants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">losscoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (coal-fired powerplants) lignite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">losslig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (oil-fired powerplants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (gas-fired powerplants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossgas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (solid biomass powerplants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (waste-fired powerplants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iuygg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (hydrogen powerplants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fftfy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (coal-fired CHP plants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scvqs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (oil-fired CHP plants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csqz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (methane-fired CHP plants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dqzf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (methane-fired CHP CC plants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossgazchpcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (biogas-fired CHP plants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfqf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (solid biomass CHP plants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossbchp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">losses solid biomass chp CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prbelccbmccl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (waste-to-energy CHP plants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zfazfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fzza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (geothermal CHP plants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fzeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses methanolisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (hydrogen CHP plants)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afzf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (electrolysis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">losshely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (steam methane reforming)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossmr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossmrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (heat recovery)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efzz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (household waste incineration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fzfaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (geothermal energy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fqzfzef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (solid biomass residential rural boilers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (solid biomass tertiary rural boilers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossbbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (solid biomass residential urban boilers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">losssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (solid biomass tertiary urban boilers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">losssbbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (gas-fired residential rural boilers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossgb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (gas-fired tertiary rural boilers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossgbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (gas-fired residential urban boilers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossgbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (gas-fired tertiary urban boilers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossgbss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (oil-fired residential rural boilers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (oil-fired tertiary rural boilers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossobb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (oil-fired residential urban boilers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (oil-fired tertiary urban boilers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossobss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (coal-fired boilers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efzef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (centralised solar thermal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (centralised heat pumps)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">losshp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (hydrogen boilers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zfzf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (resistive heaters residential rural)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossrh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (resistive heaters tertiary rural)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossrhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (resistive heaters residential urban)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossrhs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (resistive heaters tertiary urban)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossrhss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (resistive heaters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossrhsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossrhshs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossrhshsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossrhshss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossrhx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossrhxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossrhy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossrhyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas grid distribution &amp; storage losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fzzaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat network distribution losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen distribution &amp; storage losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fazfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (methanation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presabaloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses (biomass liquefaction)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fzafz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses biomass for industry CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossbmind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation losses gas for industry CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lossgasind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prescmscfres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential and tertiary biomass for heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presenccfres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presenccfb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presenccfbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presenccfbbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential and tertiary oil for heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespetcfres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespetcfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespetcfoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespetcfooo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential and tertiary gas for heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presgazcfres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presgazcfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presgazcfgg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presgazcfggg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity demand of residential and tertairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preselccfres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential rural heat pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehhp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehhpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential urban heat pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehhhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertairy rural heat pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehppp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertairy urban heat pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehplm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertairy urban heatpumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehplmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential rural electric heaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehpln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehplnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential urban electric heaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehplx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehplxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertairy rural electric heaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehplyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertairy urban electric heaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehplyyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehplz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential and tertairy heat from electric heaters and pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehpx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehpxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preehpyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity demand for rail network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preserail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential and tertiary DH demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presvapcfdhs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential  ambient rural  heat pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespaccfres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespaccfra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential  ambient urban heat pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespaccfraa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespaccfaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertiary rural ambient heat pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespaccfta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertiary rural heat pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespaccftaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertiary urban ambient heat pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespaccfftt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertiary urban heat pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespaccffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressthcfres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prescmscfter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presenccfter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespetcfter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presgazcfter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preselccfter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presvapcfter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespaccfter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressthcfter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil to transport demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preslqfcftra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presgazcftra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">land transport hydrogen demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preshydcftra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">land transport EV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preselccftra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aviation oil demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preslqfcfavi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shipping oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preslqfcffrewati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shipping methanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presngvcffrewati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shipping hydrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preshydwati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prescmscfind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solid biomass for Industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presenccfind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solid biomass for Industry CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presenccfindd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespetcfind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gas for industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presgazcfind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gas for industry CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presgazcfindd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity for industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preselccfind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressthcfind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low-temperature heat for industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presvapcfind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespaccfind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydrogen for industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preshydcfind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ammonia for industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preammind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prescmscfneind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presgazcfneind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naphtha for non-energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespetcfneind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2 for non-energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preshydcfneind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presenccfneind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coal for industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmscfind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enccfens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">petcfens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gazcfens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elccfens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vapcfens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prescmscfagr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presenccfagr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agriculture oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespetcfagr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agriculture electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preselccfagr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agriculture heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presvapcfagr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pregazcfagr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressthcfagr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prespaccfagr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEV charging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prebev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicle to grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevtg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEV charging losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prebevloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicle to grid losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevtgloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TES charging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pretesdhs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TES discharging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pretesdhd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TES charging losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predhsclos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TES discharging losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predhsdlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fossil gas to gas network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefossilgas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fossil oil to oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefossiloil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity demand to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preresindra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prebevse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prehydse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solid biomass demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pbiomassd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gas demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pgasmassd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heatpump demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phpmassd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dh demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pshdemand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prohydro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proonshore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proofshore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prosolar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proambient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procimpgas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procimpoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procimpelc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procimphyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procimpbio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procimpdh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procimpam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procimpmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procimpcoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procexpelec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydrogen exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procexphyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heat exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procexphe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proexpamm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expbm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proexpmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioSNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probiosng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioSNG losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probiosngloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proexpoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proexpgas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power requirement DAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predacelc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat requirement DAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predachee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precoalpf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home battery charging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prehbatelc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home battery discharger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prebatelcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home battery charging losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prebatloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home battery losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prebatelcdloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity grid losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pregridloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methanol losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">premetlosses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process emissions from industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmprocess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process emissions from industry CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmprocesscc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmprocessccst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCGT emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmccgt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCGT emmissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmocgt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lignite emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmlig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMR CC Emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmsmr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMR Emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmsmrsm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMR Emissions captured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmsmrcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential rural boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmresbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential decentral rural boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmresubbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">services decentral rural boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmsesubbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">services  rural boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmserbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urban boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmurbbbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential oil boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmresoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential decentral oil boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmresuoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">services decentral oil boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmsesuboil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">services oil boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmserroil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solid biomass for industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmindbm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmindbmatm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methanolisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmgas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential decentral biomass boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmresbm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmresbmatm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">services decentral biomass boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmserbm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmserbmatm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential rural biomass boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmresbmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmresbmmatm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">services rural biomass boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmserbmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmserbmmatm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aviation emmissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmavi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture oil emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmoilagr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">land transport oil emisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmoiltra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shipping oil emisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmoilwati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shipping methanol emisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmmetwati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmluf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fossil gas to gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmfossgas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmfossoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gas for industry CC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmgascc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmgasccx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solid biomass for industry CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmindatmbm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BECCUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmindbeccs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urban central solid biomass CHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmbmchp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmbmchpatm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmcoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solid biomass to liquid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmbmliq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmbmliqat</t>
+  </si>
+  <si>
     <t xml:space="preserve">biogas to gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blq_ghg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass to liquid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp_ghg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imported methanol emmissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dac_ghg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co2 sequestration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext_ghg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">export oil emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exg_ghg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">export gas emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hth_ghg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imported methanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eth_ghg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exported Methanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agh_ghg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHG Agriculture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic production of uranium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prodomura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic production of solid fossil fuels (coal…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prodomcms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic petroleum production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prodompet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic natural gas production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prodomgaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic production of solid biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prodomboi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestivc production of biogas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probiogasb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomethane injected directly into the gas network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prodombgr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomethane injected directly into the gas network CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prodombgrcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass liquefaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proboilqf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmboilqf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar photovoltaic Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prospv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar photovoltaic Production rooftop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prospvr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onshore wind-generated electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offshore wind-generated electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proeof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proeofac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proeofdc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marine energy Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proenm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydropower production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prohdr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydropower production ror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prohdror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-temperature geothermal energy &amp; CSP production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proght</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuclear production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proelcnuc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelcnuc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proelcura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coal-fired power generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proelccms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelccms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coal-fired power generation lignite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proelign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil-fired power generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proelcpet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelcpet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas-fired power generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proelcgaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelcgaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCGT generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proelcgazoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCGT losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proelcgazoclo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy production from solid biomass power plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proelcboi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelcboi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste-fired power generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proelcwst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelcwst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfdfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfsfsfs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrogen power generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proelchyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelchyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power output from coal-fired CHP plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbelcchpcms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelcchpcms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power output from oil-fired CHP plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbelcchppet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelcchppet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power output from methane-fired CHP plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbelcchpgaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelcchpgaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power output from gas fired CHP CC plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbelcchpccgaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power output from biogas-fired CHP plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbelcchpbgl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelcchpbgl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power output from solid biomass CHP plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbelcchpboi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelcchpboi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power output solid biomass chp CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbelccbmcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power output from waste-to-energy CHP plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbelcchpwst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelcchpwst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gegerg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power output from geothermal CHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbelcchpgeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelcchpgeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power output from hydrogen CHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbelcchphyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmelcchphyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">els</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production of H2 via electrolysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prohyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production of methanol via methanolisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promethanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity to methanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pretareen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methanation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presaba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production of ammonia from electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prohydcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmhydcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production losses of ammonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prohydclam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production of ammonia from hydrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prohydclamm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production of H2 via steam methane reforming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prohydgaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmsmr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smrc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production of H2 via steam methane reforming CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prohydgazcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steam Methane reforming H2 production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prohydfesmr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probmliqu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass to liquid losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probmliqlos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">battery charger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probattchg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">battery charger losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probattchlos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">battery discharger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probattdhg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">battery discharger losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probattdhlos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fischer-Tropsch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profischer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fischer-Tropsch heat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profischerh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fischer-Tropsch losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profischerlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from coal-fired CHP plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbvapchpcms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmvapchpcms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coal cogeneration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from oil-fired CHP plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbvapchppet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmvapchppet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil cogeneration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from methane-fired CHP plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbvapchpgaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmvapchpgaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas network cogeneration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from methane-fired CHP CC plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbvapchpccgaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from biogas-fired CHP plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbvapchpbgl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmvapchpbgl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biogas cogeneration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from solid biomass CHP plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbvapchpboi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmvapchpboi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solid biomass cogeneration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat out put solid biomass CHP CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbelccbmcch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from waste-to-energy CHP plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbvapchpwst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmvapchpwst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste cogeneration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from geothermal CHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbvapchpgeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmvapchpgeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geothermal heat cogeneration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from hydrogen CHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbvapchphyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmvapchphyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrogen cogeneration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from heat recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchfat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from household waste incineration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchinc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmrchinc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from geothermal energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchgeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geothermal heat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from solid biomass boilers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchboi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmrchboi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from gas-fired boilers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchgaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmrchgaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas network</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gas-fired boilers losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchgazzloss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from oil-fired boilers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchpet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmrchpet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from centralised electric boilers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbchresh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbchreshh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losses from centralised electric boilers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">losselchh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from coal-fired boilers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchcms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmrchcms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from centralised solar thermal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchsth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centralised solar thermal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from centralised heat pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchpac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmrchpac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centralised heat pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchpacc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from centralised electric heat pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchpee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchpeee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchpeeee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat energy output from hydrogen boilers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbrchhyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdmrchhyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (nuclear powerplants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossnuc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (coal-fired powerplants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">losscoal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (coal-fired powerplants) lignite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">losslig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (oil-fired powerplants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (gas-fired powerplants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossgas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (solid biomass powerplants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (waste-fired powerplants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">llll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iuygg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (hydrogen powerplants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fftfy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (coal-fired CHP plants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scvqs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (oil-fired CHP plants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csqz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (methane-fired CHP plants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dqzf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (methane-fired CHP CC plants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossgazchpcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (biogas-fired CHP plants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfqf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (solid biomass CHP plants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossbchp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">losses solid biomass chp CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prbelccbmccl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (waste-to-energy CHP plants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zfazfa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fzza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (geothermal CHP plants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fzeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses methanolisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossmet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (hydrogen CHP plants)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afzf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (electrolysis)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">losshely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (steam methane reforming)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossmr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossmrr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (heat recovery)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efzz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (household waste incineration)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fzfaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (geothermal energy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fqzfzef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (solid biomass residential rural boilers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (solid biomass tertiary rural boilers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossbbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (solid biomass residential urban boilers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">losssb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (solid biomass tertiary urban boilers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">losssbbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (gas-fired residential rural boilers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossgb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (gas-fired tertiary rural boilers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossgbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (gas-fired residential urban boilers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossgbs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (gas-fired tertiary urban boilers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossgbss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (oil-fired residential rural boilers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (oil-fired tertiary rural boilers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossobb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (oil-fired residential urban boilers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (oil-fired tertiary urban boilers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossobss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (coal-fired boilers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efzef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (centralised solar thermal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (centralised heat pumps)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">losshp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (hydrogen boilers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zfzf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (resistive heaters residential rural)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossrh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (resistive heaters tertiary rural)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossrhh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (resistive heaters residential urban)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossrhs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (resistive heaters tertiary urban)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossrhss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (resistive heaters)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossrhsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossrhshs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossrhshsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossrhshss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossrhx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossrhxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossrhy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossrhyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas grid distribution &amp; storage losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fzzaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat network distribution losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrogen distribution &amp; storage losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fazfa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (methanation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presabaloss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses (biomass liquefaction)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fzafz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses biomass for industry CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossbmind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation losses gas for industry CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lossgasind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prescmscfres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential and tertiary biomass for heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presenccfres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presenccfb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presenccfbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presenccfbbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential and tertiary oil for heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespetcfres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespetcfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespetcfoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespetcfooo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential and tertiary gas for heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presgazcfres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presgazcfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presgazcfgg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presgazcfggg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electricity demand of residential and tertairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preselccfres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential rural heat pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehhp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehhpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential urban heat pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehhh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehhhh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tertairy rural heat pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehppp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tertairy urban heat pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehplm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tertairy urban heatpumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehplmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential rural electric heaters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehpln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehplnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential urban electric heaters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehplx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehplxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tertairy rural electric heaters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehplyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tertairy urban electric heaters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehplyyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehplz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential and tertairy heat from electric heaters and pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehpx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehpxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehpy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preehpyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electricity demand for rail network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preserail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential and tertiary DH demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presvapcfdhs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential  ambient rural  heat pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespaccfres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespaccfra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential  ambient urban heat pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespaccfraa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespaccfaaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tertiary rural ambient heat pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespaccfta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tertiary rural heat pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespaccftaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tertiary urban ambient heat pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespaccfftt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tertiary urban heat pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespaccffff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pressthcfres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prescmscfter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presenccfter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespetcfter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presgazcfter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preselccfter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presvapcfter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespaccfter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pressthcfter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oil to transport demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preslqfcftra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presgazcftra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">land transport hydrogen demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preshydcftra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">land transport EV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preselccftra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aviation oil demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preslqfcfavi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shipping oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preslqfcffrewati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shipping methanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presngvcffrewati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shipping hydrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preshydwati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prescmscfind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solid biomass for Industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presenccfind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solid biomass for Industry CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presenccfindd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespetcfind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gas for industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presgazcfind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gas for industry CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presgazcfindd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electricity for industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preselccfind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pressthcfind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low-temperature heat for industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presvapcfind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespaccfind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydrogen for industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preshydcfind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ammonia for industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preammind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prescmscfneind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presgazcfneind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naphtha for non-energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespetcfneind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2 for non-energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preshydcfneind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presenccfneind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coal for industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmscfind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enccfens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">petcfens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gazcfens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elccfens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vapcfens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prescmscfagr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presenccfagr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agriculture oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespetcfagr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agriculture electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preselccfagr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agriculture heat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presvapcfagr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pregazcfagr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pressthcfagr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prespaccfagr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEV charging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prebev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vehicle to grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prevtg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEV charging losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prebevloss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vehicle to grid losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prevtgloss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TES charging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pretesdhs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TES discharging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pretesdhd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TES charging losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predhsclos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TES discharging losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predhsdlos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fossil gas to gas network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefossilgas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fossil oil to oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefossiloil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electricity demand to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preresindra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prebevse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prehydse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solid biomass demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pbiomassd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gas demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pgasmassd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heatpump demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phpmassd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dh demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pshdemand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prohydro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proonshore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proofshore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prosolar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proambient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procimpgas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procimpoil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procimpelc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procimphyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procimpbio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procimpdh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procimpam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procimpmet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procimpcoal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electricity exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procexpelec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydrogen exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procexphyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heat exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procexphe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proexpamm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expbm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proexpmet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioSNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probiosng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioSNG losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probiosngloss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oil exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proexpoil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proexpgas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power requirement DAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predacelc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat requirement DAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predachee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precoalpf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home battery charging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prehbatelc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home battery discharger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prebatelcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home battery charging losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prebatloss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home battery losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prebatelcdloss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity grid losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pregridloss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methanol losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">premetlosses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process emissions from industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmprocess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process emissions from industry CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmprocesscc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmprocessccst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCGT emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmccgt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCGT emmissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmocgt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lignite emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmlig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMR CC Emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmsmr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMR Emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmsmrsm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMR Emissions captured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmsmrcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential rural boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmresbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential decentral rural boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmresubbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">services decentral rural boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmsesubbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">services  rural boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmserbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urban boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmurbbbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential oil boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmresoil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential decentral oil boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmresuoil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">services decentral oil boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmsesuboil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">services oil boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmserroil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solid biomass for industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmindbm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmindbmatm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methanolisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmmet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmgas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential decentral biomass boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmresbm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmresbmatm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">services decentral biomass boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmserbm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmserbmatm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential rural biomass boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmresbmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmresbmmatm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">services rural biomass boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmserbmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmserbmmatm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oil emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmoil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aviation emmissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmavi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture oil emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmoilagr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">land transport oil emisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmoiltra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shipping oil emisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmoilwati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shipping methanol emisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmmetwati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmluf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fossil gas to gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmfossgas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmfossoil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gas for industry CC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmgascc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmgasccx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solid biomass for industry CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmindatmbm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BECCUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmindbeccs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urban central solid biomass CHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmbmchp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmbmchpatm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coal emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmcoal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solid biomass to liquid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmbmliq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmbmliqat</t>
   </si>
   <si>
     <t xml:space="preserve">emmbiogas</t>
@@ -5560,9 +5563,8 @@
       <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.09"/>
@@ -6168,11 +6170,11 @@
       <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>2020</v>
@@ -6189,7 +6191,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10</v>
@@ -6204,12 +6206,12 @@
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -6224,12 +6226,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.6</v>
@@ -6244,12 +6246,12 @@
         <v>0.6</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -6264,12 +6266,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1.28</v>
@@ -6284,12 +6286,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>47</v>
@@ -6304,12 +6306,12 @@
         <v>40</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>20</v>
@@ -6324,12 +6326,12 @@
         <v>0</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -6344,12 +6346,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -6364,12 +6366,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -6384,12 +6386,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -6404,12 +6406,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6424,12 +6426,12 @@
         <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>8</v>
@@ -6444,12 +6446,12 @@
         <v>0</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>16</v>
@@ -6464,12 +6466,12 @@
         <v>16</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>19</v>
@@ -6484,12 +6486,12 @@
         <v>19</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>31</v>
@@ -6504,12 +6506,12 @@
         <v>20</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6524,12 +6526,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6544,12 +6546,12 @@
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6564,12 +6566,12 @@
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>107</v>
@@ -6584,12 +6586,12 @@
         <v>107</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1000</v>
@@ -6604,12 +6606,12 @@
         <v>1000</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>43</v>
@@ -6624,12 +6626,12 @@
         <v>43</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -6644,12 +6646,12 @@
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>68</v>
@@ -6664,12 +6666,12 @@
         <v>68</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -6684,12 +6686,12 @@
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -6704,12 +6706,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -6724,12 +6726,12 @@
         <v>0</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>351</v>
@@ -6744,7 +6746,7 @@
         <v>341</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -6791,15 +6793,15 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>2020</v>
@@ -6816,7 +6818,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>6.5</v>
@@ -6831,12 +6833,12 @@
         <v>4</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -6851,12 +6853,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6871,12 +6873,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -6891,12 +6893,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1.36</v>
@@ -6911,12 +6913,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>38</v>
@@ -6931,12 +6933,12 @@
         <v>30</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>42</v>
@@ -6951,12 +6953,12 @@
         <v>0</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -6971,12 +6973,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -6991,12 +6993,12 @@
         <v>1</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -7011,12 +7013,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -7031,12 +7033,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>9</v>
@@ -7051,12 +7053,12 @@
         <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>8</v>
@@ -7071,12 +7073,12 @@
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>13</v>
@@ -7091,12 +7093,12 @@
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -7111,12 +7113,12 @@
         <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>60</v>
@@ -7131,12 +7133,12 @@
         <v>60</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -7151,12 +7153,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -7171,12 +7173,12 @@
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -7191,12 +7193,12 @@
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>12</v>
@@ -7211,12 +7213,12 @@
         <v>12</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1076</v>
@@ -7231,12 +7233,12 @@
         <v>1000</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>11</v>
@@ -7251,12 +7253,12 @@
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7271,12 +7273,12 @@
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>40</v>
@@ -7291,12 +7293,12 @@
         <v>40</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7311,12 +7313,12 @@
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -7331,12 +7333,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2.4</v>
@@ -7351,12 +7353,12 @@
         <v>2.4</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>616</v>
@@ -7371,7 +7373,7 @@
         <v>600</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
   </sheetData>
@@ -7428,7 +7430,7 @@
       <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.28"/>
@@ -7608,15 +7610,15 @@
   </sheetPr>
   <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D65" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
-      <selection pane="bottomRight" activeCell="C73" activeCellId="0" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="C99" activeCellId="0" sqref="C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.36"/>
@@ -10262,7 +10264,7 @@
       <selection pane="bottomLeft" activeCell="C263" activeCellId="0" sqref="C263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -16033,7 +16035,7 @@
       <selection pane="bottomLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -16921,10 +16923,10 @@
       </c>
       <c r="C51" s="43"/>
       <c r="D51" s="44" t="s">
-        <v>365</v>
+        <v>1038</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
@@ -16938,10 +16940,10 @@
       </c>
       <c r="C52" s="43"/>
       <c r="D52" s="44" t="s">
-        <v>365</v>
+        <v>1038</v>
       </c>
       <c r="E52" s="51" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
@@ -16955,10 +16957,10 @@
       </c>
       <c r="C53" s="43"/>
       <c r="D53" s="44" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E53" s="51" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F53" s="43"/>
       <c r="G53" s="43"/>
@@ -16974,10 +16976,10 @@
         <v>398</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="43"/>
@@ -16991,10 +16993,10 @@
       </c>
       <c r="C55" s="43"/>
       <c r="D55" s="44" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E55" s="51" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="43"/>
@@ -17008,10 +17010,10 @@
       </c>
       <c r="C56" s="43"/>
       <c r="D56" s="44" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E56" s="51" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="43"/>
@@ -17028,7 +17030,7 @@
         <v>523</v>
       </c>
       <c r="E57" s="51" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="43"/>
@@ -17042,10 +17044,10 @@
       </c>
       <c r="C58" s="43"/>
       <c r="D58" s="44" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E58" s="51" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="43"/>
@@ -17062,7 +17064,7 @@
         <v>1028</v>
       </c>
       <c r="E59" s="51" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="43"/>
@@ -17079,7 +17081,7 @@
         <v>371</v>
       </c>
       <c r="E60" s="51" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F60" s="43"/>
       <c r="G60" s="43"/>
@@ -17096,7 +17098,7 @@
         <v>373</v>
       </c>
       <c r="E61" s="51" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="F61" s="43"/>
       <c r="G61" s="43"/>
@@ -17110,10 +17112,10 @@
       </c>
       <c r="C62" s="43"/>
       <c r="D62" s="44" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E62" s="44" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="43"/>
@@ -17127,10 +17129,10 @@
       </c>
       <c r="C63" s="43"/>
       <c r="D63" s="44" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E63" s="44" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F63" s="43"/>
       <c r="G63" s="43"/>
@@ -17144,10 +17146,10 @@
       </c>
       <c r="C64" s="43"/>
       <c r="D64" s="44" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E64" s="44" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="F64" s="43"/>
       <c r="G64" s="43"/>
@@ -17161,10 +17163,10 @@
       </c>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E65" s="44" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="F65" s="43"/>
       <c r="G65" s="43"/>
@@ -17178,10 +17180,10 @@
       </c>
       <c r="C66" s="43"/>
       <c r="D66" s="44" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E66" s="44" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F66" s="43"/>
       <c r="G66" s="43"/>
@@ -17195,10 +17197,10 @@
       </c>
       <c r="C67" s="43"/>
       <c r="D67" s="44" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E67" s="44" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F67" s="43"/>
       <c r="G67" s="43"/>
@@ -17212,10 +17214,10 @@
       </c>
       <c r="C68" s="43"/>
       <c r="D68" s="44" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E68" s="44" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F68" s="43"/>
       <c r="G68" s="43"/>
@@ -17229,10 +17231,10 @@
       </c>
       <c r="C69" s="43"/>
       <c r="D69" s="44" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F69" s="43"/>
       <c r="G69" s="43"/>
@@ -17246,10 +17248,10 @@
       </c>
       <c r="C70" s="43"/>
       <c r="D70" s="44" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E70" s="44" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F70" s="43"/>
       <c r="G70" s="43"/>
@@ -17263,10 +17265,10 @@
       </c>
       <c r="C71" s="43"/>
       <c r="D71" s="44" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E71" s="44" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F71" s="43"/>
       <c r="G71" s="43"/>
@@ -17280,10 +17282,10 @@
       </c>
       <c r="C72" s="43"/>
       <c r="D72" s="44" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E72" s="44" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F72" s="43"/>
       <c r="G72" s="43"/>
@@ -17300,7 +17302,7 @@
         <v>381</v>
       </c>
       <c r="E73" s="50" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F73" s="43"/>
       <c r="G73" s="43"/>
@@ -17314,10 +17316,10 @@
       </c>
       <c r="C74" s="43"/>
       <c r="D74" s="50" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F74" s="43"/>
       <c r="G74" s="43"/>
@@ -17331,10 +17333,10 @@
       </c>
       <c r="C75" s="43"/>
       <c r="D75" s="50" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E75" s="50" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F75" s="43"/>
       <c r="G75" s="43"/>
@@ -17572,7 +17574,7 @@
       <selection pane="bottomLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.18"/>
@@ -17666,7 +17668,7 @@
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="44" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E5" s="44" t="s">
         <v>957</v>
@@ -17693,7 +17695,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>227</v>
@@ -17710,7 +17712,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>227</v>
@@ -17727,7 +17729,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>227</v>
@@ -17744,7 +17746,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>227</v>
@@ -17761,7 +17763,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>227</v>
@@ -17778,7 +17780,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>227</v>
@@ -17812,7 +17814,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>225</v>
@@ -17829,7 +17831,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>225</v>
@@ -17846,7 +17848,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>225</v>
@@ -17863,7 +17865,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>225</v>
@@ -17880,7 +17882,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="49" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>227</v>
@@ -17897,7 +17899,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="49" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>225</v>
@@ -17916,7 +17918,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="49" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>225</v>
@@ -17933,7 +17935,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="49" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>225</v>
@@ -17950,7 +17952,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="49" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>225</v>
@@ -17967,7 +17969,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="49" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>225</v>
@@ -17984,7 +17986,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="49" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>234</v>
@@ -18018,7 +18020,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="49" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>227</v>
@@ -18059,10 +18061,10 @@
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="44" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
@@ -18076,10 +18078,10 @@
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="44" t="s">
-        <v>365</v>
+        <v>1038</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
@@ -18093,10 +18095,10 @@
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="44" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
@@ -18113,7 +18115,7 @@
         <v>371</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
@@ -18161,10 +18163,10 @@
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="44" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
@@ -18178,10 +18180,10 @@
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="44" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
@@ -18195,10 +18197,10 @@
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="44" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
@@ -18212,17 +18214,17 @@
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="44" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="49" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>345</v>
@@ -18256,7 +18258,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>345</v>
@@ -18290,7 +18292,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>345</v>
@@ -18324,7 +18326,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B44" s="27" t="s">
         <v>345</v>
@@ -18358,7 +18360,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B46" s="27" t="s">
         <v>345</v>
@@ -18392,7 +18394,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="49" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>345</v>
@@ -18433,10 +18435,10 @@
       </c>
       <c r="C50" s="43"/>
       <c r="D50" s="44" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
@@ -18450,10 +18452,10 @@
       </c>
       <c r="C51" s="43"/>
       <c r="D51" s="44" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
@@ -18485,7 +18487,7 @@
       <selection pane="bottomLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -18512,563 +18514,563 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B2" s="53" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>1086</v>
       </c>
-      <c r="C2" s="54" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>1085</v>
-      </c>
       <c r="E2" s="56" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E3" s="56" t="s">
         <v>1089</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B4" s="53" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>1093</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>1092</v>
-      </c>
       <c r="E4" s="56" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B5" s="53" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>1095</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>1094</v>
-      </c>
       <c r="E5" s="56" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B6" s="53" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>1097</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>1096</v>
-      </c>
       <c r="E6" s="56" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B7" s="53" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>1099</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>1098</v>
-      </c>
       <c r="E7" s="56" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B8" s="53" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>1101</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>1100</v>
-      </c>
       <c r="E8" s="56" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B9" s="53" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>1103</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>1102</v>
-      </c>
       <c r="E9" s="56" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B10" s="53" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>1105</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>1104</v>
-      </c>
       <c r="E10" s="56" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B11" s="53" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>1107</v>
       </c>
-      <c r="C11" s="54" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>1106</v>
-      </c>
       <c r="E11" s="56" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B12" s="53" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D12" s="55" t="s">
         <v>1109</v>
       </c>
-      <c r="C12" s="54" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>1108</v>
-      </c>
       <c r="E12" s="56" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B13" s="53" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D13" s="55" t="s">
         <v>1111</v>
       </c>
-      <c r="C13" s="57" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>1110</v>
-      </c>
       <c r="E13" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E14" s="58" t="s">
         <v>1113</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B16" s="53" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D16" s="55" t="s">
         <v>1119</v>
       </c>
-      <c r="C16" s="57" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>1118</v>
-      </c>
       <c r="E16" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B17" s="53" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D17" s="55" t="s">
         <v>1121</v>
       </c>
-      <c r="C17" s="57" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>1120</v>
-      </c>
       <c r="E17" s="56" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B18" s="53" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D18" s="55" t="s">
         <v>1123</v>
       </c>
-      <c r="C18" s="57" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>1122</v>
-      </c>
       <c r="E18" s="56" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B20" s="53" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D20" s="55" t="s">
         <v>1128</v>
       </c>
-      <c r="C20" s="54" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>1127</v>
-      </c>
       <c r="E20" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B21" s="60" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D21" s="55" t="s">
         <v>1130</v>
       </c>
-      <c r="C21" s="54" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>1129</v>
-      </c>
       <c r="E21" s="56" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B23" s="53" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D23" s="55" t="s">
         <v>1137</v>
       </c>
-      <c r="C23" s="54" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>1136</v>
-      </c>
       <c r="E23" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B24" s="53" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D24" s="55" t="s">
         <v>1139</v>
       </c>
-      <c r="C24" s="54" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>1138</v>
-      </c>
       <c r="E24" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B25" s="53" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D25" s="55" t="s">
         <v>1141</v>
       </c>
-      <c r="C25" s="54" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>1140</v>
-      </c>
       <c r="E25" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D26" s="63" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D31" s="63" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B32" s="53" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D32" s="55" t="s">
         <v>1162</v>
       </c>
-      <c r="C32" s="54" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>1161</v>
-      </c>
       <c r="E32" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B33" s="59" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D33" s="63" t="s">
         <v>1164</v>
       </c>
-      <c r="C33" s="57" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>1163</v>
-      </c>
       <c r="E33" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C34" s="57" t="s">
         <v>1166</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="D34" s="55" t="s">
         <v>1167</v>
       </c>
-      <c r="C34" s="57" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>1166</v>
-      </c>
       <c r="E34" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -19102,7 +19104,7 @@
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.54"/>
@@ -19129,274 +19131,274 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="55" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B3" s="53" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>1171</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>1170</v>
-      </c>
       <c r="E3" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="55" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="55" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="55" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="55" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="55" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="55" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="55" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="55" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="55" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="55" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="55" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C15" s="54"/>
       <c r="D15" s="55" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="55" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="55" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="55" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="55" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -19427,7 +19429,7 @@
       <selection pane="bottomRight" activeCell="AQ9" activeCellId="0" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.27"/>
